--- a/Deliverable/results/conductivity_ensemble.xlsx
+++ b/Deliverable/results/conductivity_ensemble.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="paste_data_here" sheetId="1" state="visible" r:id="rId3"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="158">
   <si>
     <t xml:space="preserve">smiles</t>
   </si>
@@ -1574,11 +1574,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="17320941"/>
-        <c:axId val="13343710"/>
+        <c:axId val="51586664"/>
+        <c:axId val="9218200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="17320941"/>
+        <c:axId val="51586664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-1.2"/>
@@ -1622,12 +1622,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13343710"/>
+        <c:crossAx val="9218200"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="13343710"/>
+        <c:axId val="9218200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-1.2"/>
@@ -1671,7 +1671,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17320941"/>
+        <c:crossAx val="51586664"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -2539,11 +2539,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="14196137"/>
-        <c:axId val="16438901"/>
+        <c:axId val="84613489"/>
+        <c:axId val="17867772"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="14196137"/>
+        <c:axId val="84613489"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2585,12 +2585,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16438901"/>
+        <c:crossAx val="17867772"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="16438901"/>
+        <c:axId val="17867772"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-1"/>
@@ -2634,7 +2634,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14196137"/>
+        <c:crossAx val="84613489"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3501,11 +3501,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="92423525"/>
-        <c:axId val="4327991"/>
+        <c:axId val="18481424"/>
+        <c:axId val="43335089"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="92423525"/>
+        <c:axId val="18481424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3547,12 +3547,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4327991"/>
+        <c:crossAx val="43335089"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="4327991"/>
+        <c:axId val="43335089"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-1.2"/>
@@ -3595,7 +3595,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92423525"/>
+        <c:crossAx val="18481424"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4462,11 +4462,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="63277628"/>
-        <c:axId val="43563352"/>
+        <c:axId val="89986941"/>
+        <c:axId val="46406020"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="63277628"/>
+        <c:axId val="89986941"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4508,12 +4508,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43563352"/>
+        <c:crossAx val="46406020"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="43563352"/>
+        <c:axId val="46406020"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-1.2"/>
@@ -4557,7 +4557,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63277628"/>
+        <c:crossAx val="89986941"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5424,11 +5424,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="27080129"/>
-        <c:axId val="76095266"/>
+        <c:axId val="93463814"/>
+        <c:axId val="24142667"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="27080129"/>
+        <c:axId val="93463814"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5470,12 +5470,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76095266"/>
+        <c:crossAx val="24142667"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="76095266"/>
+        <c:axId val="24142667"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-1.2"/>
@@ -5519,7 +5519,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27080129"/>
+        <c:crossAx val="93463814"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5558,9 +5558,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>722520</xdr:colOff>
+      <xdr:colOff>722160</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>160200</xdr:rowOff>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5569,7 +5569,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="623520" y="2801160"/>
-        <a:ext cx="4851360" cy="4474800"/>
+        <a:ext cx="4851000" cy="4474440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5588,9 +5588,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>337320</xdr:colOff>
+      <xdr:colOff>336960</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>68040</xdr:rowOff>
+      <xdr:rowOff>67680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5599,7 +5599,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5726880" y="2883600"/>
-        <a:ext cx="4850280" cy="4503600"/>
+        <a:ext cx="4849920" cy="4503240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5618,9 +5618,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>227880</xdr:colOff>
+      <xdr:colOff>227520</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>200880</xdr:rowOff>
+      <xdr:rowOff>200520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5629,7 +5629,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="10939320" y="2878920"/>
-        <a:ext cx="5033880" cy="4437720"/>
+        <a:ext cx="5033520" cy="4437360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5648,9 +5648,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>770040</xdr:colOff>
+      <xdr:colOff>769680</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>91080</xdr:rowOff>
+      <xdr:rowOff>90720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5659,7 +5659,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3246120" y="7386480"/>
-        <a:ext cx="4652280" cy="4087440"/>
+        <a:ext cx="4651920" cy="4087080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5678,9 +5678,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>13320</xdr:colOff>
+      <xdr:colOff>12960</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>115920</xdr:rowOff>
+      <xdr:rowOff>115560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5689,7 +5689,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="8340120" y="7497000"/>
-        <a:ext cx="4665960" cy="4001760"/>
+        <a:ext cx="4665600" cy="4001400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5897,7 +5897,7 @@
   <dimension ref="A1:Z1043682"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5954,10 +5954,10 @@
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>-2.17327414</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>0.703628073</v>
       </c>
       <c r="D2" s="1" t="n">
@@ -5981,10 +5981,10 @@
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>-2.17327416</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>0.70362804</v>
       </c>
       <c r="D3" s="1" t="n">
@@ -6002,10 +6002,10 @@
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>-2.17327424</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>0.703628063</v>
       </c>
       <c r="D4" s="1" t="n">
@@ -6023,10 +6023,10 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>-2.17327417</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>0.703628074</v>
       </c>
       <c r="D5" s="1" t="n">
@@ -6044,10 +6044,10 @@
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>-2.17327414</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>0.703628049</v>
       </c>
       <c r="D6" s="1" t="n">
@@ -6065,10 +6065,10 @@
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>-5.27230112</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>0.935589916</v>
       </c>
       <c r="D7" s="1" t="n">
@@ -6086,10 +6086,10 @@
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>-5.27230108</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>0.935589932</v>
       </c>
       <c r="D8" s="1" t="n">
@@ -6107,10 +6107,10 @@
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>-5.27230106</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>0.935589897</v>
       </c>
       <c r="D9" s="1" t="n">
@@ -6128,10 +6128,10 @@
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>-5.27230086</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>0.935589925</v>
       </c>
       <c r="D10" s="1" t="n">
@@ -6149,10 +6149,10 @@
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>-5.27230093</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>0.935589896</v>
       </c>
       <c r="D11" s="1" t="n">
@@ -6170,10 +6170,10 @@
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>0.151641968</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>0.693348291</v>
       </c>
       <c r="D12" s="1" t="n">
@@ -6191,10 +6191,10 @@
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>0.151642</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>0.693348336</v>
       </c>
       <c r="D13" s="1" t="n">
@@ -6212,10 +6212,10 @@
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <v>0.151642021</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <v>0.693348334</v>
       </c>
       <c r="D14" s="1" t="n">
@@ -6233,10 +6233,10 @@
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>0.15164204</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <v>0.693348295</v>
       </c>
       <c r="D15" s="1" t="n">
@@ -6254,10 +6254,10 @@
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <v>0.151642007</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <v>0.693348301</v>
       </c>
       <c r="D16" s="1" t="n">
@@ -6275,10 +6275,10 @@
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="1" t="n">
         <v>-2.8373301</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="1" t="n">
         <v>0.946915908</v>
       </c>
       <c r="D17" s="1" t="n">
@@ -6296,10 +6296,10 @@
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="1" t="n">
         <v>-2.83733017</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="1" t="n">
         <v>0.946915931</v>
       </c>
       <c r="D18" s="1" t="n">
@@ -6317,10 +6317,10 @@
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="1" t="n">
         <v>-2.83733006</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="1" t="n">
         <v>0.946915882</v>
       </c>
       <c r="D19" s="1" t="n">
@@ -6338,10 +6338,10 @@
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="1" t="n">
         <v>-2.83733011</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="1" t="n">
         <v>0.946915915</v>
       </c>
       <c r="D20" s="1" t="n">
@@ -6359,10 +6359,10 @@
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="1" t="n">
         <v>-2.83733018</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="1" t="n">
         <v>0.946915901</v>
       </c>
       <c r="D21" s="1" t="n">
@@ -6380,10 +6380,10 @@
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="1" t="n">
         <v>-1.27708837</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="1" t="n">
         <v>0.41424019</v>
       </c>
       <c r="D22" s="1" t="n">
@@ -6401,10 +6401,10 @@
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="1" t="n">
         <v>-1.27708842</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="1" t="n">
         <v>0.414240205</v>
       </c>
       <c r="D23" s="1" t="n">
@@ -6422,10 +6422,10 @@
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="1" t="n">
         <v>-1.27708842</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="1" t="n">
         <v>0.414240209</v>
       </c>
       <c r="D24" s="1" t="n">
@@ -6443,10 +6443,10 @@
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="1" t="n">
         <v>-1.27708838</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25" s="1" t="n">
         <v>0.414240185</v>
       </c>
       <c r="D25" s="1" t="n">
@@ -6464,10 +6464,10 @@
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="1" t="n">
         <v>-1.27708842</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="1" t="n">
         <v>0.414240204</v>
       </c>
       <c r="D26" s="1" t="n">
@@ -6485,10 +6485,10 @@
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="1" t="n">
         <v>-2.99136515</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27" s="1" t="n">
         <v>0.776913774</v>
       </c>
       <c r="D27" s="1" t="n">
@@ -6506,10 +6506,10 @@
       <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" s="1" t="n">
         <v>-2.99136504</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28" s="1" t="n">
         <v>0.776913772</v>
       </c>
       <c r="D28" s="1" t="n">
@@ -6527,10 +6527,10 @@
       <c r="A29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29" s="1" t="n">
         <v>-2.99136525</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29" s="1" t="n">
         <v>0.776913758</v>
       </c>
       <c r="D29" s="1" t="n">
@@ -6548,10 +6548,10 @@
       <c r="A30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30" s="1" t="n">
         <v>-2.99136524</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30" s="1" t="n">
         <v>0.776913805</v>
       </c>
       <c r="D30" s="1" t="n">
@@ -6569,10 +6569,10 @@
       <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="1" t="n">
         <v>-2.99136521</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31" s="1" t="n">
         <v>0.776913804</v>
       </c>
       <c r="D31" s="1" t="n">
@@ -6590,10 +6590,10 @@
       <c r="A32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32" s="1" t="n">
         <v>-3.4595457</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32" s="1" t="n">
         <v>0.856729405</v>
       </c>
       <c r="D32" s="1" t="n">
@@ -6611,10 +6611,10 @@
       <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33" s="1" t="n">
         <v>-3.4595457</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33" s="1" t="n">
         <v>0.856729381</v>
       </c>
       <c r="D33" s="1" t="n">
@@ -6632,10 +6632,10 @@
       <c r="A34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34" s="1" t="n">
         <v>-3.45954565</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34" s="1" t="n">
         <v>0.856729408</v>
       </c>
       <c r="D34" s="1" t="n">
@@ -6653,10 +6653,10 @@
       <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35" s="1" t="n">
         <v>-3.45954572</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35" s="1" t="n">
         <v>0.856729428</v>
       </c>
       <c r="D35" s="1" t="n">
@@ -6674,10 +6674,10 @@
       <c r="A36" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36" s="1" t="n">
         <v>-3.45954577</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36" s="1" t="n">
         <v>0.856729403</v>
       </c>
       <c r="D36" s="1" t="n">
@@ -6695,10 +6695,10 @@
       <c r="A37" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37" s="1" t="n">
         <v>-1.56158279</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37" s="1" t="n">
         <v>0.523204059</v>
       </c>
       <c r="D37" s="1" t="n">
@@ -6716,10 +6716,10 @@
       <c r="A38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38" s="1" t="n">
         <v>-1.56158276</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38" s="1" t="n">
         <v>0.523204036</v>
       </c>
       <c r="D38" s="1" t="n">
@@ -6737,10 +6737,10 @@
       <c r="A39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39" s="1" t="n">
         <v>-1.56158267</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39" s="1" t="n">
         <v>0.523204049</v>
       </c>
       <c r="D39" s="1" t="n">
@@ -6758,10 +6758,10 @@
       <c r="A40" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40" s="1" t="n">
         <v>-1.56158273</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40" s="1" t="n">
         <v>0.523204069</v>
       </c>
       <c r="D40" s="1" t="n">
@@ -6779,10 +6779,10 @@
       <c r="A41" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41" s="1" t="n">
         <v>-1.56158274</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41" s="1" t="n">
         <v>0.523204066</v>
       </c>
       <c r="D41" s="1" t="n">
@@ -6800,10 +6800,10 @@
       <c r="A42" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42" s="1" t="n">
         <v>-1.49751105</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42" s="1" t="n">
         <v>0.405803551</v>
       </c>
       <c r="D42" s="1" t="n">
@@ -6821,10 +6821,10 @@
       <c r="A43" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43" s="1" t="n">
         <v>-1.497511</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43" s="1" t="n">
         <v>0.405803543</v>
       </c>
       <c r="D43" s="1" t="n">
@@ -6842,10 +6842,10 @@
       <c r="A44" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44" s="1" t="n">
         <v>-1.49751101</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44" s="1" t="n">
         <v>0.405803549</v>
       </c>
       <c r="D44" s="1" t="n">
@@ -6863,10 +6863,10 @@
       <c r="A45" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45" s="1" t="n">
         <v>-1.49751101</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45" s="1" t="n">
         <v>0.405803555</v>
       </c>
       <c r="D45" s="1" t="n">
@@ -6884,10 +6884,10 @@
       <c r="A46" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46" s="1" t="n">
         <v>-1.49751102</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46" s="1" t="n">
         <v>0.405803574</v>
       </c>
       <c r="D46" s="1" t="n">
@@ -6905,10 +6905,10 @@
       <c r="A47" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47" s="1" t="n">
         <v>-1.37861979</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47" s="1" t="n">
         <v>0.687988686</v>
       </c>
       <c r="D47" s="1" t="n">
@@ -6926,10 +6926,10 @@
       <c r="A48" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48" s="1" t="n">
         <v>-1.37861972</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48" s="1" t="n">
         <v>0.687988686</v>
       </c>
       <c r="D48" s="1" t="n">
@@ -6947,10 +6947,10 @@
       <c r="A49" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49" s="1" t="n">
         <v>-1.37861977</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49" s="1" t="n">
         <v>0.687988696</v>
       </c>
       <c r="D49" s="1" t="n">
@@ -6968,10 +6968,10 @@
       <c r="A50" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B50" s="1" t="n">
         <v>-1.37861978</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50" s="1" t="n">
         <v>0.68798869</v>
       </c>
       <c r="D50" s="1" t="n">
@@ -6989,10 +6989,10 @@
       <c r="A51" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51" s="1" t="n">
         <v>-1.37861972</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51" s="1" t="n">
         <v>0.687988693</v>
       </c>
       <c r="D51" s="1" t="n">
@@ -7010,10 +7010,10 @@
       <c r="A52" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52" s="1" t="n">
         <v>-1.26399771</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52" s="1" t="n">
         <v>0.491048689</v>
       </c>
       <c r="D52" s="1" t="n">
@@ -7031,10 +7031,10 @@
       <c r="A53" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53" s="1" t="n">
         <v>-1.26399771</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53" s="1" t="n">
         <v>0.491048695</v>
       </c>
       <c r="D53" s="1" t="n">
@@ -7052,10 +7052,10 @@
       <c r="A54" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54" s="1" t="n">
         <v>-1.26399765</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C54" s="1" t="n">
         <v>0.491048692</v>
       </c>
       <c r="D54" s="1" t="n">
@@ -7073,10 +7073,10 @@
       <c r="A55" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55" s="1" t="n">
         <v>-1.2639977</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C55" s="1" t="n">
         <v>0.491048699</v>
       </c>
       <c r="D55" s="1" t="n">
@@ -7094,10 +7094,10 @@
       <c r="A56" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56" s="1" t="n">
         <v>-1.26399767</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56" s="1" t="n">
         <v>0.491048698</v>
       </c>
       <c r="D56" s="1" t="n">
@@ -7115,10 +7115,10 @@
       <c r="A57" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B57" s="1" t="n">
         <v>-2.70006576</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C57" s="1" t="n">
         <v>0.779674629</v>
       </c>
       <c r="D57" s="1" t="n">
@@ -7136,10 +7136,10 @@
       <c r="A58" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B58" s="0" t="n">
+      <c r="B58" s="1" t="n">
         <v>-2.70006578</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C58" s="1" t="n">
         <v>0.779674611</v>
       </c>
       <c r="D58" s="1" t="n">
@@ -7157,10 +7157,10 @@
       <c r="A59" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B59" s="0" t="n">
+      <c r="B59" s="1" t="n">
         <v>-2.70006581</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C59" s="1" t="n">
         <v>0.779674586</v>
       </c>
       <c r="D59" s="1" t="n">
@@ -7178,10 +7178,10 @@
       <c r="A60" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B60" s="0" t="n">
+      <c r="B60" s="1" t="n">
         <v>-2.70006573</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C60" s="1" t="n">
         <v>0.779674606</v>
       </c>
       <c r="D60" s="1" t="n">
@@ -7199,10 +7199,10 @@
       <c r="A61" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B61" s="0" t="n">
+      <c r="B61" s="1" t="n">
         <v>-2.70006584</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C61" s="1" t="n">
         <v>0.779674638</v>
       </c>
       <c r="D61" s="1" t="n">
@@ -7220,10 +7220,10 @@
       <c r="A62" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B62" s="0" t="n">
+      <c r="B62" s="1" t="n">
         <v>-1.109807739</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C62" s="1" t="n">
         <v>0.40339065</v>
       </c>
       <c r="D62" s="1" t="n">
@@ -7241,10 +7241,10 @@
       <c r="A63" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B63" s="0" t="n">
+      <c r="B63" s="1" t="n">
         <v>-1.109807734</v>
       </c>
-      <c r="C63" s="0" t="n">
+      <c r="C63" s="1" t="n">
         <v>0.403390652</v>
       </c>
       <c r="D63" s="1" t="n">
@@ -7262,10 +7262,10 @@
       <c r="A64" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B64" s="0" t="n">
+      <c r="B64" s="1" t="n">
         <v>-1.109807736</v>
       </c>
-      <c r="C64" s="0" t="n">
+      <c r="C64" s="1" t="n">
         <v>0.403390655</v>
       </c>
       <c r="D64" s="1" t="n">
@@ -7283,10 +7283,10 @@
       <c r="A65" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B65" s="0" t="n">
+      <c r="B65" s="1" t="n">
         <v>-1.109807731</v>
       </c>
-      <c r="C65" s="0" t="n">
+      <c r="C65" s="1" t="n">
         <v>0.40339065</v>
       </c>
       <c r="D65" s="1" t="n">
@@ -7304,10 +7304,10 @@
       <c r="A66" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B66" s="0" t="n">
+      <c r="B66" s="1" t="n">
         <v>-1.109807746</v>
       </c>
-      <c r="C66" s="0" t="n">
+      <c r="C66" s="1" t="n">
         <v>0.403390657</v>
       </c>
       <c r="D66" s="1" t="n">
@@ -7325,10 +7325,10 @@
       <c r="A67" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B67" s="0" t="n">
+      <c r="B67" s="1" t="n">
         <v>-0.927569248</v>
       </c>
-      <c r="C67" s="0" t="n">
+      <c r="C67" s="1" t="n">
         <v>0.576184164</v>
       </c>
       <c r="D67" s="1" t="n">
@@ -7346,10 +7346,10 @@
       <c r="A68" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B68" s="0" t="n">
+      <c r="B68" s="1" t="n">
         <v>-0.927569274</v>
       </c>
-      <c r="C68" s="0" t="n">
+      <c r="C68" s="1" t="n">
         <v>0.576184165</v>
       </c>
       <c r="D68" s="1" t="n">
@@ -7367,10 +7367,10 @@
       <c r="A69" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B69" s="0" t="n">
+      <c r="B69" s="1" t="n">
         <v>-0.927569251</v>
       </c>
-      <c r="C69" s="0" t="n">
+      <c r="C69" s="1" t="n">
         <v>0.576184136</v>
       </c>
       <c r="D69" s="1" t="n">
@@ -7388,10 +7388,10 @@
       <c r="A70" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B70" s="0" t="n">
+      <c r="B70" s="1" t="n">
         <v>-0.927569252</v>
       </c>
-      <c r="C70" s="0" t="n">
+      <c r="C70" s="1" t="n">
         <v>0.576184176</v>
       </c>
       <c r="D70" s="1" t="n">
@@ -7409,10 +7409,10 @@
       <c r="A71" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="0" t="n">
+      <c r="B71" s="1" t="n">
         <v>-0.927569266</v>
       </c>
-      <c r="C71" s="0" t="n">
+      <c r="C71" s="1" t="n">
         <v>0.576184157</v>
       </c>
       <c r="D71" s="1" t="n">
@@ -7430,10 +7430,10 @@
       <c r="A72" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B72" s="0" t="n">
+      <c r="B72" s="1" t="n">
         <v>-2.23159936</v>
       </c>
-      <c r="C72" s="0" t="n">
+      <c r="C72" s="1" t="n">
         <v>0.887854536</v>
       </c>
       <c r="D72" s="1" t="n">
@@ -7451,10 +7451,10 @@
       <c r="A73" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B73" s="0" t="n">
+      <c r="B73" s="1" t="n">
         <v>-2.2315993</v>
       </c>
-      <c r="C73" s="0" t="n">
+      <c r="C73" s="1" t="n">
         <v>0.88785452</v>
       </c>
       <c r="D73" s="1" t="n">
@@ -7472,10 +7472,10 @@
       <c r="A74" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B74" s="0" t="n">
+      <c r="B74" s="1" t="n">
         <v>-2.23159932</v>
       </c>
-      <c r="C74" s="0" t="n">
+      <c r="C74" s="1" t="n">
         <v>0.887854505</v>
       </c>
       <c r="D74" s="1" t="n">
@@ -7493,10 +7493,10 @@
       <c r="A75" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B75" s="0" t="n">
+      <c r="B75" s="1" t="n">
         <v>-2.2315993</v>
       </c>
-      <c r="C75" s="0" t="n">
+      <c r="C75" s="1" t="n">
         <v>0.88785452</v>
       </c>
       <c r="D75" s="1" t="n">
@@ -7514,10 +7514,10 @@
       <c r="A76" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B76" s="0" t="n">
+      <c r="B76" s="1" t="n">
         <v>-2.23159932</v>
       </c>
-      <c r="C76" s="0" t="n">
+      <c r="C76" s="1" t="n">
         <v>0.887854516</v>
       </c>
       <c r="D76" s="1" t="n">
@@ -7535,10 +7535,10 @@
       <c r="A77" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B77" s="0" t="n">
+      <c r="B77" s="1" t="n">
         <v>-1.96877817</v>
       </c>
-      <c r="C77" s="0" t="n">
+      <c r="C77" s="1" t="n">
         <v>0.471801005</v>
       </c>
       <c r="D77" s="1" t="n">
@@ -7556,10 +7556,10 @@
       <c r="A78" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B78" s="0" t="n">
+      <c r="B78" s="1" t="n">
         <v>-1.96877824</v>
       </c>
-      <c r="C78" s="0" t="n">
+      <c r="C78" s="1" t="n">
         <v>0.47180101</v>
       </c>
       <c r="D78" s="1" t="n">
@@ -7577,10 +7577,10 @@
       <c r="A79" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B79" s="0" t="n">
+      <c r="B79" s="1" t="n">
         <v>-1.96877815</v>
       </c>
-      <c r="C79" s="0" t="n">
+      <c r="C79" s="1" t="n">
         <v>0.471800993</v>
       </c>
       <c r="D79" s="1" t="n">
@@ -7598,10 +7598,10 @@
       <c r="A80" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B80" s="0" t="n">
+      <c r="B80" s="1" t="n">
         <v>-1.9687782</v>
       </c>
-      <c r="C80" s="0" t="n">
+      <c r="C80" s="1" t="n">
         <v>0.471800991</v>
       </c>
       <c r="D80" s="1" t="n">
@@ -7619,10 +7619,10 @@
       <c r="A81" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B81" s="0" t="n">
+      <c r="B81" s="1" t="n">
         <v>-1.96877825</v>
       </c>
-      <c r="C81" s="0" t="n">
+      <c r="C81" s="1" t="n">
         <v>0.471800987</v>
       </c>
       <c r="D81" s="1" t="n">
@@ -7640,10 +7640,10 @@
       <c r="A82" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B82" s="0" t="n">
+      <c r="B82" s="1" t="n">
         <v>-3.06657206</v>
       </c>
-      <c r="C82" s="0" t="n">
+      <c r="C82" s="1" t="n">
         <v>1.17146396</v>
       </c>
       <c r="D82" s="1" t="n">
@@ -7661,10 +7661,10 @@
       <c r="A83" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B83" s="0" t="n">
+      <c r="B83" s="1" t="n">
         <v>-3.06657197</v>
       </c>
-      <c r="C83" s="0" t="n">
+      <c r="C83" s="1" t="n">
         <v>1.171464</v>
       </c>
       <c r="D83" s="1" t="n">
@@ -7682,10 +7682,10 @@
       <c r="A84" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B84" s="0" t="n">
+      <c r="B84" s="1" t="n">
         <v>-3.06657206</v>
       </c>
-      <c r="C84" s="0" t="n">
+      <c r="C84" s="1" t="n">
         <v>1.17146402</v>
       </c>
       <c r="D84" s="1" t="n">
@@ -7703,10 +7703,10 @@
       <c r="A85" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B85" s="0" t="n">
+      <c r="B85" s="1" t="n">
         <v>-3.06657201</v>
       </c>
-      <c r="C85" s="0" t="n">
+      <c r="C85" s="1" t="n">
         <v>1.17146395</v>
       </c>
       <c r="D85" s="1" t="n">
@@ -7724,10 +7724,10 @@
       <c r="A86" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B86" s="0" t="n">
+      <c r="B86" s="1" t="n">
         <v>-3.06657202</v>
       </c>
-      <c r="C86" s="0" t="n">
+      <c r="C86" s="1" t="n">
         <v>1.17146402</v>
       </c>
       <c r="D86" s="1" t="n">
@@ -7745,10 +7745,10 @@
       <c r="A87" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B87" s="0" t="n">
+      <c r="B87" s="1" t="n">
         <v>-3.22703372</v>
       </c>
-      <c r="C87" s="0" t="n">
+      <c r="C87" s="1" t="n">
         <v>1.28942019</v>
       </c>
       <c r="D87" s="1" t="n">
@@ -7766,10 +7766,10 @@
       <c r="A88" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B88" s="0" t="n">
+      <c r="B88" s="1" t="n">
         <v>-3.22703367</v>
       </c>
-      <c r="C88" s="0" t="n">
+      <c r="C88" s="1" t="n">
         <v>1.28942021</v>
       </c>
       <c r="D88" s="1" t="n">
@@ -7787,10 +7787,10 @@
       <c r="A89" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B89" s="0" t="n">
+      <c r="B89" s="1" t="n">
         <v>-3.22703373</v>
       </c>
-      <c r="C89" s="0" t="n">
+      <c r="C89" s="1" t="n">
         <v>1.28942021</v>
       </c>
       <c r="D89" s="1" t="n">
@@ -7808,10 +7808,10 @@
       <c r="A90" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B90" s="0" t="n">
+      <c r="B90" s="1" t="n">
         <v>-3.22703373</v>
       </c>
-      <c r="C90" s="0" t="n">
+      <c r="C90" s="1" t="n">
         <v>1.28942024</v>
       </c>
       <c r="D90" s="1" t="n">
@@ -7829,10 +7829,10 @@
       <c r="A91" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B91" s="0" t="n">
+      <c r="B91" s="1" t="n">
         <v>-3.22703359</v>
       </c>
-      <c r="C91" s="0" t="n">
+      <c r="C91" s="1" t="n">
         <v>1.28942022</v>
       </c>
       <c r="D91" s="1" t="n">
@@ -7850,10 +7850,10 @@
       <c r="A92" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B92" s="0" t="n">
+      <c r="B92" s="1" t="n">
         <v>-2.84721362</v>
       </c>
-      <c r="C92" s="0" t="n">
+      <c r="C92" s="1" t="n">
         <v>0.891032681</v>
       </c>
       <c r="D92" s="1" t="n">
@@ -7871,10 +7871,10 @@
       <c r="A93" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B93" s="0" t="n">
+      <c r="B93" s="1" t="n">
         <v>-2.84721362</v>
       </c>
-      <c r="C93" s="0" t="n">
+      <c r="C93" s="1" t="n">
         <v>0.891032648</v>
       </c>
       <c r="D93" s="1" t="n">
@@ -7892,10 +7892,10 @@
       <c r="A94" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B94" s="0" t="n">
+      <c r="B94" s="1" t="n">
         <v>-2.8472137</v>
       </c>
-      <c r="C94" s="0" t="n">
+      <c r="C94" s="1" t="n">
         <v>0.891032654</v>
       </c>
       <c r="D94" s="1" t="n">
@@ -7913,10 +7913,10 @@
       <c r="A95" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B95" s="0" t="n">
+      <c r="B95" s="1" t="n">
         <v>-2.84721365</v>
       </c>
-      <c r="C95" s="0" t="n">
+      <c r="C95" s="1" t="n">
         <v>0.891032653</v>
       </c>
       <c r="D95" s="1" t="n">
@@ -7934,10 +7934,10 @@
       <c r="A96" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B96" s="0" t="n">
+      <c r="B96" s="1" t="n">
         <v>-2.84721366</v>
       </c>
-      <c r="C96" s="0" t="n">
+      <c r="C96" s="1" t="n">
         <v>0.891032683</v>
       </c>
       <c r="D96" s="1" t="n">
@@ -7955,10 +7955,10 @@
       <c r="A97" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B97" s="0" t="n">
+      <c r="B97" s="1" t="n">
         <v>-2.58335325</v>
       </c>
-      <c r="C97" s="0" t="n">
+      <c r="C97" s="1" t="n">
         <v>0.798055203</v>
       </c>
       <c r="D97" s="1" t="n">
@@ -7976,10 +7976,10 @@
       <c r="A98" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B98" s="0" t="n">
+      <c r="B98" s="1" t="n">
         <v>-2.58335311</v>
       </c>
-      <c r="C98" s="0" t="n">
+      <c r="C98" s="1" t="n">
         <v>0.798055196</v>
       </c>
       <c r="D98" s="1" t="n">
@@ -7997,10 +7997,10 @@
       <c r="A99" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B99" s="0" t="n">
+      <c r="B99" s="1" t="n">
         <v>-2.58335315</v>
       </c>
-      <c r="C99" s="0" t="n">
+      <c r="C99" s="1" t="n">
         <v>0.798055202</v>
       </c>
       <c r="D99" s="1" t="n">
@@ -8018,10 +8018,10 @@
       <c r="A100" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B100" s="0" t="n">
+      <c r="B100" s="1" t="n">
         <v>-2.58335319</v>
       </c>
-      <c r="C100" s="0" t="n">
+      <c r="C100" s="1" t="n">
         <v>0.798055217</v>
       </c>
       <c r="D100" s="1" t="n">
@@ -8039,10 +8039,10 @@
       <c r="A101" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B101" s="0" t="n">
+      <c r="B101" s="1" t="n">
         <v>-2.58335327</v>
       </c>
-      <c r="C101" s="0" t="n">
+      <c r="C101" s="1" t="n">
         <v>0.798055227</v>
       </c>
       <c r="D101" s="1" t="n">
@@ -8060,10 +8060,10 @@
       <c r="A102" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B102" s="0" t="n">
+      <c r="B102" s="1" t="n">
         <v>-3.89935192</v>
       </c>
-      <c r="C102" s="0" t="n">
+      <c r="C102" s="1" t="n">
         <v>1.027147675</v>
       </c>
       <c r="D102" s="1" t="n">
@@ -8081,10 +8081,10 @@
       <c r="A103" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B103" s="0" t="n">
+      <c r="B103" s="1" t="n">
         <v>-3.89935194</v>
       </c>
-      <c r="C103" s="0" t="n">
+      <c r="C103" s="1" t="n">
         <v>1.02714771</v>
       </c>
       <c r="D103" s="1" t="n">
@@ -8102,10 +8102,10 @@
       <c r="A104" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B104" s="0" t="n">
+      <c r="B104" s="1" t="n">
         <v>-3.89935192</v>
       </c>
-      <c r="C104" s="0" t="n">
+      <c r="C104" s="1" t="n">
         <v>1.027147664</v>
       </c>
       <c r="D104" s="1" t="n">
@@ -8123,10 +8123,10 @@
       <c r="A105" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B105" s="0" t="n">
+      <c r="B105" s="1" t="n">
         <v>-3.89935194</v>
       </c>
-      <c r="C105" s="0" t="n">
+      <c r="C105" s="1" t="n">
         <v>1.02714767</v>
       </c>
       <c r="D105" s="1" t="n">
@@ -8144,10 +8144,10 @@
       <c r="A106" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B106" s="0" t="n">
+      <c r="B106" s="1" t="n">
         <v>-3.89935206</v>
       </c>
-      <c r="C106" s="0" t="n">
+      <c r="C106" s="1" t="n">
         <v>1.027147684</v>
       </c>
       <c r="D106" s="1" t="n">
@@ -8165,10 +8165,10 @@
       <c r="A107" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B107" s="0" t="n">
+      <c r="B107" s="1" t="n">
         <v>-2.47229837</v>
       </c>
-      <c r="C107" s="0" t="n">
+      <c r="C107" s="1" t="n">
         <v>0.835545611</v>
       </c>
       <c r="D107" s="1" t="n">
@@ -8186,10 +8186,10 @@
       <c r="A108" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B108" s="0" t="n">
+      <c r="B108" s="1" t="n">
         <v>-2.47229827</v>
       </c>
-      <c r="C108" s="0" t="n">
+      <c r="C108" s="1" t="n">
         <v>0.835545619</v>
       </c>
       <c r="D108" s="1" t="n">
@@ -8207,10 +8207,10 @@
       <c r="A109" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B109" s="0" t="n">
+      <c r="B109" s="1" t="n">
         <v>-2.47229822</v>
       </c>
-      <c r="C109" s="0" t="n">
+      <c r="C109" s="1" t="n">
         <v>0.835545599</v>
       </c>
       <c r="D109" s="1" t="n">
@@ -8228,10 +8228,10 @@
       <c r="A110" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B110" s="0" t="n">
+      <c r="B110" s="1" t="n">
         <v>-2.47229828</v>
       </c>
-      <c r="C110" s="0" t="n">
+      <c r="C110" s="1" t="n">
         <v>0.835545603</v>
       </c>
       <c r="D110" s="1" t="n">
@@ -8249,10 +8249,10 @@
       <c r="A111" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B111" s="0" t="n">
+      <c r="B111" s="1" t="n">
         <v>-2.47229836</v>
       </c>
-      <c r="C111" s="0" t="n">
+      <c r="C111" s="1" t="n">
         <v>0.835545617</v>
       </c>
       <c r="D111" s="1" t="n">
@@ -8270,10 +8270,10 @@
       <c r="A112" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B112" s="0" t="n">
+      <c r="B112" s="1" t="n">
         <v>-3.06218598</v>
       </c>
-      <c r="C112" s="0" t="n">
+      <c r="C112" s="1" t="n">
         <v>0.998736199</v>
       </c>
       <c r="D112" s="1" t="n">
@@ -8291,10 +8291,10 @@
       <c r="A113" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B113" s="0" t="n">
+      <c r="B113" s="1" t="n">
         <v>-3.06218592</v>
       </c>
-      <c r="C113" s="0" t="n">
+      <c r="C113" s="1" t="n">
         <v>0.998736175</v>
       </c>
       <c r="D113" s="1" t="n">
@@ -8312,10 +8312,10 @@
       <c r="A114" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B114" s="0" t="n">
+      <c r="B114" s="1" t="n">
         <v>-3.06218592</v>
       </c>
-      <c r="C114" s="0" t="n">
+      <c r="C114" s="1" t="n">
         <v>0.998736192</v>
       </c>
       <c r="D114" s="1" t="n">
@@ -8333,10 +8333,10 @@
       <c r="A115" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B115" s="0" t="n">
+      <c r="B115" s="1" t="n">
         <v>-3.06218598</v>
       </c>
-      <c r="C115" s="0" t="n">
+      <c r="C115" s="1" t="n">
         <v>0.998736204</v>
       </c>
       <c r="D115" s="1" t="n">
@@ -8354,10 +8354,10 @@
       <c r="A116" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B116" s="0" t="n">
+      <c r="B116" s="1" t="n">
         <v>-3.06218586</v>
       </c>
-      <c r="C116" s="0" t="n">
+      <c r="C116" s="1" t="n">
         <v>0.998736201</v>
       </c>
       <c r="D116" s="1" t="n">
@@ -8375,10 +8375,10 @@
       <c r="A117" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B117" s="0" t="n">
+      <c r="B117" s="1" t="n">
         <v>-2.4529475</v>
       </c>
-      <c r="C117" s="0" t="n">
+      <c r="C117" s="1" t="n">
         <v>0.793684125</v>
       </c>
       <c r="D117" s="1" t="n">
@@ -8396,10 +8396,10 @@
       <c r="A118" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B118" s="0" t="n">
+      <c r="B118" s="1" t="n">
         <v>-2.45294746</v>
       </c>
-      <c r="C118" s="0" t="n">
+      <c r="C118" s="1" t="n">
         <v>0.793684122</v>
       </c>
       <c r="D118" s="1" t="n">
@@ -8417,10 +8417,10 @@
       <c r="A119" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B119" s="0" t="n">
+      <c r="B119" s="1" t="n">
         <v>-2.45294748</v>
       </c>
-      <c r="C119" s="0" t="n">
+      <c r="C119" s="1" t="n">
         <v>0.793684122</v>
       </c>
       <c r="D119" s="1" t="n">
@@ -8438,10 +8438,10 @@
       <c r="A120" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B120" s="0" t="n">
+      <c r="B120" s="1" t="n">
         <v>-2.45294758</v>
       </c>
-      <c r="C120" s="0" t="n">
+      <c r="C120" s="1" t="n">
         <v>0.793684153</v>
       </c>
       <c r="D120" s="1" t="n">
@@ -8459,10 +8459,10 @@
       <c r="A121" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B121" s="0" t="n">
+      <c r="B121" s="1" t="n">
         <v>-2.45294758</v>
       </c>
-      <c r="C121" s="0" t="n">
+      <c r="C121" s="1" t="n">
         <v>0.793684121</v>
       </c>
       <c r="D121" s="1" t="n">
@@ -8480,10 +8480,10 @@
       <c r="A122" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B122" s="0" t="n">
+      <c r="B122" s="1" t="n">
         <v>-2.32757131</v>
       </c>
-      <c r="C122" s="0" t="n">
+      <c r="C122" s="1" t="n">
         <v>0.724054964</v>
       </c>
       <c r="D122" s="1" t="n">
@@ -8501,10 +8501,10 @@
       <c r="A123" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B123" s="0" t="n">
+      <c r="B123" s="1" t="n">
         <v>-2.32757144</v>
       </c>
-      <c r="C123" s="0" t="n">
+      <c r="C123" s="1" t="n">
         <v>0.724054982</v>
       </c>
       <c r="D123" s="1" t="n">
@@ -8522,10 +8522,10 @@
       <c r="A124" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B124" s="0" t="n">
+      <c r="B124" s="1" t="n">
         <v>-2.32757142</v>
       </c>
-      <c r="C124" s="0" t="n">
+      <c r="C124" s="1" t="n">
         <v>0.724054942</v>
       </c>
       <c r="D124" s="1" t="n">
@@ -8543,10 +8543,10 @@
       <c r="A125" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B125" s="0" t="n">
+      <c r="B125" s="1" t="n">
         <v>-2.32757145</v>
       </c>
-      <c r="C125" s="0" t="n">
+      <c r="C125" s="1" t="n">
         <v>0.724054952</v>
       </c>
       <c r="D125" s="1" t="n">
@@ -8564,10 +8564,10 @@
       <c r="A126" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B126" s="0" t="n">
+      <c r="B126" s="1" t="n">
         <v>-2.32757129</v>
       </c>
-      <c r="C126" s="0" t="n">
+      <c r="C126" s="1" t="n">
         <v>0.72405498</v>
       </c>
       <c r="D126" s="1" t="n">
@@ -8585,10 +8585,10 @@
       <c r="A127" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B127" s="0" t="n">
+      <c r="B127" s="1" t="n">
         <v>-1.88874069</v>
       </c>
-      <c r="C127" s="0" t="n">
+      <c r="C127" s="1" t="n">
         <v>0.68552474</v>
       </c>
       <c r="D127" s="1" t="n">
@@ -8606,10 +8606,10 @@
       <c r="A128" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B128" s="0" t="n">
+      <c r="B128" s="1" t="n">
         <v>-1.88874068</v>
       </c>
-      <c r="C128" s="0" t="n">
+      <c r="C128" s="1" t="n">
         <v>0.685524736</v>
       </c>
       <c r="D128" s="1" t="n">
@@ -8627,10 +8627,10 @@
       <c r="A129" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B129" s="0" t="n">
+      <c r="B129" s="1" t="n">
         <v>-1.88874063</v>
       </c>
-      <c r="C129" s="0" t="n">
+      <c r="C129" s="1" t="n">
         <v>0.685524715</v>
       </c>
       <c r="D129" s="1" t="n">
@@ -8648,10 +8648,10 @@
       <c r="A130" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B130" s="0" t="n">
+      <c r="B130" s="1" t="n">
         <v>-1.88874074</v>
       </c>
-      <c r="C130" s="0" t="n">
+      <c r="C130" s="1" t="n">
         <v>0.685524711</v>
       </c>
       <c r="D130" s="1" t="n">
@@ -8669,10 +8669,10 @@
       <c r="A131" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B131" s="0" t="n">
+      <c r="B131" s="1" t="n">
         <v>-1.88874065</v>
       </c>
-      <c r="C131" s="0" t="n">
+      <c r="C131" s="1" t="n">
         <v>0.685524711</v>
       </c>
       <c r="D131" s="1" t="n">
@@ -8690,10 +8690,10 @@
       <c r="A132" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B132" s="0" t="n">
+      <c r="B132" s="1" t="n">
         <v>-1.36698581</v>
       </c>
-      <c r="C132" s="0" t="n">
+      <c r="C132" s="1" t="n">
         <v>0.501828554</v>
       </c>
       <c r="D132" s="1" t="n">
@@ -8711,10 +8711,10 @@
       <c r="A133" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B133" s="0" t="n">
+      <c r="B133" s="1" t="n">
         <v>-1.36698587</v>
       </c>
-      <c r="C133" s="0" t="n">
+      <c r="C133" s="1" t="n">
         <v>0.501828572</v>
       </c>
       <c r="D133" s="1" t="n">
@@ -8732,10 +8732,10 @@
       <c r="A134" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B134" s="0" t="n">
+      <c r="B134" s="1" t="n">
         <v>-1.36698587</v>
       </c>
-      <c r="C134" s="0" t="n">
+      <c r="C134" s="1" t="n">
         <v>0.501828562</v>
       </c>
       <c r="D134" s="1" t="n">
@@ -8753,10 +8753,10 @@
       <c r="A135" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B135" s="0" t="n">
+      <c r="B135" s="1" t="n">
         <v>-1.36698583</v>
       </c>
-      <c r="C135" s="0" t="n">
+      <c r="C135" s="1" t="n">
         <v>0.501828557</v>
       </c>
       <c r="D135" s="1" t="n">
@@ -8774,10 +8774,10 @@
       <c r="A136" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B136" s="0" t="n">
+      <c r="B136" s="1" t="n">
         <v>-1.36698585</v>
       </c>
-      <c r="C136" s="0" t="n">
+      <c r="C136" s="1" t="n">
         <v>0.501828596</v>
       </c>
       <c r="D136" s="1" t="n">
@@ -8795,10 +8795,10 @@
       <c r="A137" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B137" s="0" t="n">
+      <c r="B137" s="1" t="n">
         <v>-2.67174948</v>
       </c>
-      <c r="C137" s="0" t="n">
+      <c r="C137" s="1" t="n">
         <v>0.893791814</v>
       </c>
       <c r="D137" s="1" t="n">
@@ -8816,10 +8816,10 @@
       <c r="A138" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B138" s="0" t="n">
+      <c r="B138" s="1" t="n">
         <v>-2.67174944</v>
       </c>
-      <c r="C138" s="0" t="n">
+      <c r="C138" s="1" t="n">
         <v>0.89379181</v>
       </c>
       <c r="D138" s="1" t="n">
@@ -8837,10 +8837,10 @@
       <c r="A139" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B139" s="0" t="n">
+      <c r="B139" s="1" t="n">
         <v>-2.67174953</v>
       </c>
-      <c r="C139" s="0" t="n">
+      <c r="C139" s="1" t="n">
         <v>0.893791774</v>
       </c>
       <c r="D139" s="1" t="n">
@@ -8858,10 +8858,10 @@
       <c r="A140" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B140" s="0" t="n">
+      <c r="B140" s="1" t="n">
         <v>-2.67174955</v>
       </c>
-      <c r="C140" s="0" t="n">
+      <c r="C140" s="1" t="n">
         <v>0.893791818</v>
       </c>
       <c r="D140" s="1" t="n">
@@ -8879,10 +8879,10 @@
       <c r="A141" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B141" s="0" t="n">
+      <c r="B141" s="1" t="n">
         <v>-2.67174953</v>
       </c>
-      <c r="C141" s="0" t="n">
+      <c r="C141" s="1" t="n">
         <v>0.893791795</v>
       </c>
       <c r="D141" s="1" t="n">
@@ -8900,10 +8900,10 @@
       <c r="A142" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B142" s="0" t="n">
+      <c r="B142" s="1" t="n">
         <v>-4.5637175</v>
       </c>
-      <c r="C142" s="0" t="n">
+      <c r="C142" s="1" t="n">
         <v>0.699381833</v>
       </c>
       <c r="D142" s="1" t="n">
@@ -8921,10 +8921,10 @@
       <c r="A143" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B143" s="0" t="n">
+      <c r="B143" s="1" t="n">
         <v>-4.56371735</v>
       </c>
-      <c r="C143" s="0" t="n">
+      <c r="C143" s="1" t="n">
         <v>0.699381811</v>
       </c>
       <c r="D143" s="1" t="n">
@@ -8942,10 +8942,10 @@
       <c r="A144" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B144" s="0" t="n">
+      <c r="B144" s="1" t="n">
         <v>-4.56371733</v>
       </c>
-      <c r="C144" s="0" t="n">
+      <c r="C144" s="1" t="n">
         <v>0.69938182</v>
       </c>
       <c r="D144" s="1" t="n">
@@ -8963,10 +8963,10 @@
       <c r="A145" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B145" s="0" t="n">
+      <c r="B145" s="1" t="n">
         <v>-4.56371751</v>
       </c>
-      <c r="C145" s="0" t="n">
+      <c r="C145" s="1" t="n">
         <v>0.699381819</v>
       </c>
       <c r="D145" s="1" t="n">
@@ -8984,10 +8984,10 @@
       <c r="A146" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B146" s="0" t="n">
+      <c r="B146" s="1" t="n">
         <v>-4.5637176</v>
       </c>
-      <c r="C146" s="0" t="n">
+      <c r="C146" s="1" t="n">
         <v>0.699381831</v>
       </c>
       <c r="D146" s="1" t="n">
@@ -9005,10 +9005,10 @@
       <c r="A147" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B147" s="0" t="n">
+      <c r="B147" s="1" t="n">
         <v>-3.10152401</v>
       </c>
-      <c r="C147" s="0" t="n">
+      <c r="C147" s="1" t="n">
         <v>0.922583866</v>
       </c>
       <c r="D147" s="1" t="n">
@@ -9026,10 +9026,10 @@
       <c r="A148" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B148" s="0" t="n">
+      <c r="B148" s="1" t="n">
         <v>-3.10152408</v>
       </c>
-      <c r="C148" s="0" t="n">
+      <c r="C148" s="1" t="n">
         <v>0.922583868</v>
       </c>
       <c r="D148" s="1" t="n">
@@ -9047,10 +9047,10 @@
       <c r="A149" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B149" s="0" t="n">
+      <c r="B149" s="1" t="n">
         <v>-3.10152416</v>
       </c>
-      <c r="C149" s="0" t="n">
+      <c r="C149" s="1" t="n">
         <v>0.922583886</v>
       </c>
       <c r="D149" s="1" t="n">
@@ -9068,10 +9068,10 @@
       <c r="A150" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B150" s="0" t="n">
+      <c r="B150" s="1" t="n">
         <v>-3.10152397</v>
       </c>
-      <c r="C150" s="0" t="n">
+      <c r="C150" s="1" t="n">
         <v>0.92258383</v>
       </c>
       <c r="D150" s="1" t="n">
@@ -9089,10 +9089,10 @@
       <c r="A151" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B151" s="0" t="n">
+      <c r="B151" s="1" t="n">
         <v>-3.10152404</v>
       </c>
-      <c r="C151" s="0" t="n">
+      <c r="C151" s="1" t="n">
         <v>0.92258386</v>
       </c>
       <c r="D151" s="1" t="n">
@@ -9110,10 +9110,10 @@
       <c r="A152" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B152" s="0" t="n">
+      <c r="B152" s="1" t="n">
         <v>-2.80231007</v>
       </c>
-      <c r="C152" s="0" t="n">
+      <c r="C152" s="1" t="n">
         <v>0.929918917</v>
       </c>
       <c r="D152" s="1" t="n">
@@ -9131,10 +9131,10 @@
       <c r="A153" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B153" s="0" t="n">
+      <c r="B153" s="1" t="n">
         <v>-2.80230992</v>
       </c>
-      <c r="C153" s="0" t="n">
+      <c r="C153" s="1" t="n">
         <v>0.92991892</v>
       </c>
       <c r="D153" s="1" t="n">
@@ -9152,10 +9152,10 @@
       <c r="A154" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B154" s="0" t="n">
+      <c r="B154" s="1" t="n">
         <v>-2.80231006</v>
       </c>
-      <c r="C154" s="0" t="n">
+      <c r="C154" s="1" t="n">
         <v>0.929918944</v>
       </c>
       <c r="D154" s="1" t="n">
@@ -9173,10 +9173,10 @@
       <c r="A155" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B155" s="0" t="n">
+      <c r="B155" s="1" t="n">
         <v>-2.80231006</v>
       </c>
-      <c r="C155" s="0" t="n">
+      <c r="C155" s="1" t="n">
         <v>0.929918957</v>
       </c>
       <c r="D155" s="1" t="n">
@@ -9194,10 +9194,10 @@
       <c r="A156" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B156" s="0" t="n">
+      <c r="B156" s="1" t="n">
         <v>-2.80230995</v>
       </c>
-      <c r="C156" s="0" t="n">
+      <c r="C156" s="1" t="n">
         <v>0.929918936</v>
       </c>
       <c r="D156" s="1" t="n">
@@ -9215,10 +9215,10 @@
       <c r="A157" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B157" s="0" t="n">
+      <c r="B157" s="1" t="n">
         <v>-2.20715201</v>
       </c>
-      <c r="C157" s="0" t="n">
+      <c r="C157" s="1" t="n">
         <v>0.955589552</v>
       </c>
       <c r="D157" s="1" t="n">
@@ -9236,10 +9236,10 @@
       <c r="A158" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B158" s="0" t="n">
+      <c r="B158" s="1" t="n">
         <v>-2.2071521</v>
       </c>
-      <c r="C158" s="0" t="n">
+      <c r="C158" s="1" t="n">
         <v>0.955589557</v>
       </c>
       <c r="D158" s="1" t="n">
@@ -9257,10 +9257,10 @@
       <c r="A159" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B159" s="0" t="n">
+      <c r="B159" s="1" t="n">
         <v>-2.20715206</v>
       </c>
-      <c r="C159" s="0" t="n">
+      <c r="C159" s="1" t="n">
         <v>0.955589558</v>
       </c>
       <c r="D159" s="1" t="n">
@@ -9278,10 +9278,10 @@
       <c r="A160" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B160" s="0" t="n">
+      <c r="B160" s="1" t="n">
         <v>-2.20715191</v>
       </c>
-      <c r="C160" s="0" t="n">
+      <c r="C160" s="1" t="n">
         <v>0.955589511</v>
       </c>
       <c r="D160" s="1" t="n">
@@ -9299,10 +9299,10 @@
       <c r="A161" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B161" s="0" t="n">
+      <c r="B161" s="1" t="n">
         <v>-2.20715213</v>
       </c>
-      <c r="C161" s="0" t="n">
+      <c r="C161" s="1" t="n">
         <v>0.955589507</v>
       </c>
       <c r="D161" s="1" t="n">
@@ -9320,10 +9320,10 @@
       <c r="A162" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B162" s="0" t="n">
+      <c r="B162" s="1" t="n">
         <v>-1.27099703</v>
       </c>
-      <c r="C162" s="0" t="n">
+      <c r="C162" s="1" t="n">
         <v>0.608634933</v>
       </c>
       <c r="D162" s="1" t="n">
@@ -9341,10 +9341,10 @@
       <c r="A163" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B163" s="0" t="n">
+      <c r="B163" s="1" t="n">
         <v>-1.27099707</v>
       </c>
-      <c r="C163" s="0" t="n">
+      <c r="C163" s="1" t="n">
         <v>0.608634944</v>
       </c>
       <c r="D163" s="1" t="n">
@@ -9362,10 +9362,10 @@
       <c r="A164" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B164" s="0" t="n">
+      <c r="B164" s="1" t="n">
         <v>-1.27099708</v>
       </c>
-      <c r="C164" s="0" t="n">
+      <c r="C164" s="1" t="n">
         <v>0.608634947</v>
       </c>
       <c r="D164" s="1" t="n">
@@ -9383,10 +9383,10 @@
       <c r="A165" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B165" s="0" t="n">
+      <c r="B165" s="1" t="n">
         <v>-1.27099711</v>
       </c>
-      <c r="C165" s="0" t="n">
+      <c r="C165" s="1" t="n">
         <v>0.608634965</v>
       </c>
       <c r="D165" s="1" t="n">
@@ -9404,10 +9404,10 @@
       <c r="A166" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B166" s="0" t="n">
+      <c r="B166" s="1" t="n">
         <v>-1.27099703</v>
       </c>
-      <c r="C166" s="0" t="n">
+      <c r="C166" s="1" t="n">
         <v>0.608634955</v>
       </c>
       <c r="D166" s="1" t="n">
@@ -9425,10 +9425,10 @@
       <c r="A167" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B167" s="0" t="n">
+      <c r="B167" s="1" t="n">
         <v>-2.01214327</v>
       </c>
-      <c r="C167" s="0" t="n">
+      <c r="C167" s="1" t="n">
         <v>1.000642285</v>
       </c>
       <c r="D167" s="1" t="n">
@@ -9446,10 +9446,10 @@
       <c r="A168" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B168" s="0" t="n">
+      <c r="B168" s="1" t="n">
         <v>-2.0121432</v>
       </c>
-      <c r="C168" s="0" t="n">
+      <c r="C168" s="1" t="n">
         <v>1.00064226</v>
       </c>
       <c r="D168" s="1" t="n">
@@ -9467,10 +9467,10 @@
       <c r="A169" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B169" s="0" t="n">
+      <c r="B169" s="1" t="n">
         <v>-2.01214327</v>
       </c>
-      <c r="C169" s="0" t="n">
+      <c r="C169" s="1" t="n">
         <v>1.00064227</v>
       </c>
       <c r="D169" s="1" t="n">
@@ -9488,10 +9488,10 @@
       <c r="A170" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B170" s="0" t="n">
+      <c r="B170" s="1" t="n">
         <v>-2.01214326</v>
       </c>
-      <c r="C170" s="0" t="n">
+      <c r="C170" s="1" t="n">
         <v>1.000642268</v>
       </c>
       <c r="D170" s="1" t="n">
@@ -9509,10 +9509,10 @@
       <c r="A171" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B171" s="0" t="n">
+      <c r="B171" s="1" t="n">
         <v>-2.01214332</v>
       </c>
-      <c r="C171" s="0" t="n">
+      <c r="C171" s="1" t="n">
         <v>1.000642276</v>
       </c>
       <c r="D171" s="1" t="n">
@@ -9530,10 +9530,10 @@
       <c r="A172" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B172" s="0" t="n">
+      <c r="B172" s="1" t="n">
         <v>-1.93873212</v>
       </c>
-      <c r="C172" s="0" t="n">
+      <c r="C172" s="1" t="n">
         <v>0.719323714</v>
       </c>
       <c r="D172" s="1" t="n">
@@ -9551,10 +9551,10 @@
       <c r="A173" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B173" s="0" t="n">
+      <c r="B173" s="1" t="n">
         <v>-1.93873207</v>
       </c>
-      <c r="C173" s="0" t="n">
+      <c r="C173" s="1" t="n">
         <v>0.719323707</v>
       </c>
       <c r="D173" s="1" t="n">
@@ -9572,10 +9572,10 @@
       <c r="A174" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B174" s="0" t="n">
+      <c r="B174" s="1" t="n">
         <v>-1.93873203</v>
       </c>
-      <c r="C174" s="0" t="n">
+      <c r="C174" s="1" t="n">
         <v>0.719323714</v>
       </c>
       <c r="D174" s="1" t="n">
@@ -9593,10 +9593,10 @@
       <c r="A175" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B175" s="0" t="n">
+      <c r="B175" s="1" t="n">
         <v>-1.93873206</v>
       </c>
-      <c r="C175" s="0" t="n">
+      <c r="C175" s="1" t="n">
         <v>0.719323689</v>
       </c>
       <c r="D175" s="1" t="n">
@@ -9614,10 +9614,10 @@
       <c r="A176" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B176" s="0" t="n">
+      <c r="B176" s="1" t="n">
         <v>-1.93873206</v>
       </c>
-      <c r="C176" s="0" t="n">
+      <c r="C176" s="1" t="n">
         <v>0.719323699</v>
       </c>
       <c r="D176" s="1" t="n">
@@ -9635,10 +9635,10 @@
       <c r="A177" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B177" s="0" t="n">
+      <c r="B177" s="1" t="n">
         <v>-2.51878367</v>
       </c>
-      <c r="C177" s="0" t="n">
+      <c r="C177" s="1" t="n">
         <v>1.05853768</v>
       </c>
       <c r="D177" s="1" t="n">
@@ -9656,10 +9656,10 @@
       <c r="A178" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B178" s="0" t="n">
+      <c r="B178" s="1" t="n">
         <v>-2.51878363</v>
       </c>
-      <c r="C178" s="0" t="n">
+      <c r="C178" s="1" t="n">
         <v>1.058537705</v>
       </c>
       <c r="D178" s="1" t="n">
@@ -9677,10 +9677,10 @@
       <c r="A179" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B179" s="0" t="n">
+      <c r="B179" s="1" t="n">
         <v>-2.51878367</v>
       </c>
-      <c r="C179" s="0" t="n">
+      <c r="C179" s="1" t="n">
         <v>1.058537725</v>
       </c>
       <c r="D179" s="1" t="n">
@@ -9698,10 +9698,10 @@
       <c r="A180" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B180" s="0" t="n">
+      <c r="B180" s="1" t="n">
         <v>-2.51878368</v>
       </c>
-      <c r="C180" s="0" t="n">
+      <c r="C180" s="1" t="n">
         <v>1.05853771</v>
       </c>
       <c r="D180" s="1" t="n">
@@ -9719,10 +9719,10 @@
       <c r="A181" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B181" s="0" t="n">
+      <c r="B181" s="1" t="n">
         <v>-2.51878361</v>
       </c>
-      <c r="C181" s="0" t="n">
+      <c r="C181" s="1" t="n">
         <v>1.058537695</v>
       </c>
       <c r="D181" s="1" t="n">
@@ -9740,10 +9740,10 @@
       <c r="A182" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B182" s="0" t="n">
+      <c r="B182" s="1" t="n">
         <v>-1.007629732</v>
       </c>
-      <c r="C182" s="0" t="n">
+      <c r="C182" s="1" t="n">
         <v>0.541617493</v>
       </c>
       <c r="D182" s="1" t="n">
@@ -9761,10 +9761,10 @@
       <c r="A183" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B183" s="0" t="n">
+      <c r="B183" s="1" t="n">
         <v>-1.007629736</v>
       </c>
-      <c r="C183" s="0" t="n">
+      <c r="C183" s="1" t="n">
         <v>0.541617512</v>
       </c>
       <c r="D183" s="1" t="n">
@@ -9782,10 +9782,10 @@
       <c r="A184" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B184" s="0" t="n">
+      <c r="B184" s="1" t="n">
         <v>-1.007629756</v>
       </c>
-      <c r="C184" s="0" t="n">
+      <c r="C184" s="1" t="n">
         <v>0.541617524</v>
       </c>
       <c r="D184" s="1" t="n">
@@ -9803,10 +9803,10 @@
       <c r="A185" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B185" s="0" t="n">
+      <c r="B185" s="1" t="n">
         <v>-1.007629739</v>
       </c>
-      <c r="C185" s="0" t="n">
+      <c r="C185" s="1" t="n">
         <v>0.541617507</v>
       </c>
       <c r="D185" s="1" t="n">
@@ -9824,10 +9824,10 @@
       <c r="A186" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B186" s="0" t="n">
+      <c r="B186" s="1" t="n">
         <v>-1.007629742</v>
       </c>
-      <c r="C186" s="0" t="n">
+      <c r="C186" s="1" t="n">
         <v>0.541617487</v>
       </c>
       <c r="D186" s="1" t="n">
@@ -9845,10 +9845,10 @@
       <c r="A187" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B187" s="0" t="n">
+      <c r="B187" s="1" t="n">
         <v>-1.96362745</v>
       </c>
-      <c r="C187" s="0" t="n">
+      <c r="C187" s="1" t="n">
         <v>0.631876736</v>
       </c>
       <c r="D187" s="1" t="n">
@@ -9866,10 +9866,10 @@
       <c r="A188" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B188" s="0" t="n">
+      <c r="B188" s="1" t="n">
         <v>-1.96362748</v>
       </c>
-      <c r="C188" s="0" t="n">
+      <c r="C188" s="1" t="n">
         <v>0.631876721</v>
       </c>
       <c r="D188" s="1" t="n">
@@ -9887,10 +9887,10 @@
       <c r="A189" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B189" s="0" t="n">
+      <c r="B189" s="1" t="n">
         <v>-1.96362745</v>
       </c>
-      <c r="C189" s="0" t="n">
+      <c r="C189" s="1" t="n">
         <v>0.631876704</v>
       </c>
       <c r="D189" s="1" t="n">
@@ -9908,10 +9908,10 @@
       <c r="A190" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B190" s="0" t="n">
+      <c r="B190" s="1" t="n">
         <v>-1.96362747</v>
       </c>
-      <c r="C190" s="0" t="n">
+      <c r="C190" s="1" t="n">
         <v>0.631876723</v>
       </c>
       <c r="D190" s="1" t="n">
@@ -9929,10 +9929,10 @@
       <c r="A191" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B191" s="0" t="n">
+      <c r="B191" s="1" t="n">
         <v>-1.96362744</v>
       </c>
-      <c r="C191" s="0" t="n">
+      <c r="C191" s="1" t="n">
         <v>0.63187672</v>
       </c>
       <c r="D191" s="1" t="n">
@@ -9950,10 +9950,10 @@
       <c r="A192" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B192" s="0" t="n">
+      <c r="B192" s="1" t="n">
         <v>-1.52026231</v>
       </c>
-      <c r="C192" s="0" t="n">
+      <c r="C192" s="1" t="n">
         <v>0.555114749</v>
       </c>
       <c r="D192" s="1" t="n">
@@ -9971,10 +9971,10 @@
       <c r="A193" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B193" s="0" t="n">
+      <c r="B193" s="1" t="n">
         <v>-1.52026236</v>
       </c>
-      <c r="C193" s="0" t="n">
+      <c r="C193" s="1" t="n">
         <v>0.555114761</v>
       </c>
       <c r="D193" s="1" t="n">
@@ -9992,10 +9992,10 @@
       <c r="A194" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B194" s="0" t="n">
+      <c r="B194" s="1" t="n">
         <v>-1.52026236</v>
       </c>
-      <c r="C194" s="0" t="n">
+      <c r="C194" s="1" t="n">
         <v>0.555114776</v>
       </c>
       <c r="D194" s="1" t="n">
@@ -10013,10 +10013,10 @@
       <c r="A195" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B195" s="0" t="n">
+      <c r="B195" s="1" t="n">
         <v>-1.52026235</v>
       </c>
-      <c r="C195" s="0" t="n">
+      <c r="C195" s="1" t="n">
         <v>0.555114756</v>
       </c>
       <c r="D195" s="1" t="n">
@@ -10034,10 +10034,10 @@
       <c r="A196" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B196" s="0" t="n">
+      <c r="B196" s="1" t="n">
         <v>-1.52026239</v>
       </c>
-      <c r="C196" s="0" t="n">
+      <c r="C196" s="1" t="n">
         <v>0.555114773</v>
       </c>
       <c r="D196" s="1" t="n">
@@ -10055,10 +10055,10 @@
       <c r="A197" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B197" s="0" t="n">
+      <c r="B197" s="1" t="n">
         <v>-1.75280009</v>
       </c>
-      <c r="C197" s="0" t="n">
+      <c r="C197" s="1" t="n">
         <v>0.608320237</v>
       </c>
       <c r="D197" s="1" t="n">
@@ -10076,10 +10076,10 @@
       <c r="A198" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B198" s="0" t="n">
+      <c r="B198" s="1" t="n">
         <v>-1.75280008</v>
       </c>
-      <c r="C198" s="0" t="n">
+      <c r="C198" s="1" t="n">
         <v>0.608320251</v>
       </c>
       <c r="D198" s="1" t="n">
@@ -10097,10 +10097,10 @@
       <c r="A199" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B199" s="0" t="n">
+      <c r="B199" s="1" t="n">
         <v>-1.7528001</v>
       </c>
-      <c r="C199" s="0" t="n">
+      <c r="C199" s="1" t="n">
         <v>0.608320252</v>
       </c>
       <c r="D199" s="1" t="n">
@@ -10118,10 +10118,10 @@
       <c r="A200" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B200" s="0" t="n">
+      <c r="B200" s="1" t="n">
         <v>-1.7528001</v>
       </c>
-      <c r="C200" s="0" t="n">
+      <c r="C200" s="1" t="n">
         <v>0.608320229</v>
       </c>
       <c r="D200" s="1" t="n">
@@ -10139,10 +10139,10 @@
       <c r="A201" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B201" s="0" t="n">
+      <c r="B201" s="1" t="n">
         <v>-1.75280007</v>
       </c>
-      <c r="C201" s="0" t="n">
+      <c r="C201" s="1" t="n">
         <v>0.608320227</v>
       </c>
       <c r="D201" s="1" t="n">
@@ -10160,10 +10160,10 @@
       <c r="A202" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B202" s="0" t="n">
+      <c r="B202" s="1" t="n">
         <v>-2.17457596</v>
       </c>
-      <c r="C202" s="0" t="n">
+      <c r="C202" s="1" t="n">
         <v>0.655543352</v>
       </c>
       <c r="D202" s="1" t="n">
@@ -10181,10 +10181,10 @@
       <c r="A203" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B203" s="0" t="n">
+      <c r="B203" s="1" t="n">
         <v>-2.17457604</v>
       </c>
-      <c r="C203" s="0" t="n">
+      <c r="C203" s="1" t="n">
         <v>0.655543375</v>
       </c>
       <c r="D203" s="1" t="n">
@@ -10202,10 +10202,10 @@
       <c r="A204" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B204" s="0" t="n">
+      <c r="B204" s="1" t="n">
         <v>-2.17457608</v>
       </c>
-      <c r="C204" s="0" t="n">
+      <c r="C204" s="1" t="n">
         <v>0.655543382</v>
       </c>
       <c r="D204" s="1" t="n">
@@ -10223,10 +10223,10 @@
       <c r="A205" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B205" s="0" t="n">
+      <c r="B205" s="1" t="n">
         <v>-2.17457605</v>
       </c>
-      <c r="C205" s="0" t="n">
+      <c r="C205" s="1" t="n">
         <v>0.655543382</v>
       </c>
       <c r="D205" s="1" t="n">
@@ -10244,10 +10244,10 @@
       <c r="A206" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B206" s="0" t="n">
+      <c r="B206" s="1" t="n">
         <v>-2.17457611</v>
       </c>
-      <c r="C206" s="0" t="n">
+      <c r="C206" s="1" t="n">
         <v>0.655543366</v>
       </c>
       <c r="D206" s="1" t="n">
@@ -10265,10 +10265,10 @@
       <c r="A207" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B207" s="0" t="n">
+      <c r="B207" s="1" t="n">
         <v>-0.84019135</v>
       </c>
-      <c r="C207" s="0" t="n">
+      <c r="C207" s="1" t="n">
         <v>0.587626341</v>
       </c>
       <c r="D207" s="1" t="n">
@@ -10286,10 +10286,10 @@
       <c r="A208" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B208" s="0" t="n">
+      <c r="B208" s="1" t="n">
         <v>-0.84019132</v>
       </c>
-      <c r="C208" s="0" t="n">
+      <c r="C208" s="1" t="n">
         <v>0.587626308</v>
       </c>
       <c r="D208" s="1" t="n">
@@ -10307,10 +10307,10 @@
       <c r="A209" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B209" s="0" t="n">
+      <c r="B209" s="1" t="n">
         <v>-0.84019137</v>
       </c>
-      <c r="C209" s="0" t="n">
+      <c r="C209" s="1" t="n">
         <v>0.587626324</v>
       </c>
       <c r="D209" s="1" t="n">
@@ -10328,10 +10328,10 @@
       <c r="A210" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B210" s="0" t="n">
+      <c r="B210" s="1" t="n">
         <v>-0.840191378</v>
       </c>
-      <c r="C210" s="0" t="n">
+      <c r="C210" s="1" t="n">
         <v>0.587626322</v>
       </c>
       <c r="D210" s="1" t="n">
@@ -10349,10 +10349,10 @@
       <c r="A211" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B211" s="0" t="n">
+      <c r="B211" s="1" t="n">
         <v>-0.840191372</v>
       </c>
-      <c r="C211" s="0" t="n">
+      <c r="C211" s="1" t="n">
         <v>0.587626332</v>
       </c>
       <c r="D211" s="1" t="n">
@@ -10370,10 +10370,10 @@
       <c r="A212" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B212" s="0" t="n">
+      <c r="B212" s="1" t="n">
         <v>-1.78186378</v>
       </c>
-      <c r="C212" s="0" t="n">
+      <c r="C212" s="1" t="n">
         <v>0.714110775</v>
       </c>
       <c r="D212" s="1" t="n">
@@ -10391,10 +10391,10 @@
       <c r="A213" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B213" s="0" t="n">
+      <c r="B213" s="1" t="n">
         <v>-1.78186389</v>
       </c>
-      <c r="C213" s="0" t="n">
+      <c r="C213" s="1" t="n">
         <v>0.714110761</v>
       </c>
       <c r="D213" s="1" t="n">
@@ -10412,10 +10412,10 @@
       <c r="A214" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B214" s="0" t="n">
+      <c r="B214" s="1" t="n">
         <v>-1.78186382</v>
       </c>
-      <c r="C214" s="0" t="n">
+      <c r="C214" s="1" t="n">
         <v>0.714110732</v>
       </c>
       <c r="D214" s="1" t="n">
@@ -10433,10 +10433,10 @@
       <c r="A215" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B215" s="0" t="n">
+      <c r="B215" s="1" t="n">
         <v>-1.78186379</v>
       </c>
-      <c r="C215" s="0" t="n">
+      <c r="C215" s="1" t="n">
         <v>0.71411072</v>
       </c>
       <c r="D215" s="1" t="n">
@@ -10454,10 +10454,10 @@
       <c r="A216" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B216" s="0" t="n">
+      <c r="B216" s="1" t="n">
         <v>-1.78186385</v>
       </c>
-      <c r="C216" s="0" t="n">
+      <c r="C216" s="1" t="n">
         <v>0.714110757</v>
       </c>
       <c r="D216" s="1" t="n">
@@ -10475,10 +10475,10 @@
       <c r="A217" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B217" s="0" t="n">
+      <c r="B217" s="1" t="n">
         <v>-2.20972711</v>
       </c>
-      <c r="C217" s="0" t="n">
+      <c r="C217" s="1" t="n">
         <v>0.686473544</v>
       </c>
       <c r="D217" s="1" t="n">
@@ -10496,10 +10496,10 @@
       <c r="A218" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B218" s="0" t="n">
+      <c r="B218" s="1" t="n">
         <v>-2.20972698</v>
       </c>
-      <c r="C218" s="0" t="n">
+      <c r="C218" s="1" t="n">
         <v>0.686473523</v>
       </c>
       <c r="D218" s="1" t="n">
@@ -10517,10 +10517,10 @@
       <c r="A219" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B219" s="0" t="n">
+      <c r="B219" s="1" t="n">
         <v>-2.20972697</v>
       </c>
-      <c r="C219" s="0" t="n">
+      <c r="C219" s="1" t="n">
         <v>0.686473496</v>
       </c>
       <c r="D219" s="1" t="n">
@@ -10538,10 +10538,10 @@
       <c r="A220" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B220" s="0" t="n">
+      <c r="B220" s="1" t="n">
         <v>-2.20972703</v>
       </c>
-      <c r="C220" s="0" t="n">
+      <c r="C220" s="1" t="n">
         <v>0.686473524</v>
       </c>
       <c r="D220" s="1" t="n">
@@ -10559,10 +10559,10 @@
       <c r="A221" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B221" s="0" t="n">
+      <c r="B221" s="1" t="n">
         <v>-2.2097269</v>
       </c>
-      <c r="C221" s="0" t="n">
+      <c r="C221" s="1" t="n">
         <v>0.686473528</v>
       </c>
       <c r="D221" s="1" t="n">
@@ -10580,10 +10580,10 @@
       <c r="A222" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B222" s="0" t="n">
+      <c r="B222" s="1" t="n">
         <v>-1.25850731</v>
       </c>
-      <c r="C222" s="0" t="n">
+      <c r="C222" s="1" t="n">
         <v>0.714331943</v>
       </c>
       <c r="D222" s="1" t="n">
@@ -10601,10 +10601,10 @@
       <c r="A223" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B223" s="0" t="n">
+      <c r="B223" s="1" t="n">
         <v>-1.258507334</v>
       </c>
-      <c r="C223" s="0" t="n">
+      <c r="C223" s="1" t="n">
         <v>0.71433191</v>
       </c>
       <c r="D223" s="1" t="n">
@@ -10622,10 +10622,10 @@
       <c r="A224" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B224" s="0" t="n">
+      <c r="B224" s="1" t="n">
         <v>-1.258507374</v>
       </c>
-      <c r="C224" s="0" t="n">
+      <c r="C224" s="1" t="n">
         <v>0.71433193</v>
       </c>
       <c r="D224" s="1" t="n">
@@ -10643,10 +10643,10 @@
       <c r="A225" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B225" s="0" t="n">
+      <c r="B225" s="1" t="n">
         <v>-1.2585073</v>
       </c>
-      <c r="C225" s="0" t="n">
+      <c r="C225" s="1" t="n">
         <v>0.714331901</v>
       </c>
       <c r="D225" s="1" t="n">
@@ -10664,10 +10664,10 @@
       <c r="A226" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B226" s="0" t="n">
+      <c r="B226" s="1" t="n">
         <v>-1.25850732</v>
       </c>
-      <c r="C226" s="0" t="n">
+      <c r="C226" s="1" t="n">
         <v>0.714331923</v>
       </c>
       <c r="D226" s="1" t="n">
@@ -10685,10 +10685,10 @@
       <c r="A227" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B227" s="0" t="n">
+      <c r="B227" s="1" t="n">
         <v>-2.04241997</v>
       </c>
-      <c r="C227" s="0" t="n">
+      <c r="C227" s="1" t="n">
         <v>0.596316258</v>
       </c>
       <c r="D227" s="1" t="n">
@@ -10706,10 +10706,10 @@
       <c r="A228" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B228" s="0" t="n">
+      <c r="B228" s="1" t="n">
         <v>-2.04241992</v>
       </c>
-      <c r="C228" s="0" t="n">
+      <c r="C228" s="1" t="n">
         <v>0.59631625</v>
       </c>
       <c r="D228" s="1" t="n">
@@ -10727,10 +10727,10 @@
       <c r="A229" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B229" s="0" t="n">
+      <c r="B229" s="1" t="n">
         <v>-2.04241984</v>
       </c>
-      <c r="C229" s="0" t="n">
+      <c r="C229" s="1" t="n">
         <v>0.596316218</v>
       </c>
       <c r="D229" s="1" t="n">
@@ -10748,10 +10748,10 @@
       <c r="A230" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B230" s="0" t="n">
+      <c r="B230" s="1" t="n">
         <v>-2.04241983</v>
       </c>
-      <c r="C230" s="0" t="n">
+      <c r="C230" s="1" t="n">
         <v>0.596316248</v>
       </c>
       <c r="D230" s="1" t="n">
@@ -10769,10 +10769,10 @@
       <c r="A231" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B231" s="0" t="n">
+      <c r="B231" s="1" t="n">
         <v>-2.0424199</v>
       </c>
-      <c r="C231" s="0" t="n">
+      <c r="C231" s="1" t="n">
         <v>0.596316227</v>
       </c>
       <c r="D231" s="1" t="n">
@@ -10790,10 +10790,10 @@
       <c r="A232" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B232" s="0" t="n">
+      <c r="B232" s="1" t="n">
         <v>-2.11956896</v>
       </c>
-      <c r="C232" s="0" t="n">
+      <c r="C232" s="1" t="n">
         <v>1.21856264</v>
       </c>
       <c r="D232" s="1" t="n">
@@ -10811,10 +10811,10 @@
       <c r="A233" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B233" s="0" t="n">
+      <c r="B233" s="1" t="n">
         <v>-2.11956883</v>
       </c>
-      <c r="C233" s="0" t="n">
+      <c r="C233" s="1" t="n">
         <v>1.21856267</v>
       </c>
       <c r="D233" s="1" t="n">
@@ -10832,10 +10832,10 @@
       <c r="A234" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B234" s="0" t="n">
+      <c r="B234" s="1" t="n">
         <v>-2.11956882</v>
       </c>
-      <c r="C234" s="0" t="n">
+      <c r="C234" s="1" t="n">
         <v>1.21856262</v>
       </c>
       <c r="D234" s="1" t="n">
@@ -10853,10 +10853,10 @@
       <c r="A235" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B235" s="0" t="n">
+      <c r="B235" s="1" t="n">
         <v>-2.11956881</v>
       </c>
-      <c r="C235" s="0" t="n">
+      <c r="C235" s="1" t="n">
         <v>1.21856262</v>
       </c>
       <c r="D235" s="1" t="n">
@@ -10874,10 +10874,10 @@
       <c r="A236" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B236" s="0" t="n">
+      <c r="B236" s="1" t="n">
         <v>-2.11956891</v>
       </c>
-      <c r="C236" s="0" t="n">
+      <c r="C236" s="1" t="n">
         <v>1.21856263</v>
       </c>
       <c r="D236" s="1" t="n">
@@ -10895,10 +10895,10 @@
       <c r="A237" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B237" s="0" t="n">
+      <c r="B237" s="1" t="n">
         <v>-2.15612699</v>
       </c>
-      <c r="C237" s="0" t="n">
+      <c r="C237" s="1" t="n">
         <v>0.753646554</v>
       </c>
       <c r="D237" s="1" t="n">
@@ -10916,10 +10916,10 @@
       <c r="A238" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B238" s="0" t="n">
+      <c r="B238" s="1" t="n">
         <v>-2.15612701</v>
       </c>
-      <c r="C238" s="0" t="n">
+      <c r="C238" s="1" t="n">
         <v>0.753646512</v>
       </c>
       <c r="D238" s="1" t="n">
@@ -10937,10 +10937,10 @@
       <c r="A239" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B239" s="0" t="n">
+      <c r="B239" s="1" t="n">
         <v>-2.15612704</v>
       </c>
-      <c r="C239" s="0" t="n">
+      <c r="C239" s="1" t="n">
         <v>0.753646551</v>
       </c>
       <c r="D239" s="1" t="n">
@@ -10958,10 +10958,10 @@
       <c r="A240" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B240" s="0" t="n">
+      <c r="B240" s="1" t="n">
         <v>-2.15612699</v>
       </c>
-      <c r="C240" s="0" t="n">
+      <c r="C240" s="1" t="n">
         <v>0.75364653</v>
       </c>
       <c r="D240" s="1" t="n">
@@ -10979,10 +10979,10 @@
       <c r="A241" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B241" s="0" t="n">
+      <c r="B241" s="1" t="n">
         <v>-2.15612697</v>
       </c>
-      <c r="C241" s="0" t="n">
+      <c r="C241" s="1" t="n">
         <v>0.75364654</v>
       </c>
       <c r="D241" s="1" t="n">
@@ -11000,10 +11000,10 @@
       <c r="A242" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B242" s="0" t="n">
+      <c r="B242" s="1" t="n">
         <v>-2.5736027</v>
       </c>
-      <c r="C242" s="0" t="n">
+      <c r="C242" s="1" t="n">
         <v>0.967736469</v>
       </c>
       <c r="D242" s="1" t="n">
@@ -11021,10 +11021,10 @@
       <c r="A243" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B243" s="0" t="n">
+      <c r="B243" s="1" t="n">
         <v>-2.57360274</v>
       </c>
-      <c r="C243" s="0" t="n">
+      <c r="C243" s="1" t="n">
         <v>0.9677365</v>
       </c>
       <c r="D243" s="1" t="n">
@@ -11042,10 +11042,10 @@
       <c r="A244" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B244" s="0" t="n">
+      <c r="B244" s="1" t="n">
         <v>-2.57360267</v>
       </c>
-      <c r="C244" s="0" t="n">
+      <c r="C244" s="1" t="n">
         <v>0.967736429</v>
       </c>
       <c r="D244" s="1" t="n">
@@ -11063,10 +11063,10 @@
       <c r="A245" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B245" s="0" t="n">
+      <c r="B245" s="1" t="n">
         <v>-2.57360275</v>
       </c>
-      <c r="C245" s="0" t="n">
+      <c r="C245" s="1" t="n">
         <v>0.967736473</v>
       </c>
       <c r="D245" s="1" t="n">
@@ -11084,10 +11084,10 @@
       <c r="A246" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B246" s="0" t="n">
+      <c r="B246" s="1" t="n">
         <v>-2.57360273</v>
       </c>
-      <c r="C246" s="0" t="n">
+      <c r="C246" s="1" t="n">
         <v>0.967736478</v>
       </c>
       <c r="D246" s="1" t="n">
@@ -11105,10 +11105,10 @@
       <c r="A247" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B247" s="0" t="n">
+      <c r="B247" s="1" t="n">
         <v>-2.43660463</v>
       </c>
-      <c r="C247" s="0" t="n">
+      <c r="C247" s="1" t="n">
         <v>0.702544805</v>
       </c>
       <c r="D247" s="1" t="n">
@@ -11126,10 +11126,10 @@
       <c r="A248" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B248" s="0" t="n">
+      <c r="B248" s="1" t="n">
         <v>-2.43660458</v>
       </c>
-      <c r="C248" s="0" t="n">
+      <c r="C248" s="1" t="n">
         <v>0.702544808</v>
       </c>
       <c r="D248" s="1" t="n">
@@ -11147,10 +11147,10 @@
       <c r="A249" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B249" s="0" t="n">
+      <c r="B249" s="1" t="n">
         <v>-2.43660447</v>
       </c>
-      <c r="C249" s="0" t="n">
+      <c r="C249" s="1" t="n">
         <v>0.702544795</v>
       </c>
       <c r="D249" s="1" t="n">
@@ -11168,10 +11168,10 @@
       <c r="A250" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B250" s="0" t="n">
+      <c r="B250" s="1" t="n">
         <v>-2.43660458</v>
       </c>
-      <c r="C250" s="0" t="n">
+      <c r="C250" s="1" t="n">
         <v>0.702544804</v>
       </c>
       <c r="D250" s="1" t="n">
@@ -11189,10 +11189,10 @@
       <c r="A251" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B251" s="0" t="n">
+      <c r="B251" s="1" t="n">
         <v>-2.43660461</v>
       </c>
-      <c r="C251" s="0" t="n">
+      <c r="C251" s="1" t="n">
         <v>0.702544816</v>
       </c>
       <c r="D251" s="1" t="n">
@@ -11210,10 +11210,10 @@
       <c r="A252" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B252" s="0" t="n">
+      <c r="B252" s="1" t="n">
         <v>-2.2923358</v>
       </c>
-      <c r="C252" s="0" t="n">
+      <c r="C252" s="1" t="n">
         <v>0.651640147</v>
       </c>
       <c r="D252" s="1" t="n">
@@ -11231,10 +11231,10 @@
       <c r="A253" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B253" s="0" t="n">
+      <c r="B253" s="1" t="n">
         <v>-2.29233586</v>
       </c>
-      <c r="C253" s="0" t="n">
+      <c r="C253" s="1" t="n">
         <v>0.65164014</v>
       </c>
       <c r="D253" s="1" t="n">
@@ -11252,10 +11252,10 @@
       <c r="A254" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B254" s="0" t="n">
+      <c r="B254" s="1" t="n">
         <v>-2.29233585</v>
       </c>
-      <c r="C254" s="0" t="n">
+      <c r="C254" s="1" t="n">
         <v>0.651640097</v>
       </c>
       <c r="D254" s="1" t="n">
@@ -11273,10 +11273,10 @@
       <c r="A255" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B255" s="0" t="n">
+      <c r="B255" s="1" t="n">
         <v>-2.29233588</v>
       </c>
-      <c r="C255" s="0" t="n">
+      <c r="C255" s="1" t="n">
         <v>0.651640113</v>
       </c>
       <c r="D255" s="1" t="n">
@@ -11294,10 +11294,10 @@
       <c r="A256" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B256" s="0" t="n">
+      <c r="B256" s="1" t="n">
         <v>-2.29233591</v>
       </c>
-      <c r="C256" s="0" t="n">
+      <c r="C256" s="1" t="n">
         <v>0.651640117</v>
       </c>
       <c r="D256" s="1" t="n">
@@ -11315,10 +11315,10 @@
       <c r="A257" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B257" s="0" t="n">
+      <c r="B257" s="1" t="n">
         <v>-2.68962247</v>
       </c>
-      <c r="C257" s="0" t="n">
+      <c r="C257" s="1" t="n">
         <v>0.946902317</v>
       </c>
       <c r="D257" s="1" t="n">
@@ -11336,10 +11336,10 @@
       <c r="A258" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B258" s="0" t="n">
+      <c r="B258" s="1" t="n">
         <v>-2.68962262</v>
       </c>
-      <c r="C258" s="0" t="n">
+      <c r="C258" s="1" t="n">
         <v>0.9469023</v>
       </c>
       <c r="D258" s="1" t="n">
@@ -11357,10 +11357,10 @@
       <c r="A259" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B259" s="0" t="n">
+      <c r="B259" s="1" t="n">
         <v>-2.68962254</v>
       </c>
-      <c r="C259" s="0" t="n">
+      <c r="C259" s="1" t="n">
         <v>0.946902297</v>
       </c>
       <c r="D259" s="1" t="n">
@@ -11378,10 +11378,10 @@
       <c r="A260" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B260" s="0" t="n">
+      <c r="B260" s="1" t="n">
         <v>-2.68962264</v>
       </c>
-      <c r="C260" s="0" t="n">
+      <c r="C260" s="1" t="n">
         <v>0.946902343</v>
       </c>
       <c r="D260" s="1" t="n">
@@ -11399,10 +11399,10 @@
       <c r="A261" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B261" s="0" t="n">
+      <c r="B261" s="1" t="n">
         <v>-2.68962255</v>
       </c>
-      <c r="C261" s="0" t="n">
+      <c r="C261" s="1" t="n">
         <v>0.946902302</v>
       </c>
       <c r="D261" s="1" t="n">
@@ -11420,10 +11420,10 @@
       <c r="A262" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B262" s="0" t="n">
+      <c r="B262" s="1" t="n">
         <v>-1.96722331</v>
       </c>
-      <c r="C262" s="0" t="n">
+      <c r="C262" s="1" t="n">
         <v>0.92979136</v>
       </c>
       <c r="D262" s="1" t="n">
@@ -11441,10 +11441,10 @@
       <c r="A263" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B263" s="0" t="n">
+      <c r="B263" s="1" t="n">
         <v>-1.96722328</v>
       </c>
-      <c r="C263" s="0" t="n">
+      <c r="C263" s="1" t="n">
         <v>0.92979135</v>
       </c>
       <c r="D263" s="1" t="n">
@@ -11462,10 +11462,10 @@
       <c r="A264" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B264" s="0" t="n">
+      <c r="B264" s="1" t="n">
         <v>-1.96722333</v>
       </c>
-      <c r="C264" s="0" t="n">
+      <c r="C264" s="1" t="n">
         <v>0.929791348</v>
       </c>
       <c r="D264" s="1" t="n">
@@ -11483,10 +11483,10 @@
       <c r="A265" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B265" s="0" t="n">
+      <c r="B265" s="1" t="n">
         <v>-1.96722337</v>
       </c>
-      <c r="C265" s="0" t="n">
+      <c r="C265" s="1" t="n">
         <v>0.92979135</v>
       </c>
       <c r="D265" s="1" t="n">
@@ -11504,10 +11504,10 @@
       <c r="A266" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B266" s="0" t="n">
+      <c r="B266" s="1" t="n">
         <v>-1.96722333</v>
       </c>
-      <c r="C266" s="0" t="n">
+      <c r="C266" s="1" t="n">
         <v>0.929791351</v>
       </c>
       <c r="D266" s="1" t="n">
@@ -11525,10 +11525,10 @@
       <c r="A267" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B267" s="0" t="n">
+      <c r="B267" s="1" t="n">
         <v>-1.85523772</v>
       </c>
-      <c r="C267" s="0" t="n">
+      <c r="C267" s="1" t="n">
         <v>0.840687956</v>
       </c>
       <c r="D267" s="1" t="n">
@@ -11546,10 +11546,10 @@
       <c r="A268" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B268" s="0" t="n">
+      <c r="B268" s="1" t="n">
         <v>-1.85523771</v>
       </c>
-      <c r="C268" s="0" t="n">
+      <c r="C268" s="1" t="n">
         <v>0.840687984</v>
       </c>
       <c r="D268" s="1" t="n">
@@ -11567,10 +11567,10 @@
       <c r="A269" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B269" s="0" t="n">
+      <c r="B269" s="1" t="n">
         <v>-1.85523772</v>
       </c>
-      <c r="C269" s="0" t="n">
+      <c r="C269" s="1" t="n">
         <v>0.84068792</v>
       </c>
       <c r="D269" s="1" t="n">
@@ -11588,10 +11588,10 @@
       <c r="A270" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B270" s="0" t="n">
+      <c r="B270" s="1" t="n">
         <v>-1.85523771</v>
       </c>
-      <c r="C270" s="0" t="n">
+      <c r="C270" s="1" t="n">
         <v>0.840687941</v>
       </c>
       <c r="D270" s="1" t="n">
@@ -11609,10 +11609,10 @@
       <c r="A271" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B271" s="0" t="n">
+      <c r="B271" s="1" t="n">
         <v>-1.85523774</v>
       </c>
-      <c r="C271" s="0" t="n">
+      <c r="C271" s="1" t="n">
         <v>0.840687971</v>
       </c>
       <c r="D271" s="1" t="n">
@@ -11630,10 +11630,10 @@
       <c r="A272" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B272" s="0" t="n">
+      <c r="B272" s="1" t="n">
         <v>-1.57249729</v>
       </c>
-      <c r="C272" s="0" t="n">
+      <c r="C272" s="1" t="n">
         <v>0.829245095</v>
       </c>
       <c r="D272" s="1" t="n">
@@ -11651,10 +11651,10 @@
       <c r="A273" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B273" s="0" t="n">
+      <c r="B273" s="1" t="n">
         <v>-1.57249737</v>
       </c>
-      <c r="C273" s="0" t="n">
+      <c r="C273" s="1" t="n">
         <v>0.829245144</v>
       </c>
       <c r="D273" s="1" t="n">
@@ -11672,10 +11672,10 @@
       <c r="A274" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B274" s="0" t="n">
+      <c r="B274" s="1" t="n">
         <v>-1.57249735</v>
       </c>
-      <c r="C274" s="0" t="n">
+      <c r="C274" s="1" t="n">
         <v>0.829245099</v>
       </c>
       <c r="D274" s="1" t="n">
@@ -11693,10 +11693,10 @@
       <c r="A275" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B275" s="0" t="n">
+      <c r="B275" s="1" t="n">
         <v>-1.57249733</v>
       </c>
-      <c r="C275" s="0" t="n">
+      <c r="C275" s="1" t="n">
         <v>0.829245116</v>
       </c>
       <c r="D275" s="1" t="n">
@@ -11714,10 +11714,10 @@
       <c r="A276" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B276" s="0" t="n">
+      <c r="B276" s="1" t="n">
         <v>-1.5724974</v>
       </c>
-      <c r="C276" s="0" t="n">
+      <c r="C276" s="1" t="n">
         <v>0.829245094</v>
       </c>
       <c r="D276" s="1" t="n">
@@ -11735,10 +11735,10 @@
       <c r="A277" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B277" s="0" t="n">
+      <c r="B277" s="1" t="n">
         <v>-2.06305566</v>
       </c>
-      <c r="C277" s="0" t="n">
+      <c r="C277" s="1" t="n">
         <v>0.76364328</v>
       </c>
       <c r="D277" s="1" t="n">
@@ -11756,10 +11756,10 @@
       <c r="A278" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B278" s="0" t="n">
+      <c r="B278" s="1" t="n">
         <v>-2.06305567</v>
       </c>
-      <c r="C278" s="0" t="n">
+      <c r="C278" s="1" t="n">
         <v>0.763643283</v>
       </c>
       <c r="D278" s="1" t="n">
@@ -11777,10 +11777,10 @@
       <c r="A279" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B279" s="0" t="n">
+      <c r="B279" s="1" t="n">
         <v>-2.06305566</v>
       </c>
-      <c r="C279" s="0" t="n">
+      <c r="C279" s="1" t="n">
         <v>0.763643291</v>
       </c>
       <c r="D279" s="1" t="n">
@@ -11798,10 +11798,10 @@
       <c r="A280" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B280" s="0" t="n">
+      <c r="B280" s="1" t="n">
         <v>-2.06305562</v>
       </c>
-      <c r="C280" s="0" t="n">
+      <c r="C280" s="1" t="n">
         <v>0.763643274</v>
       </c>
       <c r="D280" s="1" t="n">
@@ -11819,10 +11819,10 @@
       <c r="A281" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B281" s="0" t="n">
+      <c r="B281" s="1" t="n">
         <v>-2.06305564</v>
       </c>
-      <c r="C281" s="0" t="n">
+      <c r="C281" s="1" t="n">
         <v>0.76364331</v>
       </c>
       <c r="D281" s="1" t="n">
@@ -11840,10 +11840,10 @@
       <c r="A282" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B282" s="0" t="n">
+      <c r="B282" s="1" t="n">
         <v>-1.59085131</v>
       </c>
-      <c r="C282" s="0" t="n">
+      <c r="C282" s="1" t="n">
         <v>0.720265315</v>
       </c>
       <c r="D282" s="1" t="n">
@@ -11861,10 +11861,10 @@
       <c r="A283" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B283" s="0" t="n">
+      <c r="B283" s="1" t="n">
         <v>-1.59085128</v>
       </c>
-      <c r="C283" s="0" t="n">
+      <c r="C283" s="1" t="n">
         <v>0.720265319</v>
       </c>
       <c r="D283" s="1" t="n">
@@ -11882,10 +11882,10 @@
       <c r="A284" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B284" s="0" t="n">
+      <c r="B284" s="1" t="n">
         <v>-1.59085129</v>
       </c>
-      <c r="C284" s="0" t="n">
+      <c r="C284" s="1" t="n">
         <v>0.720265302</v>
       </c>
       <c r="D284" s="1" t="n">
@@ -11903,10 +11903,10 @@
       <c r="A285" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B285" s="0" t="n">
+      <c r="B285" s="1" t="n">
         <v>-1.59085134</v>
       </c>
-      <c r="C285" s="0" t="n">
+      <c r="C285" s="1" t="n">
         <v>0.720265304</v>
       </c>
       <c r="D285" s="1" t="n">
@@ -11924,10 +11924,10 @@
       <c r="A286" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B286" s="0" t="n">
+      <c r="B286" s="1" t="n">
         <v>-1.59085132</v>
       </c>
-      <c r="C286" s="0" t="n">
+      <c r="C286" s="1" t="n">
         <v>0.720265314</v>
       </c>
       <c r="D286" s="1" t="n">
@@ -11945,10 +11945,10 @@
       <c r="A287" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B287" s="0" t="n">
+      <c r="B287" s="1" t="n">
         <v>-1.225059722</v>
       </c>
-      <c r="C287" s="0" t="n">
+      <c r="C287" s="1" t="n">
         <v>0.847188694</v>
       </c>
       <c r="D287" s="1" t="n">
@@ -11966,10 +11966,10 @@
       <c r="A288" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B288" s="0" t="n">
+      <c r="B288" s="1" t="n">
         <v>-1.225059684</v>
       </c>
-      <c r="C288" s="0" t="n">
+      <c r="C288" s="1" t="n">
         <v>0.847188648</v>
       </c>
       <c r="D288" s="1" t="n">
@@ -11987,10 +11987,10 @@
       <c r="A289" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B289" s="0" t="n">
+      <c r="B289" s="1" t="n">
         <v>-1.225059671</v>
       </c>
-      <c r="C289" s="0" t="n">
+      <c r="C289" s="1" t="n">
         <v>0.847188677</v>
       </c>
       <c r="D289" s="1" t="n">
@@ -12008,10 +12008,10 @@
       <c r="A290" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B290" s="0" t="n">
+      <c r="B290" s="1" t="n">
         <v>-1.225059734</v>
       </c>
-      <c r="C290" s="0" t="n">
+      <c r="C290" s="1" t="n">
         <v>0.847188677</v>
       </c>
       <c r="D290" s="1" t="n">
@@ -12029,10 +12029,10 @@
       <c r="A291" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B291" s="0" t="n">
+      <c r="B291" s="1" t="n">
         <v>-1.225059746</v>
       </c>
-      <c r="C291" s="0" t="n">
+      <c r="C291" s="1" t="n">
         <v>0.847188696</v>
       </c>
       <c r="D291" s="1" t="n">
@@ -12050,10 +12050,10 @@
       <c r="A292" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B292" s="0" t="n">
+      <c r="B292" s="1" t="n">
         <v>-1.8032213</v>
       </c>
-      <c r="C292" s="0" t="n">
+      <c r="C292" s="1" t="n">
         <v>0.823801949</v>
       </c>
       <c r="D292" s="1" t="n">
@@ -12071,10 +12071,10 @@
       <c r="A293" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B293" s="0" t="n">
+      <c r="B293" s="1" t="n">
         <v>-1.80322135</v>
       </c>
-      <c r="C293" s="0" t="n">
+      <c r="C293" s="1" t="n">
         <v>0.823801939</v>
       </c>
       <c r="D293" s="1" t="n">
@@ -12092,10 +12092,10 @@
       <c r="A294" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B294" s="0" t="n">
+      <c r="B294" s="1" t="n">
         <v>-1.80322125</v>
       </c>
-      <c r="C294" s="0" t="n">
+      <c r="C294" s="1" t="n">
         <v>0.823801946</v>
       </c>
       <c r="D294" s="1" t="n">
@@ -12113,10 +12113,10 @@
       <c r="A295" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B295" s="0" t="n">
+      <c r="B295" s="1" t="n">
         <v>-1.8032213</v>
       </c>
-      <c r="C295" s="0" t="n">
+      <c r="C295" s="1" t="n">
         <v>0.823801948</v>
       </c>
       <c r="D295" s="1" t="n">
@@ -12134,10 +12134,10 @@
       <c r="A296" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B296" s="0" t="n">
+      <c r="B296" s="1" t="n">
         <v>-1.80322131</v>
       </c>
-      <c r="C296" s="0" t="n">
+      <c r="C296" s="1" t="n">
         <v>0.823801968</v>
       </c>
       <c r="D296" s="1" t="n">
@@ -12155,10 +12155,10 @@
       <c r="A297" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B297" s="0" t="n">
+      <c r="B297" s="1" t="n">
         <v>-2.11633071</v>
       </c>
-      <c r="C297" s="0" t="n">
+      <c r="C297" s="1" t="n">
         <v>0.793023456</v>
       </c>
       <c r="D297" s="1" t="n">
@@ -12176,10 +12176,10 @@
       <c r="A298" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B298" s="0" t="n">
+      <c r="B298" s="1" t="n">
         <v>-2.11633079</v>
       </c>
-      <c r="C298" s="0" t="n">
+      <c r="C298" s="1" t="n">
         <v>0.793023473</v>
       </c>
       <c r="D298" s="1" t="n">
@@ -12197,10 +12197,10 @@
       <c r="A299" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B299" s="0" t="n">
+      <c r="B299" s="1" t="n">
         <v>-2.11633081</v>
       </c>
-      <c r="C299" s="0" t="n">
+      <c r="C299" s="1" t="n">
         <v>0.793023464</v>
       </c>
       <c r="D299" s="1" t="n">
@@ -12218,10 +12218,10 @@
       <c r="A300" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B300" s="0" t="n">
+      <c r="B300" s="1" t="n">
         <v>-2.11633072</v>
       </c>
-      <c r="C300" s="0" t="n">
+      <c r="C300" s="1" t="n">
         <v>0.793023459</v>
       </c>
       <c r="D300" s="1" t="n">
@@ -12239,10 +12239,10 @@
       <c r="A301" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B301" s="0" t="n">
+      <c r="B301" s="1" t="n">
         <v>-2.11633079</v>
       </c>
-      <c r="C301" s="0" t="n">
+      <c r="C301" s="1" t="n">
         <v>0.793023462</v>
       </c>
       <c r="D301" s="1" t="n">
@@ -12260,10 +12260,10 @@
       <c r="A302" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B302" s="0" t="n">
+      <c r="B302" s="1" t="n">
         <v>-1.72286221</v>
       </c>
-      <c r="C302" s="0" t="n">
+      <c r="C302" s="1" t="n">
         <v>0.729755603</v>
       </c>
       <c r="D302" s="1" t="n">
@@ -12281,10 +12281,10 @@
       <c r="A303" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B303" s="0" t="n">
+      <c r="B303" s="1" t="n">
         <v>-1.72286216</v>
       </c>
-      <c r="C303" s="0" t="n">
+      <c r="C303" s="1" t="n">
         <v>0.729755601</v>
       </c>
       <c r="D303" s="1" t="n">
@@ -12302,10 +12302,10 @@
       <c r="A304" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B304" s="0" t="n">
+      <c r="B304" s="1" t="n">
         <v>-1.72286226</v>
       </c>
-      <c r="C304" s="0" t="n">
+      <c r="C304" s="1" t="n">
         <v>0.729755624</v>
       </c>
       <c r="D304" s="1" t="n">
@@ -12323,10 +12323,10 @@
       <c r="A305" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B305" s="0" t="n">
+      <c r="B305" s="1" t="n">
         <v>-1.72286219</v>
       </c>
-      <c r="C305" s="0" t="n">
+      <c r="C305" s="1" t="n">
         <v>0.729755587</v>
       </c>
       <c r="D305" s="1" t="n">
@@ -12344,10 +12344,10 @@
       <c r="A306" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B306" s="0" t="n">
+      <c r="B306" s="1" t="n">
         <v>-1.72286218</v>
       </c>
-      <c r="C306" s="0" t="n">
+      <c r="C306" s="1" t="n">
         <v>0.729755578</v>
       </c>
       <c r="D306" s="1" t="n">
@@ -12365,10 +12365,10 @@
       <c r="A307" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B307" s="0" t="n">
+      <c r="B307" s="1" t="n">
         <v>-1.63909007</v>
       </c>
-      <c r="C307" s="0" t="n">
+      <c r="C307" s="1" t="n">
         <v>0.849379647</v>
       </c>
       <c r="D307" s="1" t="n">
@@ -12386,10 +12386,10 @@
       <c r="A308" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B308" s="0" t="n">
+      <c r="B308" s="1" t="n">
         <v>-1.6390901</v>
       </c>
-      <c r="C308" s="0" t="n">
+      <c r="C308" s="1" t="n">
         <v>0.849379601</v>
       </c>
       <c r="D308" s="1" t="n">
@@ -12407,10 +12407,10 @@
       <c r="A309" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B309" s="0" t="n">
+      <c r="B309" s="1" t="n">
         <v>-1.63909009</v>
       </c>
-      <c r="C309" s="0" t="n">
+      <c r="C309" s="1" t="n">
         <v>0.849379663</v>
       </c>
       <c r="D309" s="1" t="n">
@@ -12428,10 +12428,10 @@
       <c r="A310" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B310" s="0" t="n">
+      <c r="B310" s="1" t="n">
         <v>-1.63909008</v>
       </c>
-      <c r="C310" s="0" t="n">
+      <c r="C310" s="1" t="n">
         <v>0.849379625</v>
       </c>
       <c r="D310" s="1" t="n">
@@ -12449,10 +12449,10 @@
       <c r="A311" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B311" s="0" t="n">
+      <c r="B311" s="1" t="n">
         <v>-1.63909007</v>
       </c>
-      <c r="C311" s="0" t="n">
+      <c r="C311" s="1" t="n">
         <v>0.849379605</v>
       </c>
       <c r="D311" s="1" t="n">
@@ -12470,10 +12470,10 @@
       <c r="A312" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B312" s="0" t="n">
+      <c r="B312" s="1" t="n">
         <v>-2.62760631</v>
       </c>
-      <c r="C312" s="0" t="n">
+      <c r="C312" s="1" t="n">
         <v>0.793489905</v>
       </c>
       <c r="D312" s="1" t="n">
@@ -12491,10 +12491,10 @@
       <c r="A313" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B313" s="0" t="n">
+      <c r="B313" s="1" t="n">
         <v>-2.62760623</v>
       </c>
-      <c r="C313" s="0" t="n">
+      <c r="C313" s="1" t="n">
         <v>0.793489923</v>
       </c>
       <c r="D313" s="1" t="n">
@@ -12512,10 +12512,10 @@
       <c r="A314" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B314" s="0" t="n">
+      <c r="B314" s="1" t="n">
         <v>-2.62760637</v>
       </c>
-      <c r="C314" s="0" t="n">
+      <c r="C314" s="1" t="n">
         <v>0.793489876</v>
       </c>
       <c r="D314" s="1" t="n">
@@ -12533,10 +12533,10 @@
       <c r="A315" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B315" s="0" t="n">
+      <c r="B315" s="1" t="n">
         <v>-2.62760632</v>
       </c>
-      <c r="C315" s="0" t="n">
+      <c r="C315" s="1" t="n">
         <v>0.793489927</v>
       </c>
       <c r="D315" s="1" t="n">
@@ -12554,10 +12554,10 @@
       <c r="A316" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B316" s="0" t="n">
+      <c r="B316" s="1" t="n">
         <v>-2.62760631</v>
       </c>
-      <c r="C316" s="0" t="n">
+      <c r="C316" s="1" t="n">
         <v>0.793489883</v>
       </c>
       <c r="D316" s="1" t="n">
@@ -12575,10 +12575,10 @@
       <c r="A317" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B317" s="0" t="n">
+      <c r="B317" s="1" t="n">
         <v>-1.8964799</v>
       </c>
-      <c r="C317" s="0" t="n">
+      <c r="C317" s="1" t="n">
         <v>0.476198616</v>
       </c>
       <c r="D317" s="1" t="n">
@@ -12596,10 +12596,10 @@
       <c r="A318" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B318" s="0" t="n">
+      <c r="B318" s="1" t="n">
         <v>-1.89647989</v>
       </c>
-      <c r="C318" s="0" t="n">
+      <c r="C318" s="1" t="n">
         <v>0.476198627</v>
       </c>
       <c r="D318" s="1" t="n">
@@ -12617,10 +12617,10 @@
       <c r="A319" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B319" s="0" t="n">
+      <c r="B319" s="1" t="n">
         <v>-1.89647989</v>
       </c>
-      <c r="C319" s="0" t="n">
+      <c r="C319" s="1" t="n">
         <v>0.476198585</v>
       </c>
       <c r="D319" s="1" t="n">
@@ -12638,10 +12638,10 @@
       <c r="A320" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B320" s="0" t="n">
+      <c r="B320" s="1" t="n">
         <v>-1.89647993</v>
       </c>
-      <c r="C320" s="0" t="n">
+      <c r="C320" s="1" t="n">
         <v>0.476198602</v>
       </c>
       <c r="D320" s="1" t="n">
@@ -12659,10 +12659,10 @@
       <c r="A321" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B321" s="0" t="n">
+      <c r="B321" s="1" t="n">
         <v>-1.89647988</v>
       </c>
-      <c r="C321" s="0" t="n">
+      <c r="C321" s="1" t="n">
         <v>0.476198618</v>
       </c>
       <c r="D321" s="1" t="n">
@@ -12680,10 +12680,10 @@
       <c r="A322" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B322" s="0" t="n">
+      <c r="B322" s="1" t="n">
         <v>-2.66457714</v>
       </c>
-      <c r="C322" s="0" t="n">
+      <c r="C322" s="1" t="n">
         <v>1.043434494</v>
       </c>
       <c r="D322" s="1" t="n">
@@ -12701,10 +12701,10 @@
       <c r="A323" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B323" s="0" t="n">
+      <c r="B323" s="1" t="n">
         <v>-2.66457707</v>
       </c>
-      <c r="C323" s="0" t="n">
+      <c r="C323" s="1" t="n">
         <v>1.043434515</v>
       </c>
       <c r="D323" s="1" t="n">
@@ -12722,10 +12722,10 @@
       <c r="A324" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B324" s="0" t="n">
+      <c r="B324" s="1" t="n">
         <v>-2.66457706</v>
       </c>
-      <c r="C324" s="0" t="n">
+      <c r="C324" s="1" t="n">
         <v>1.043434499</v>
       </c>
       <c r="D324" s="1" t="n">
@@ -12743,10 +12743,10 @@
       <c r="A325" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B325" s="0" t="n">
+      <c r="B325" s="1" t="n">
         <v>-2.66457709</v>
       </c>
-      <c r="C325" s="0" t="n">
+      <c r="C325" s="1" t="n">
         <v>1.043434505</v>
       </c>
       <c r="D325" s="1" t="n">
@@ -12764,10 +12764,10 @@
       <c r="A326" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B326" s="0" t="n">
+      <c r="B326" s="1" t="n">
         <v>-2.66457716</v>
       </c>
-      <c r="C326" s="0" t="n">
+      <c r="C326" s="1" t="n">
         <v>1.043434451</v>
       </c>
       <c r="D326" s="1" t="n">
@@ -12785,10 +12785,10 @@
       <c r="A327" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B327" s="0" t="n">
+      <c r="B327" s="1" t="n">
         <v>-2.94056631</v>
       </c>
-      <c r="C327" s="0" t="n">
+      <c r="C327" s="1" t="n">
         <v>0.64455876</v>
       </c>
       <c r="D327" s="1" t="n">
@@ -12806,10 +12806,10 @@
       <c r="A328" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B328" s="0" t="n">
+      <c r="B328" s="1" t="n">
         <v>-2.94056637</v>
       </c>
-      <c r="C328" s="0" t="n">
+      <c r="C328" s="1" t="n">
         <v>0.64455878</v>
       </c>
       <c r="D328" s="1" t="n">
@@ -12827,10 +12827,10 @@
       <c r="A329" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B329" s="0" t="n">
+      <c r="B329" s="1" t="n">
         <v>-2.94056631</v>
       </c>
-      <c r="C329" s="0" t="n">
+      <c r="C329" s="1" t="n">
         <v>0.644558762</v>
       </c>
       <c r="D329" s="1" t="n">
@@ -12848,10 +12848,10 @@
       <c r="A330" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B330" s="0" t="n">
+      <c r="B330" s="1" t="n">
         <v>-2.94056634</v>
       </c>
-      <c r="C330" s="0" t="n">
+      <c r="C330" s="1" t="n">
         <v>0.64455877</v>
       </c>
       <c r="D330" s="1" t="n">
@@ -12869,10 +12869,10 @@
       <c r="A331" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B331" s="0" t="n">
+      <c r="B331" s="1" t="n">
         <v>-2.94056627</v>
       </c>
-      <c r="C331" s="0" t="n">
+      <c r="C331" s="1" t="n">
         <v>0.644558766</v>
       </c>
       <c r="D331" s="1" t="n">
@@ -12890,10 +12890,10 @@
       <c r="A332" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B332" s="0" t="n">
+      <c r="B332" s="1" t="n">
         <v>-3.40568534</v>
       </c>
-      <c r="C332" s="0" t="n">
+      <c r="C332" s="1" t="n">
         <v>0.799261774</v>
       </c>
       <c r="D332" s="1" t="n">
@@ -12911,10 +12911,10 @@
       <c r="A333" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B333" s="0" t="n">
+      <c r="B333" s="1" t="n">
         <v>-3.40568533</v>
       </c>
-      <c r="C333" s="0" t="n">
+      <c r="C333" s="1" t="n">
         <v>0.799261731</v>
       </c>
       <c r="D333" s="1" t="n">
@@ -12932,10 +12932,10 @@
       <c r="A334" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B334" s="0" t="n">
+      <c r="B334" s="1" t="n">
         <v>-3.40568532</v>
       </c>
-      <c r="C334" s="0" t="n">
+      <c r="C334" s="1" t="n">
         <v>0.799261731</v>
       </c>
       <c r="D334" s="1" t="n">
@@ -12953,10 +12953,10 @@
       <c r="A335" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B335" s="0" t="n">
+      <c r="B335" s="1" t="n">
         <v>-3.40568537</v>
       </c>
-      <c r="C335" s="0" t="n">
+      <c r="C335" s="1" t="n">
         <v>0.799261748</v>
       </c>
       <c r="D335" s="1" t="n">
@@ -12974,10 +12974,10 @@
       <c r="A336" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B336" s="0" t="n">
+      <c r="B336" s="1" t="n">
         <v>-3.40568529</v>
       </c>
-      <c r="C336" s="0" t="n">
+      <c r="C336" s="1" t="n">
         <v>0.799261753</v>
       </c>
       <c r="D336" s="1" t="n">
@@ -12995,10 +12995,10 @@
       <c r="A337" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B337" s="0" t="n">
+      <c r="B337" s="1" t="n">
         <v>-3.025664</v>
       </c>
-      <c r="C337" s="0" t="n">
+      <c r="C337" s="1" t="n">
         <v>0.947088703</v>
       </c>
       <c r="D337" s="1" t="n">
@@ -13016,10 +13016,10 @@
       <c r="A338" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B338" s="0" t="n">
+      <c r="B338" s="1" t="n">
         <v>-3.02566396</v>
       </c>
-      <c r="C338" s="0" t="n">
+      <c r="C338" s="1" t="n">
         <v>0.947088665</v>
       </c>
       <c r="D338" s="1" t="n">
@@ -13037,10 +13037,10 @@
       <c r="A339" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B339" s="0" t="n">
+      <c r="B339" s="1" t="n">
         <v>-3.02566395</v>
       </c>
-      <c r="C339" s="0" t="n">
+      <c r="C339" s="1" t="n">
         <v>0.947088673</v>
       </c>
       <c r="D339" s="1" t="n">
@@ -13058,10 +13058,10 @@
       <c r="A340" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B340" s="0" t="n">
+      <c r="B340" s="1" t="n">
         <v>-3.02566402</v>
       </c>
-      <c r="C340" s="0" t="n">
+      <c r="C340" s="1" t="n">
         <v>0.947088686</v>
       </c>
       <c r="D340" s="1" t="n">
@@ -13079,10 +13079,10 @@
       <c r="A341" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B341" s="0" t="n">
+      <c r="B341" s="1" t="n">
         <v>-3.02566403</v>
       </c>
-      <c r="C341" s="0" t="n">
+      <c r="C341" s="1" t="n">
         <v>0.947088653</v>
       </c>
       <c r="D341" s="1" t="n">
@@ -13100,10 +13100,10 @@
       <c r="A342" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B342" s="0" t="n">
+      <c r="B342" s="1" t="n">
         <v>-2.99495931</v>
       </c>
-      <c r="C342" s="0" t="n">
+      <c r="C342" s="1" t="n">
         <v>1.05505706</v>
       </c>
       <c r="D342" s="1" t="n">
@@ -13121,10 +13121,10 @@
       <c r="A343" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B343" s="0" t="n">
+      <c r="B343" s="1" t="n">
         <v>-2.99495934</v>
       </c>
-      <c r="C343" s="0" t="n">
+      <c r="C343" s="1" t="n">
         <v>1.05505707</v>
       </c>
       <c r="D343" s="1" t="n">
@@ -13142,10 +13142,10 @@
       <c r="A344" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B344" s="0" t="n">
+      <c r="B344" s="1" t="n">
         <v>-2.99495912</v>
       </c>
-      <c r="C344" s="0" t="n">
+      <c r="C344" s="1" t="n">
         <v>1.05505706</v>
       </c>
       <c r="D344" s="1" t="n">
@@ -13163,10 +13163,10 @@
       <c r="A345" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B345" s="0" t="n">
+      <c r="B345" s="1" t="n">
         <v>-2.99495927</v>
       </c>
-      <c r="C345" s="0" t="n">
+      <c r="C345" s="1" t="n">
         <v>1.05505706</v>
       </c>
       <c r="D345" s="1" t="n">
@@ -13184,10 +13184,10 @@
       <c r="A346" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B346" s="0" t="n">
+      <c r="B346" s="1" t="n">
         <v>-2.99495924</v>
       </c>
-      <c r="C346" s="0" t="n">
+      <c r="C346" s="1" t="n">
         <v>1.055057055</v>
       </c>
       <c r="D346" s="1" t="n">
@@ -13205,10 +13205,10 @@
       <c r="A347" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B347" s="0" t="n">
+      <c r="B347" s="1" t="n">
         <v>-2.74588156</v>
       </c>
-      <c r="C347" s="0" t="n">
+      <c r="C347" s="1" t="n">
         <v>0.726958218</v>
       </c>
       <c r="D347" s="1" t="n">
@@ -13226,10 +13226,10 @@
       <c r="A348" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B348" s="0" t="n">
+      <c r="B348" s="1" t="n">
         <v>-2.74588155</v>
       </c>
-      <c r="C348" s="0" t="n">
+      <c r="C348" s="1" t="n">
         <v>0.7269582</v>
       </c>
       <c r="D348" s="1" t="n">
@@ -13247,10 +13247,10 @@
       <c r="A349" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B349" s="0" t="n">
+      <c r="B349" s="1" t="n">
         <v>-2.74588161</v>
       </c>
-      <c r="C349" s="0" t="n">
+      <c r="C349" s="1" t="n">
         <v>0.726958213</v>
       </c>
       <c r="D349" s="1" t="n">
@@ -13268,10 +13268,10 @@
       <c r="A350" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B350" s="0" t="n">
+      <c r="B350" s="1" t="n">
         <v>-2.74588153</v>
       </c>
-      <c r="C350" s="0" t="n">
+      <c r="C350" s="1" t="n">
         <v>0.726958229</v>
       </c>
       <c r="D350" s="1" t="n">
@@ -13289,10 +13289,10 @@
       <c r="A351" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B351" s="0" t="n">
+      <c r="B351" s="1" t="n">
         <v>-2.74588158</v>
       </c>
-      <c r="C351" s="0" t="n">
+      <c r="C351" s="1" t="n">
         <v>0.726958217</v>
       </c>
       <c r="D351" s="1" t="n">
@@ -13310,10 +13310,10 @@
       <c r="A352" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B352" s="0" t="n">
+      <c r="B352" s="1" t="n">
         <v>-2.96545556</v>
       </c>
-      <c r="C352" s="0" t="n">
+      <c r="C352" s="1" t="n">
         <v>0.771469649</v>
       </c>
       <c r="D352" s="1" t="n">
@@ -13331,10 +13331,10 @@
       <c r="A353" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B353" s="0" t="n">
+      <c r="B353" s="1" t="n">
         <v>-2.96545555</v>
       </c>
-      <c r="C353" s="0" t="n">
+      <c r="C353" s="1" t="n">
         <v>0.771469626</v>
       </c>
       <c r="D353" s="1" t="n">
@@ -13352,10 +13352,10 @@
       <c r="A354" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B354" s="0" t="n">
+      <c r="B354" s="1" t="n">
         <v>-2.96545562</v>
       </c>
-      <c r="C354" s="0" t="n">
+      <c r="C354" s="1" t="n">
         <v>0.771469664</v>
       </c>
       <c r="D354" s="1" t="n">
@@ -13373,10 +13373,10 @@
       <c r="A355" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B355" s="0" t="n">
+      <c r="B355" s="1" t="n">
         <v>-2.96545555</v>
       </c>
-      <c r="C355" s="0" t="n">
+      <c r="C355" s="1" t="n">
         <v>0.771469637</v>
       </c>
       <c r="D355" s="1" t="n">
@@ -13394,10 +13394,10 @@
       <c r="A356" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B356" s="0" t="n">
+      <c r="B356" s="1" t="n">
         <v>-2.96545564</v>
       </c>
-      <c r="C356" s="0" t="n">
+      <c r="C356" s="1" t="n">
         <v>0.771469669</v>
       </c>
       <c r="D356" s="1" t="n">
@@ -13415,10 +13415,10 @@
       <c r="A357" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B357" s="0" t="n">
+      <c r="B357" s="1" t="n">
         <v>-3.52570307</v>
       </c>
-      <c r="C357" s="0" t="n">
+      <c r="C357" s="1" t="n">
         <v>0.742776668</v>
       </c>
       <c r="D357" s="1" t="n">
@@ -13436,10 +13436,10 @@
       <c r="A358" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B358" s="0" t="n">
+      <c r="B358" s="1" t="n">
         <v>-3.5257031</v>
       </c>
-      <c r="C358" s="0" t="n">
+      <c r="C358" s="1" t="n">
         <v>0.742776626</v>
       </c>
       <c r="D358" s="1" t="n">
@@ -13457,10 +13457,10 @@
       <c r="A359" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B359" s="0" t="n">
+      <c r="B359" s="1" t="n">
         <v>-3.52570305</v>
       </c>
-      <c r="C359" s="0" t="n">
+      <c r="C359" s="1" t="n">
         <v>0.74277667</v>
       </c>
       <c r="D359" s="1" t="n">
@@ -13478,10 +13478,10 @@
       <c r="A360" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B360" s="0" t="n">
+      <c r="B360" s="1" t="n">
         <v>-3.5257031</v>
       </c>
-      <c r="C360" s="0" t="n">
+      <c r="C360" s="1" t="n">
         <v>0.742776681</v>
       </c>
       <c r="D360" s="1" t="n">
@@ -13499,10 +13499,10 @@
       <c r="A361" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B361" s="0" t="n">
+      <c r="B361" s="1" t="n">
         <v>-3.52570315</v>
       </c>
-      <c r="C361" s="0" t="n">
+      <c r="C361" s="1" t="n">
         <v>0.742776658</v>
       </c>
       <c r="D361" s="1" t="n">
@@ -13520,10 +13520,10 @@
       <c r="A362" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B362" s="0" t="n">
+      <c r="B362" s="1" t="n">
         <v>-1.92098002</v>
       </c>
-      <c r="C362" s="0" t="n">
+      <c r="C362" s="1" t="n">
         <v>0.618068803</v>
       </c>
       <c r="D362" s="1" t="n">
@@ -13541,10 +13541,10 @@
       <c r="A363" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B363" s="0" t="n">
+      <c r="B363" s="1" t="n">
         <v>-1.92097999</v>
       </c>
-      <c r="C363" s="0" t="n">
+      <c r="C363" s="1" t="n">
         <v>0.618068812</v>
       </c>
       <c r="D363" s="1" t="n">
@@ -13562,10 +13562,10 @@
       <c r="A364" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B364" s="0" t="n">
+      <c r="B364" s="1" t="n">
         <v>-1.92098006</v>
       </c>
-      <c r="C364" s="0" t="n">
+      <c r="C364" s="1" t="n">
         <v>0.618068797</v>
       </c>
       <c r="D364" s="1" t="n">
@@ -13583,10 +13583,10 @@
       <c r="A365" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B365" s="0" t="n">
+      <c r="B365" s="1" t="n">
         <v>-1.92098001</v>
       </c>
-      <c r="C365" s="0" t="n">
+      <c r="C365" s="1" t="n">
         <v>0.618068826</v>
       </c>
       <c r="D365" s="1" t="n">
@@ -13604,10 +13604,10 @@
       <c r="A366" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B366" s="0" t="n">
+      <c r="B366" s="1" t="n">
         <v>-1.92098</v>
       </c>
-      <c r="C366" s="0" t="n">
+      <c r="C366" s="1" t="n">
         <v>0.618068816</v>
       </c>
       <c r="D366" s="1" t="n">
@@ -13625,10 +13625,10 @@
       <c r="A367" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B367" s="0" t="n">
+      <c r="B367" s="1" t="n">
         <v>-1.38611846</v>
       </c>
-      <c r="C367" s="0" t="n">
+      <c r="C367" s="1" t="n">
         <v>0.529545443</v>
       </c>
       <c r="D367" s="1" t="n">
@@ -13646,10 +13646,10 @@
       <c r="A368" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B368" s="0" t="n">
+      <c r="B368" s="1" t="n">
         <v>-1.38611848</v>
       </c>
-      <c r="C368" s="0" t="n">
+      <c r="C368" s="1" t="n">
         <v>0.529545456</v>
       </c>
       <c r="D368" s="1" t="n">
@@ -13667,10 +13667,10 @@
       <c r="A369" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B369" s="0" t="n">
+      <c r="B369" s="1" t="n">
         <v>-1.38611852</v>
       </c>
-      <c r="C369" s="0" t="n">
+      <c r="C369" s="1" t="n">
         <v>0.529545446</v>
       </c>
       <c r="D369" s="1" t="n">
@@ -13688,10 +13688,10 @@
       <c r="A370" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B370" s="0" t="n">
+      <c r="B370" s="1" t="n">
         <v>-1.38611851</v>
       </c>
-      <c r="C370" s="0" t="n">
+      <c r="C370" s="1" t="n">
         <v>0.529545435</v>
       </c>
       <c r="D370" s="1" t="n">
@@ -13709,10 +13709,10 @@
       <c r="A371" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B371" s="0" t="n">
+      <c r="B371" s="1" t="n">
         <v>-1.38611849</v>
       </c>
-      <c r="C371" s="0" t="n">
+      <c r="C371" s="1" t="n">
         <v>0.529545472</v>
       </c>
       <c r="D371" s="1" t="n">
@@ -13730,10 +13730,10 @@
       <c r="A372" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B372" s="0" t="n">
+      <c r="B372" s="1" t="n">
         <v>-0.847354714</v>
       </c>
-      <c r="C372" s="0" t="n">
+      <c r="C372" s="1" t="n">
         <v>0.760544868</v>
       </c>
       <c r="D372" s="1" t="n">
@@ -13751,10 +13751,10 @@
       <c r="A373" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B373" s="0" t="n">
+      <c r="B373" s="1" t="n">
         <v>-0.847354743</v>
       </c>
-      <c r="C373" s="0" t="n">
+      <c r="C373" s="1" t="n">
         <v>0.760544881</v>
       </c>
       <c r="D373" s="1" t="n">
@@ -13772,10 +13772,10 @@
       <c r="A374" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B374" s="0" t="n">
+      <c r="B374" s="1" t="n">
         <v>-0.847354758</v>
       </c>
-      <c r="C374" s="0" t="n">
+      <c r="C374" s="1" t="n">
         <v>0.760544881</v>
       </c>
       <c r="D374" s="1" t="n">
@@ -13793,10 +13793,10 @@
       <c r="A375" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B375" s="0" t="n">
+      <c r="B375" s="1" t="n">
         <v>-0.847354724</v>
       </c>
-      <c r="C375" s="0" t="n">
+      <c r="C375" s="1" t="n">
         <v>0.760544885</v>
       </c>
       <c r="D375" s="1" t="n">
@@ -13814,10 +13814,10 @@
       <c r="A376" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B376" s="0" t="n">
+      <c r="B376" s="1" t="n">
         <v>-0.847354703</v>
       </c>
-      <c r="C376" s="0" t="n">
+      <c r="C376" s="1" t="n">
         <v>0.760544875</v>
       </c>
       <c r="D376" s="1" t="n">
@@ -13835,10 +13835,10 @@
       <c r="A377" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B377" s="0" t="n">
+      <c r="B377" s="1" t="n">
         <v>-1.0801643764</v>
       </c>
-      <c r="C377" s="0" t="n">
+      <c r="C377" s="1" t="n">
         <v>0.401102766</v>
       </c>
       <c r="D377" s="1" t="n">
@@ -13856,10 +13856,10 @@
       <c r="A378" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B378" s="0" t="n">
+      <c r="B378" s="1" t="n">
         <v>-1.0801643746</v>
       </c>
-      <c r="C378" s="0" t="n">
+      <c r="C378" s="1" t="n">
         <v>0.401102762</v>
       </c>
       <c r="D378" s="1" t="n">
@@ -13877,10 +13877,10 @@
       <c r="A379" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B379" s="0" t="n">
+      <c r="B379" s="1" t="n">
         <v>-1.080164374</v>
       </c>
-      <c r="C379" s="0" t="n">
+      <c r="C379" s="1" t="n">
         <v>0.401102773</v>
       </c>
       <c r="D379" s="1" t="n">
@@ -13898,10 +13898,10 @@
       <c r="A380" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B380" s="0" t="n">
+      <c r="B380" s="1" t="n">
         <v>-1.0801644024</v>
       </c>
-      <c r="C380" s="0" t="n">
+      <c r="C380" s="1" t="n">
         <v>0.401102774</v>
       </c>
       <c r="D380" s="1" t="n">
@@ -13919,10 +13919,10 @@
       <c r="A381" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B381" s="0" t="n">
+      <c r="B381" s="1" t="n">
         <v>-1.080164345</v>
       </c>
-      <c r="C381" s="0" t="n">
+      <c r="C381" s="1" t="n">
         <v>0.401102744</v>
       </c>
       <c r="D381" s="1" t="n">
@@ -13940,10 +13940,10 @@
       <c r="A382" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B382" s="0" t="n">
+      <c r="B382" s="1" t="n">
         <v>-2.31052968</v>
       </c>
-      <c r="C382" s="0" t="n">
+      <c r="C382" s="1" t="n">
         <v>0.895174813</v>
       </c>
       <c r="D382" s="1" t="n">
@@ -13961,10 +13961,10 @@
       <c r="A383" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B383" s="0" t="n">
+      <c r="B383" s="1" t="n">
         <v>-2.31052955</v>
       </c>
-      <c r="C383" s="0" t="n">
+      <c r="C383" s="1" t="n">
         <v>0.895174841</v>
       </c>
       <c r="D383" s="1" t="n">
@@ -13982,10 +13982,10 @@
       <c r="A384" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B384" s="0" t="n">
+      <c r="B384" s="1" t="n">
         <v>-2.31052958</v>
       </c>
-      <c r="C384" s="0" t="n">
+      <c r="C384" s="1" t="n">
         <v>0.895174801</v>
       </c>
       <c r="D384" s="1" t="n">
@@ -14003,10 +14003,10 @@
       <c r="A385" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B385" s="0" t="n">
+      <c r="B385" s="1" t="n">
         <v>-2.31052963</v>
       </c>
-      <c r="C385" s="0" t="n">
+      <c r="C385" s="1" t="n">
         <v>0.895174845</v>
       </c>
       <c r="D385" s="1" t="n">
@@ -14024,10 +14024,10 @@
       <c r="A386" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B386" s="0" t="n">
+      <c r="B386" s="1" t="n">
         <v>-2.31052957</v>
       </c>
-      <c r="C386" s="0" t="n">
+      <c r="C386" s="1" t="n">
         <v>0.895174823</v>
       </c>
       <c r="D386" s="1" t="n">
@@ -14045,10 +14045,10 @@
       <c r="A387" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B387" s="0" t="n">
+      <c r="B387" s="1" t="n">
         <v>-1.3459663</v>
       </c>
-      <c r="C387" s="0" t="n">
+      <c r="C387" s="1" t="n">
         <v>0.681844336</v>
       </c>
       <c r="D387" s="1" t="n">
@@ -14066,10 +14066,10 @@
       <c r="A388" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B388" s="0" t="n">
+      <c r="B388" s="1" t="n">
         <v>-1.34596627</v>
       </c>
-      <c r="C388" s="0" t="n">
+      <c r="C388" s="1" t="n">
         <v>0.681844307</v>
       </c>
       <c r="D388" s="1" t="n">
@@ -14087,10 +14087,10 @@
       <c r="A389" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B389" s="0" t="n">
+      <c r="B389" s="1" t="n">
         <v>-1.34596623</v>
       </c>
-      <c r="C389" s="0" t="n">
+      <c r="C389" s="1" t="n">
         <v>0.681844319</v>
       </c>
       <c r="D389" s="1" t="n">
@@ -14108,10 +14108,10 @@
       <c r="A390" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B390" s="0" t="n">
+      <c r="B390" s="1" t="n">
         <v>-1.3459662</v>
       </c>
-      <c r="C390" s="0" t="n">
+      <c r="C390" s="1" t="n">
         <v>0.681844293</v>
       </c>
       <c r="D390" s="1" t="n">
@@ -14129,10 +14129,10 @@
       <c r="A391" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B391" s="0" t="n">
+      <c r="B391" s="1" t="n">
         <v>-1.34596622</v>
       </c>
-      <c r="C391" s="0" t="n">
+      <c r="C391" s="1" t="n">
         <v>0.681844322</v>
       </c>
       <c r="D391" s="1" t="n">
@@ -14150,10 +14150,10 @@
       <c r="A392" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B392" s="0" t="n">
+      <c r="B392" s="1" t="n">
         <v>-1.73712314</v>
       </c>
-      <c r="C392" s="0" t="n">
+      <c r="C392" s="1" t="n">
         <v>0.728523581</v>
       </c>
       <c r="D392" s="1" t="n">
@@ -14171,10 +14171,10 @@
       <c r="A393" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B393" s="0" t="n">
+      <c r="B393" s="1" t="n">
         <v>-1.73712321</v>
       </c>
-      <c r="C393" s="0" t="n">
+      <c r="C393" s="1" t="n">
         <v>0.728523588</v>
       </c>
       <c r="D393" s="1" t="n">
@@ -14192,10 +14192,10 @@
       <c r="A394" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B394" s="0" t="n">
+      <c r="B394" s="1" t="n">
         <v>-1.73712318</v>
       </c>
-      <c r="C394" s="0" t="n">
+      <c r="C394" s="1" t="n">
         <v>0.728523617</v>
       </c>
       <c r="D394" s="1" t="n">
@@ -14213,10 +14213,10 @@
       <c r="A395" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B395" s="0" t="n">
+      <c r="B395" s="1" t="n">
         <v>-1.73712324</v>
       </c>
-      <c r="C395" s="0" t="n">
+      <c r="C395" s="1" t="n">
         <v>0.728523581</v>
       </c>
       <c r="D395" s="1" t="n">
@@ -14234,10 +14234,10 @@
       <c r="A396" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B396" s="0" t="n">
+      <c r="B396" s="1" t="n">
         <v>-1.73712319</v>
       </c>
-      <c r="C396" s="0" t="n">
+      <c r="C396" s="1" t="n">
         <v>0.72852359</v>
       </c>
       <c r="D396" s="1" t="n">
@@ -14255,10 +14255,10 @@
       <c r="A397" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B397" s="0" t="n">
+      <c r="B397" s="1" t="n">
         <v>-1.41536837</v>
       </c>
-      <c r="C397" s="0" t="n">
+      <c r="C397" s="1" t="n">
         <v>0.641494489</v>
       </c>
       <c r="D397" s="1" t="n">
@@ -14276,10 +14276,10 @@
       <c r="A398" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B398" s="0" t="n">
+      <c r="B398" s="1" t="n">
         <v>-1.41536846</v>
       </c>
-      <c r="C398" s="0" t="n">
+      <c r="C398" s="1" t="n">
         <v>0.641494521</v>
       </c>
       <c r="D398" s="1" t="n">
@@ -14297,10 +14297,10 @@
       <c r="A399" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B399" s="0" t="n">
+      <c r="B399" s="1" t="n">
         <v>-1.41536841</v>
       </c>
-      <c r="C399" s="0" t="n">
+      <c r="C399" s="1" t="n">
         <v>0.641494537</v>
       </c>
       <c r="D399" s="1" t="n">
@@ -14318,10 +14318,10 @@
       <c r="A400" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B400" s="0" t="n">
+      <c r="B400" s="1" t="n">
         <v>-1.41536835</v>
       </c>
-      <c r="C400" s="0" t="n">
+      <c r="C400" s="1" t="n">
         <v>0.641494522</v>
       </c>
       <c r="D400" s="1" t="n">
@@ -14339,10 +14339,10 @@
       <c r="A401" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B401" s="0" t="n">
+      <c r="B401" s="1" t="n">
         <v>-1.41536847</v>
       </c>
-      <c r="C401" s="0" t="n">
+      <c r="C401" s="1" t="n">
         <v>0.641494493</v>
       </c>
       <c r="D401" s="1" t="n">
@@ -14360,10 +14360,10 @@
       <c r="A402" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B402" s="0" t="n">
+      <c r="B402" s="1" t="n">
         <v>-3.24238054</v>
       </c>
-      <c r="C402" s="0" t="n">
+      <c r="C402" s="1" t="n">
         <v>0.823469024</v>
       </c>
       <c r="D402" s="1" t="n">
@@ -14381,10 +14381,10 @@
       <c r="A403" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B403" s="0" t="n">
+      <c r="B403" s="1" t="n">
         <v>-3.24238054</v>
       </c>
-      <c r="C403" s="0" t="n">
+      <c r="C403" s="1" t="n">
         <v>0.823469025</v>
       </c>
       <c r="D403" s="1" t="n">
@@ -14402,10 +14402,10 @@
       <c r="A404" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B404" s="0" t="n">
+      <c r="B404" s="1" t="n">
         <v>-3.24238041</v>
       </c>
-      <c r="C404" s="0" t="n">
+      <c r="C404" s="1" t="n">
         <v>0.823469008</v>
       </c>
       <c r="D404" s="1" t="n">
@@ -14423,10 +14423,10 @@
       <c r="A405" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B405" s="0" t="n">
+      <c r="B405" s="1" t="n">
         <v>-3.24238044</v>
       </c>
-      <c r="C405" s="0" t="n">
+      <c r="C405" s="1" t="n">
         <v>0.823469017</v>
       </c>
       <c r="D405" s="1" t="n">
@@ -14444,10 +14444,10 @@
       <c r="A406" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B406" s="0" t="n">
+      <c r="B406" s="1" t="n">
         <v>-3.24238048</v>
       </c>
-      <c r="C406" s="0" t="n">
+      <c r="C406" s="1" t="n">
         <v>0.823468998</v>
       </c>
       <c r="D406" s="1" t="n">
@@ -14465,10 +14465,10 @@
       <c r="A407" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B407" s="0" t="n">
+      <c r="B407" s="1" t="n">
         <v>-1.98539578</v>
       </c>
-      <c r="C407" s="0" t="n">
+      <c r="C407" s="1" t="n">
         <v>0.786167561</v>
       </c>
       <c r="D407" s="1" t="n">
@@ -14486,10 +14486,10 @@
       <c r="A408" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B408" s="0" t="n">
+      <c r="B408" s="1" t="n">
         <v>-1.98539572</v>
       </c>
-      <c r="C408" s="0" t="n">
+      <c r="C408" s="1" t="n">
         <v>0.786167561</v>
       </c>
       <c r="D408" s="1" t="n">
@@ -14507,10 +14507,10 @@
       <c r="A409" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B409" s="0" t="n">
+      <c r="B409" s="1" t="n">
         <v>-1.9853958</v>
       </c>
-      <c r="C409" s="0" t="n">
+      <c r="C409" s="1" t="n">
         <v>0.786167575</v>
       </c>
       <c r="D409" s="1" t="n">
@@ -14528,10 +14528,10 @@
       <c r="A410" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B410" s="0" t="n">
+      <c r="B410" s="1" t="n">
         <v>-1.9853958</v>
       </c>
-      <c r="C410" s="0" t="n">
+      <c r="C410" s="1" t="n">
         <v>0.786167572</v>
       </c>
       <c r="D410" s="1" t="n">
@@ -14549,10 +14549,10 @@
       <c r="A411" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B411" s="0" t="n">
+      <c r="B411" s="1" t="n">
         <v>-1.98539577</v>
       </c>
-      <c r="C411" s="0" t="n">
+      <c r="C411" s="1" t="n">
         <v>0.786167593</v>
       </c>
       <c r="D411" s="1" t="n">
@@ -14570,10 +14570,10 @@
       <c r="A412" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B412" s="0" t="n">
+      <c r="B412" s="1" t="n">
         <v>-2.27952114</v>
       </c>
-      <c r="C412" s="0" t="n">
+      <c r="C412" s="1" t="n">
         <v>0.638594129</v>
       </c>
       <c r="D412" s="1" t="n">
@@ -14591,10 +14591,10 @@
       <c r="A413" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B413" s="0" t="n">
+      <c r="B413" s="1" t="n">
         <v>-2.27952117</v>
       </c>
-      <c r="C413" s="0" t="n">
+      <c r="C413" s="1" t="n">
         <v>0.638594132</v>
       </c>
       <c r="D413" s="1" t="n">
@@ -14612,10 +14612,10 @@
       <c r="A414" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B414" s="0" t="n">
+      <c r="B414" s="1" t="n">
         <v>-2.27952118</v>
       </c>
-      <c r="C414" s="0" t="n">
+      <c r="C414" s="1" t="n">
         <v>0.638594138</v>
       </c>
       <c r="D414" s="1" t="n">
@@ -14633,10 +14633,10 @@
       <c r="A415" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B415" s="0" t="n">
+      <c r="B415" s="1" t="n">
         <v>-2.27952114</v>
       </c>
-      <c r="C415" s="0" t="n">
+      <c r="C415" s="1" t="n">
         <v>0.638594111</v>
       </c>
       <c r="D415" s="1" t="n">
@@ -14654,10 +14654,10 @@
       <c r="A416" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B416" s="0" t="n">
+      <c r="B416" s="1" t="n">
         <v>-2.27952108</v>
       </c>
-      <c r="C416" s="0" t="n">
+      <c r="C416" s="1" t="n">
         <v>0.63859409</v>
       </c>
       <c r="D416" s="1" t="n">
@@ -14675,10 +14675,10 @@
       <c r="A417" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B417" s="0" t="n">
+      <c r="B417" s="1" t="n">
         <v>-2.5791278</v>
       </c>
-      <c r="C417" s="0" t="n">
+      <c r="C417" s="1" t="n">
         <v>0.864291967</v>
       </c>
       <c r="D417" s="1" t="n">
@@ -14696,10 +14696,10 @@
       <c r="A418" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B418" s="0" t="n">
+      <c r="B418" s="1" t="n">
         <v>-2.57912775</v>
       </c>
-      <c r="C418" s="0" t="n">
+      <c r="C418" s="1" t="n">
         <v>0.864291915</v>
       </c>
       <c r="D418" s="1" t="n">
@@ -14717,10 +14717,10 @@
       <c r="A419" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B419" s="0" t="n">
+      <c r="B419" s="1" t="n">
         <v>-2.57912777</v>
       </c>
-      <c r="C419" s="0" t="n">
+      <c r="C419" s="1" t="n">
         <v>0.864291936</v>
       </c>
       <c r="D419" s="1" t="n">
@@ -14738,10 +14738,10 @@
       <c r="A420" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B420" s="0" t="n">
+      <c r="B420" s="1" t="n">
         <v>-2.57912789</v>
       </c>
-      <c r="C420" s="0" t="n">
+      <c r="C420" s="1" t="n">
         <v>0.864291941</v>
       </c>
       <c r="D420" s="1" t="n">
@@ -14759,10 +14759,10 @@
       <c r="A421" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B421" s="0" t="n">
+      <c r="B421" s="1" t="n">
         <v>-2.57912776</v>
       </c>
-      <c r="C421" s="0" t="n">
+      <c r="C421" s="1" t="n">
         <v>0.864291946</v>
       </c>
       <c r="D421" s="1" t="n">
@@ -14780,10 +14780,10 @@
       <c r="A422" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B422" s="0" t="n">
+      <c r="B422" s="1" t="n">
         <v>-1.28726143</v>
       </c>
-      <c r="C422" s="0" t="n">
+      <c r="C422" s="1" t="n">
         <v>0.441366011</v>
       </c>
       <c r="D422" s="1" t="n">
@@ -14801,10 +14801,10 @@
       <c r="A423" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B423" s="0" t="n">
+      <c r="B423" s="1" t="n">
         <v>-1.28726136</v>
       </c>
-      <c r="C423" s="0" t="n">
+      <c r="C423" s="1" t="n">
         <v>0.441366035</v>
       </c>
       <c r="D423" s="1" t="n">
@@ -14822,10 +14822,10 @@
       <c r="A424" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B424" s="0" t="n">
+      <c r="B424" s="1" t="n">
         <v>-1.2872614</v>
       </c>
-      <c r="C424" s="0" t="n">
+      <c r="C424" s="1" t="n">
         <v>0.441366053</v>
       </c>
       <c r="D424" s="1" t="n">
@@ -14843,10 +14843,10 @@
       <c r="A425" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B425" s="0" t="n">
+      <c r="B425" s="1" t="n">
         <v>-1.2872614</v>
       </c>
-      <c r="C425" s="0" t="n">
+      <c r="C425" s="1" t="n">
         <v>0.441366023</v>
       </c>
       <c r="D425" s="1" t="n">
@@ -14864,10 +14864,10 @@
       <c r="A426" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B426" s="0" t="n">
+      <c r="B426" s="1" t="n">
         <v>-1.28726141</v>
       </c>
-      <c r="C426" s="0" t="n">
+      <c r="C426" s="1" t="n">
         <v>0.441366032</v>
       </c>
       <c r="D426" s="1" t="n">
@@ -14885,10 +14885,10 @@
       <c r="A427" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B427" s="0" t="n">
+      <c r="B427" s="1" t="n">
         <v>-1.5366605</v>
       </c>
-      <c r="C427" s="0" t="n">
+      <c r="C427" s="1" t="n">
         <v>0.575322749</v>
       </c>
       <c r="D427" s="1" t="n">
@@ -14906,10 +14906,10 @@
       <c r="A428" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B428" s="0" t="n">
+      <c r="B428" s="1" t="n">
         <v>-1.53666056</v>
       </c>
-      <c r="C428" s="0" t="n">
+      <c r="C428" s="1" t="n">
         <v>0.575322728</v>
       </c>
       <c r="D428" s="1" t="n">
@@ -14927,10 +14927,10 @@
       <c r="A429" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B429" s="0" t="n">
+      <c r="B429" s="1" t="n">
         <v>-1.53666047</v>
       </c>
-      <c r="C429" s="0" t="n">
+      <c r="C429" s="1" t="n">
         <v>0.57532272</v>
       </c>
       <c r="D429" s="1" t="n">
@@ -14948,10 +14948,10 @@
       <c r="A430" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B430" s="0" t="n">
+      <c r="B430" s="1" t="n">
         <v>-1.53666045</v>
       </c>
-      <c r="C430" s="0" t="n">
+      <c r="C430" s="1" t="n">
         <v>0.575322726</v>
       </c>
       <c r="D430" s="1" t="n">
@@ -14969,10 +14969,10 @@
       <c r="A431" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B431" s="0" t="n">
+      <c r="B431" s="1" t="n">
         <v>-1.53666049</v>
       </c>
-      <c r="C431" s="0" t="n">
+      <c r="C431" s="1" t="n">
         <v>0.57532275</v>
       </c>
       <c r="D431" s="1" t="n">
@@ -14990,10 +14990,10 @@
       <c r="A432" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B432" s="0" t="n">
+      <c r="B432" s="1" t="n">
         <v>-2.88727458</v>
       </c>
-      <c r="C432" s="0" t="n">
+      <c r="C432" s="1" t="n">
         <v>0.662772689</v>
       </c>
       <c r="D432" s="1" t="n">
@@ -15011,10 +15011,10 @@
       <c r="A433" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B433" s="0" t="n">
+      <c r="B433" s="1" t="n">
         <v>-2.88727454</v>
       </c>
-      <c r="C433" s="0" t="n">
+      <c r="C433" s="1" t="n">
         <v>0.662772681</v>
       </c>
       <c r="D433" s="1" t="n">
@@ -15032,10 +15032,10 @@
       <c r="A434" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B434" s="0" t="n">
+      <c r="B434" s="1" t="n">
         <v>-2.88727457</v>
       </c>
-      <c r="C434" s="0" t="n">
+      <c r="C434" s="1" t="n">
         <v>0.662772699</v>
       </c>
       <c r="D434" s="1" t="n">
@@ -15053,10 +15053,10 @@
       <c r="A435" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B435" s="0" t="n">
+      <c r="B435" s="1" t="n">
         <v>-2.88727457</v>
       </c>
-      <c r="C435" s="0" t="n">
+      <c r="C435" s="1" t="n">
         <v>0.66277271</v>
       </c>
       <c r="D435" s="1" t="n">
@@ -15074,10 +15074,10 @@
       <c r="A436" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B436" s="0" t="n">
+      <c r="B436" s="1" t="n">
         <v>-2.88727457</v>
       </c>
-      <c r="C436" s="0" t="n">
+      <c r="C436" s="1" t="n">
         <v>0.662772706</v>
       </c>
       <c r="D436" s="1" t="n">
@@ -15095,10 +15095,10 @@
       <c r="A437" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B437" s="0" t="n">
+      <c r="B437" s="1" t="n">
         <v>-1.2149198</v>
       </c>
-      <c r="C437" s="0" t="n">
+      <c r="C437" s="1" t="n">
         <v>0.611732622</v>
       </c>
       <c r="D437" s="1" t="n">
@@ -15116,10 +15116,10 @@
       <c r="A438" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B438" s="0" t="n">
+      <c r="B438" s="1" t="n">
         <v>-1.21491977</v>
       </c>
-      <c r="C438" s="0" t="n">
+      <c r="C438" s="1" t="n">
         <v>0.611732619</v>
       </c>
       <c r="D438" s="1" t="n">
@@ -15137,10 +15137,10 @@
       <c r="A439" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B439" s="0" t="n">
+      <c r="B439" s="1" t="n">
         <v>-1.21491973</v>
       </c>
-      <c r="C439" s="0" t="n">
+      <c r="C439" s="1" t="n">
         <v>0.611732619</v>
       </c>
       <c r="D439" s="1" t="n">
@@ -15158,10 +15158,10 @@
       <c r="A440" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B440" s="0" t="n">
+      <c r="B440" s="1" t="n">
         <v>-1.21491977</v>
       </c>
-      <c r="C440" s="0" t="n">
+      <c r="C440" s="1" t="n">
         <v>0.611732626</v>
       </c>
       <c r="D440" s="1" t="n">
@@ -15179,10 +15179,10 @@
       <c r="A441" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B441" s="0" t="n">
+      <c r="B441" s="1" t="n">
         <v>-1.21491976</v>
       </c>
-      <c r="C441" s="0" t="n">
+      <c r="C441" s="1" t="n">
         <v>0.611732638</v>
       </c>
       <c r="D441" s="1" t="n">
@@ -15200,10 +15200,10 @@
       <c r="A442" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B442" s="0" t="n">
+      <c r="B442" s="1" t="n">
         <v>-1.47085877</v>
       </c>
-      <c r="C442" s="0" t="n">
+      <c r="C442" s="1" t="n">
         <v>0.718891582</v>
       </c>
       <c r="D442" s="1" t="n">
@@ -15221,10 +15221,10 @@
       <c r="A443" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B443" s="0" t="n">
+      <c r="B443" s="1" t="n">
         <v>-1.47085871</v>
       </c>
-      <c r="C443" s="0" t="n">
+      <c r="C443" s="1" t="n">
         <v>0.718891579</v>
       </c>
       <c r="D443" s="1" t="n">
@@ -15242,10 +15242,10 @@
       <c r="A444" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B444" s="0" t="n">
+      <c r="B444" s="1" t="n">
         <v>-1.47085875</v>
       </c>
-      <c r="C444" s="0" t="n">
+      <c r="C444" s="1" t="n">
         <v>0.718891593</v>
       </c>
       <c r="D444" s="1" t="n">
@@ -15263,10 +15263,10 @@
       <c r="A445" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B445" s="0" t="n">
+      <c r="B445" s="1" t="n">
         <v>-1.47085866</v>
       </c>
-      <c r="C445" s="0" t="n">
+      <c r="C445" s="1" t="n">
         <v>0.718891543</v>
       </c>
       <c r="D445" s="1" t="n">
@@ -15284,10 +15284,10 @@
       <c r="A446" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B446" s="0" t="n">
+      <c r="B446" s="1" t="n">
         <v>-1.47085869</v>
       </c>
-      <c r="C446" s="0" t="n">
+      <c r="C446" s="1" t="n">
         <v>0.718891536</v>
       </c>
       <c r="D446" s="1" t="n">
@@ -15305,10 +15305,10 @@
       <c r="A447" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B447" s="0" t="n">
+      <c r="B447" s="1" t="n">
         <v>-1.82679456</v>
       </c>
-      <c r="C447" s="0" t="n">
+      <c r="C447" s="1" t="n">
         <v>0.836666314</v>
       </c>
       <c r="D447" s="1" t="n">
@@ -15326,10 +15326,10 @@
       <c r="A448" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B448" s="0" t="n">
+      <c r="B448" s="1" t="n">
         <v>-1.82679458</v>
       </c>
-      <c r="C448" s="0" t="n">
+      <c r="C448" s="1" t="n">
         <v>0.836666344</v>
       </c>
       <c r="D448" s="1" t="n">
@@ -15347,10 +15347,10 @@
       <c r="A449" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B449" s="0" t="n">
+      <c r="B449" s="1" t="n">
         <v>-1.82679458</v>
       </c>
-      <c r="C449" s="0" t="n">
+      <c r="C449" s="1" t="n">
         <v>0.83666633</v>
       </c>
       <c r="D449" s="1" t="n">
@@ -15368,10 +15368,10 @@
       <c r="A450" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B450" s="0" t="n">
+      <c r="B450" s="1" t="n">
         <v>-1.82679453</v>
       </c>
-      <c r="C450" s="0" t="n">
+      <c r="C450" s="1" t="n">
         <v>0.836666317</v>
       </c>
       <c r="D450" s="1" t="n">
@@ -15389,10 +15389,10 @@
       <c r="A451" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B451" s="0" t="n">
+      <c r="B451" s="1" t="n">
         <v>-1.82679453</v>
       </c>
-      <c r="C451" s="0" t="n">
+      <c r="C451" s="1" t="n">
         <v>0.836666297</v>
       </c>
       <c r="D451" s="1" t="n">
@@ -15410,10 +15410,10 @@
       <c r="A452" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B452" s="0" t="n">
+      <c r="B452" s="1" t="n">
         <v>-2.54160126</v>
       </c>
-      <c r="C452" s="0" t="n">
+      <c r="C452" s="1" t="n">
         <v>1.045103077</v>
       </c>
       <c r="D452" s="1" t="n">
@@ -15431,10 +15431,10 @@
       <c r="A453" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B453" s="0" t="n">
+      <c r="B453" s="1" t="n">
         <v>-2.54160111</v>
       </c>
-      <c r="C453" s="0" t="n">
+      <c r="C453" s="1" t="n">
         <v>1.045103081</v>
       </c>
       <c r="D453" s="1" t="n">
@@ -15452,10 +15452,10 @@
       <c r="A454" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B454" s="0" t="n">
+      <c r="B454" s="1" t="n">
         <v>-2.54160114</v>
       </c>
-      <c r="C454" s="0" t="n">
+      <c r="C454" s="1" t="n">
         <v>1.045103094</v>
       </c>
       <c r="D454" s="1" t="n">
@@ -15473,10 +15473,10 @@
       <c r="A455" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B455" s="0" t="n">
+      <c r="B455" s="1" t="n">
         <v>-2.54160111</v>
       </c>
-      <c r="C455" s="0" t="n">
+      <c r="C455" s="1" t="n">
         <v>1.045103036</v>
       </c>
       <c r="D455" s="1" t="n">
@@ -15494,10 +15494,10 @@
       <c r="A456" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B456" s="0" t="n">
+      <c r="B456" s="1" t="n">
         <v>-2.54160123</v>
       </c>
-      <c r="C456" s="0" t="n">
+      <c r="C456" s="1" t="n">
         <v>1.045103044</v>
       </c>
       <c r="D456" s="1" t="n">
@@ -15515,10 +15515,10 @@
       <c r="A457" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B457" s="0" t="n">
+      <c r="B457" s="1" t="n">
         <v>-2.74314361</v>
       </c>
-      <c r="C457" s="0" t="n">
+      <c r="C457" s="1" t="n">
         <v>1.08338879</v>
       </c>
       <c r="D457" s="1" t="n">
@@ -15536,10 +15536,10 @@
       <c r="A458" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B458" s="0" t="n">
+      <c r="B458" s="1" t="n">
         <v>-2.74314358</v>
       </c>
-      <c r="C458" s="0" t="n">
+      <c r="C458" s="1" t="n">
         <v>1.08338879</v>
       </c>
       <c r="D458" s="1" t="n">
@@ -15557,10 +15557,10 @@
       <c r="A459" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B459" s="0" t="n">
+      <c r="B459" s="1" t="n">
         <v>-2.74314345</v>
       </c>
-      <c r="C459" s="0" t="n">
+      <c r="C459" s="1" t="n">
         <v>1.08338879</v>
       </c>
       <c r="D459" s="1" t="n">
@@ -15578,10 +15578,10 @@
       <c r="A460" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B460" s="0" t="n">
+      <c r="B460" s="1" t="n">
         <v>-2.74314351</v>
       </c>
-      <c r="C460" s="0" t="n">
+      <c r="C460" s="1" t="n">
         <v>1.083388826</v>
       </c>
       <c r="D460" s="1" t="n">
@@ -15599,10 +15599,10 @@
       <c r="A461" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B461" s="0" t="n">
+      <c r="B461" s="1" t="n">
         <v>-2.74314356</v>
       </c>
-      <c r="C461" s="0" t="n">
+      <c r="C461" s="1" t="n">
         <v>1.083388796</v>
       </c>
       <c r="D461" s="1" t="n">
@@ -15620,10 +15620,10 @@
       <c r="A462" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B462" s="0" t="n">
+      <c r="B462" s="1" t="n">
         <v>-1.57275052</v>
       </c>
-      <c r="C462" s="0" t="n">
+      <c r="C462" s="1" t="n">
         <v>0.885943556</v>
       </c>
       <c r="D462" s="1" t="n">
@@ -15641,10 +15641,10 @@
       <c r="A463" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B463" s="0" t="n">
+      <c r="B463" s="1" t="n">
         <v>-1.57275056</v>
       </c>
-      <c r="C463" s="0" t="n">
+      <c r="C463" s="1" t="n">
         <v>0.885943513</v>
       </c>
       <c r="D463" s="1" t="n">
@@ -15662,10 +15662,10 @@
       <c r="A464" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B464" s="0" t="n">
+      <c r="B464" s="1" t="n">
         <v>-1.57275053</v>
       </c>
-      <c r="C464" s="0" t="n">
+      <c r="C464" s="1" t="n">
         <v>0.885943526</v>
       </c>
       <c r="D464" s="1" t="n">
@@ -15683,10 +15683,10 @@
       <c r="A465" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B465" s="0" t="n">
+      <c r="B465" s="1" t="n">
         <v>-1.57275055</v>
       </c>
-      <c r="C465" s="0" t="n">
+      <c r="C465" s="1" t="n">
         <v>0.885943519</v>
       </c>
       <c r="D465" s="1" t="n">
@@ -15704,10 +15704,10 @@
       <c r="A466" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B466" s="0" t="n">
+      <c r="B466" s="1" t="n">
         <v>-1.57275052</v>
       </c>
-      <c r="C466" s="0" t="n">
+      <c r="C466" s="1" t="n">
         <v>0.885943513</v>
       </c>
       <c r="D466" s="1" t="n">
@@ -15725,10 +15725,10 @@
       <c r="A467" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B467" s="0" t="n">
+      <c r="B467" s="1" t="n">
         <v>-0.636526187</v>
       </c>
-      <c r="C467" s="0" t="n">
+      <c r="C467" s="1" t="n">
         <v>0.545557699</v>
       </c>
       <c r="D467" s="1" t="n">
@@ -15746,10 +15746,10 @@
       <c r="A468" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B468" s="0" t="n">
+      <c r="B468" s="1" t="n">
         <v>-0.6365262</v>
       </c>
-      <c r="C468" s="0" t="n">
+      <c r="C468" s="1" t="n">
         <v>0.545557704</v>
       </c>
       <c r="D468" s="1" t="n">
@@ -15767,10 +15767,10 @@
       <c r="A469" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B469" s="0" t="n">
+      <c r="B469" s="1" t="n">
         <v>-0.636526215</v>
       </c>
-      <c r="C469" s="0" t="n">
+      <c r="C469" s="1" t="n">
         <v>0.54555771</v>
       </c>
       <c r="D469" s="1" t="n">
@@ -15788,10 +15788,10 @@
       <c r="A470" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B470" s="0" t="n">
+      <c r="B470" s="1" t="n">
         <v>-0.636526192</v>
       </c>
-      <c r="C470" s="0" t="n">
+      <c r="C470" s="1" t="n">
         <v>0.545557694</v>
       </c>
       <c r="D470" s="1" t="n">
@@ -15809,10 +15809,10 @@
       <c r="A471" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B471" s="0" t="n">
+      <c r="B471" s="1" t="n">
         <v>-0.636526204</v>
       </c>
-      <c r="C471" s="0" t="n">
+      <c r="C471" s="1" t="n">
         <v>0.545557718</v>
       </c>
       <c r="D471" s="1" t="n">
@@ -15830,10 +15830,10 @@
       <c r="A472" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B472" s="0" t="n">
+      <c r="B472" s="1" t="n">
         <v>-2.56245539</v>
       </c>
-      <c r="C472" s="0" t="n">
+      <c r="C472" s="1" t="n">
         <v>0.945027165</v>
       </c>
       <c r="D472" s="1" t="n">
@@ -15851,10 +15851,10 @@
       <c r="A473" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B473" s="0" t="n">
+      <c r="B473" s="1" t="n">
         <v>-2.56245541</v>
       </c>
-      <c r="C473" s="0" t="n">
+      <c r="C473" s="1" t="n">
         <v>0.945027138</v>
       </c>
       <c r="D473" s="1" t="n">
@@ -15872,10 +15872,10 @@
       <c r="A474" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B474" s="0" t="n">
+      <c r="B474" s="1" t="n">
         <v>-2.56245553</v>
       </c>
-      <c r="C474" s="0" t="n">
+      <c r="C474" s="1" t="n">
         <v>0.945027165</v>
       </c>
       <c r="D474" s="1" t="n">
@@ -15893,10 +15893,10 @@
       <c r="A475" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B475" s="0" t="n">
+      <c r="B475" s="1" t="n">
         <v>-2.56245544</v>
       </c>
-      <c r="C475" s="0" t="n">
+      <c r="C475" s="1" t="n">
         <v>0.945027157</v>
       </c>
       <c r="D475" s="1" t="n">
@@ -15914,10 +15914,10 @@
       <c r="A476" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B476" s="0" t="n">
+      <c r="B476" s="1" t="n">
         <v>-2.56245543</v>
       </c>
-      <c r="C476" s="0" t="n">
+      <c r="C476" s="1" t="n">
         <v>0.945027133</v>
       </c>
       <c r="D476" s="1" t="n">
@@ -15935,10 +15935,10 @@
       <c r="A477" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B477" s="0" t="n">
+      <c r="B477" s="1" t="n">
         <v>-1.75266154</v>
       </c>
-      <c r="C477" s="0" t="n">
+      <c r="C477" s="1" t="n">
         <v>0.88703343</v>
       </c>
       <c r="D477" s="1" t="n">
@@ -15956,10 +15956,10 @@
       <c r="A478" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B478" s="0" t="n">
+      <c r="B478" s="1" t="n">
         <v>-1.7526615</v>
       </c>
-      <c r="C478" s="0" t="n">
+      <c r="C478" s="1" t="n">
         <v>0.887033474</v>
       </c>
       <c r="D478" s="1" t="n">
@@ -15977,10 +15977,10 @@
       <c r="A479" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B479" s="0" t="n">
+      <c r="B479" s="1" t="n">
         <v>-1.7526615</v>
       </c>
-      <c r="C479" s="0" t="n">
+      <c r="C479" s="1" t="n">
         <v>0.887033477</v>
       </c>
       <c r="D479" s="1" t="n">
@@ -15998,10 +15998,10 @@
       <c r="A480" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B480" s="0" t="n">
+      <c r="B480" s="1" t="n">
         <v>-1.75266153</v>
       </c>
-      <c r="C480" s="0" t="n">
+      <c r="C480" s="1" t="n">
         <v>0.88703344</v>
       </c>
       <c r="D480" s="1" t="n">
@@ -16019,10 +16019,10 @@
       <c r="A481" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B481" s="0" t="n">
+      <c r="B481" s="1" t="n">
         <v>-1.75266159</v>
       </c>
-      <c r="C481" s="0" t="n">
+      <c r="C481" s="1" t="n">
         <v>0.887033457</v>
       </c>
       <c r="D481" s="1" t="n">
@@ -16040,10 +16040,10 @@
       <c r="A482" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B482" s="0" t="n">
+      <c r="B482" s="1" t="n">
         <v>-1.59649628</v>
       </c>
-      <c r="C482" s="0" t="n">
+      <c r="C482" s="1" t="n">
         <v>0.691603337</v>
       </c>
       <c r="D482" s="1" t="n">
@@ -16061,10 +16061,10 @@
       <c r="A483" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B483" s="0" t="n">
+      <c r="B483" s="1" t="n">
         <v>-1.59649629</v>
       </c>
-      <c r="C483" s="0" t="n">
+      <c r="C483" s="1" t="n">
         <v>0.691603337</v>
       </c>
       <c r="D483" s="1" t="n">
@@ -16082,10 +16082,10 @@
       <c r="A484" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B484" s="0" t="n">
+      <c r="B484" s="1" t="n">
         <v>-1.59649637</v>
       </c>
-      <c r="C484" s="0" t="n">
+      <c r="C484" s="1" t="n">
         <v>0.691603367</v>
       </c>
       <c r="D484" s="1" t="n">
@@ -16103,10 +16103,10 @@
       <c r="A485" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B485" s="0" t="n">
+      <c r="B485" s="1" t="n">
         <v>-1.59649622</v>
       </c>
-      <c r="C485" s="0" t="n">
+      <c r="C485" s="1" t="n">
         <v>0.691603357</v>
       </c>
       <c r="D485" s="1" t="n">
@@ -16124,10 +16124,10 @@
       <c r="A486" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B486" s="0" t="n">
+      <c r="B486" s="1" t="n">
         <v>-1.59649627</v>
       </c>
-      <c r="C486" s="0" t="n">
+      <c r="C486" s="1" t="n">
         <v>0.69160336</v>
       </c>
       <c r="D486" s="1" t="n">
@@ -16145,10 +16145,10 @@
       <c r="A487" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B487" s="0" t="n">
+      <c r="B487" s="1" t="n">
         <v>-2.76642544</v>
       </c>
-      <c r="C487" s="0" t="n">
+      <c r="C487" s="1" t="n">
         <v>0.795941284</v>
       </c>
       <c r="D487" s="1" t="n">
@@ -16166,10 +16166,10 @@
       <c r="A488" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B488" s="0" t="n">
+      <c r="B488" s="1" t="n">
         <v>-2.76642541</v>
       </c>
-      <c r="C488" s="0" t="n">
+      <c r="C488" s="1" t="n">
         <v>0.795941242</v>
       </c>
       <c r="D488" s="1" t="n">
@@ -16187,10 +16187,10 @@
       <c r="A489" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B489" s="0" t="n">
+      <c r="B489" s="1" t="n">
         <v>-2.76642535</v>
       </c>
-      <c r="C489" s="0" t="n">
+      <c r="C489" s="1" t="n">
         <v>0.795941229</v>
       </c>
       <c r="D489" s="1" t="n">
@@ -16208,10 +16208,10 @@
       <c r="A490" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B490" s="0" t="n">
+      <c r="B490" s="1" t="n">
         <v>-2.7664253</v>
       </c>
-      <c r="C490" s="0" t="n">
+      <c r="C490" s="1" t="n">
         <v>0.795941223</v>
       </c>
       <c r="D490" s="1" t="n">
@@ -16229,10 +16229,10 @@
       <c r="A491" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B491" s="0" t="n">
+      <c r="B491" s="1" t="n">
         <v>-2.76642534</v>
       </c>
-      <c r="C491" s="0" t="n">
+      <c r="C491" s="1" t="n">
         <v>0.795941231</v>
       </c>
       <c r="D491" s="1" t="n">
@@ -16250,10 +16250,10 @@
       <c r="A492" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B492" s="0" t="n">
+      <c r="B492" s="1" t="n">
         <v>-2.0461341</v>
       </c>
-      <c r="C492" s="0" t="n">
+      <c r="C492" s="1" t="n">
         <v>0.659786548</v>
       </c>
       <c r="D492" s="1" t="n">
@@ -16271,10 +16271,10 @@
       <c r="A493" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B493" s="0" t="n">
+      <c r="B493" s="1" t="n">
         <v>-2.04613411</v>
       </c>
-      <c r="C493" s="0" t="n">
+      <c r="C493" s="1" t="n">
         <v>0.659786583</v>
       </c>
       <c r="D493" s="1" t="n">
@@ -16292,10 +16292,10 @@
       <c r="A494" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B494" s="0" t="n">
+      <c r="B494" s="1" t="n">
         <v>-2.04613407</v>
       </c>
-      <c r="C494" s="0" t="n">
+      <c r="C494" s="1" t="n">
         <v>0.659786574</v>
       </c>
       <c r="D494" s="1" t="n">
@@ -16313,10 +16313,10 @@
       <c r="A495" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B495" s="0" t="n">
+      <c r="B495" s="1" t="n">
         <v>-2.04613415</v>
       </c>
-      <c r="C495" s="0" t="n">
+      <c r="C495" s="1" t="n">
         <v>0.659786556</v>
       </c>
       <c r="D495" s="1" t="n">
@@ -16334,10 +16334,10 @@
       <c r="A496" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B496" s="0" t="n">
+      <c r="B496" s="1" t="n">
         <v>-2.04613412</v>
       </c>
-      <c r="C496" s="0" t="n">
+      <c r="C496" s="1" t="n">
         <v>0.659786568</v>
       </c>
       <c r="D496" s="1" t="n">
@@ -16355,10 +16355,10 @@
       <c r="A497" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B497" s="0" t="n">
+      <c r="B497" s="1" t="n">
         <v>-1.026901677</v>
       </c>
-      <c r="C497" s="0" t="n">
+      <c r="C497" s="1" t="n">
         <v>0.717883311</v>
       </c>
       <c r="D497" s="1" t="n">
@@ -16376,10 +16376,10 @@
       <c r="A498" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B498" s="0" t="n">
+      <c r="B498" s="1" t="n">
         <v>-1.026901692</v>
       </c>
-      <c r="C498" s="0" t="n">
+      <c r="C498" s="1" t="n">
         <v>0.717883315</v>
       </c>
       <c r="D498" s="1" t="n">
@@ -16397,10 +16397,10 @@
       <c r="A499" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B499" s="0" t="n">
+      <c r="B499" s="1" t="n">
         <v>-1.026901637</v>
       </c>
-      <c r="C499" s="0" t="n">
+      <c r="C499" s="1" t="n">
         <v>0.717883312</v>
       </c>
       <c r="D499" s="1" t="n">
@@ -16418,10 +16418,10 @@
       <c r="A500" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B500" s="0" t="n">
+      <c r="B500" s="1" t="n">
         <v>-1.026901667</v>
       </c>
-      <c r="C500" s="0" t="n">
+      <c r="C500" s="1" t="n">
         <v>0.717883335</v>
       </c>
       <c r="D500" s="1" t="n">
@@ -16439,10 +16439,10 @@
       <c r="A501" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B501" s="0" t="n">
+      <c r="B501" s="1" t="n">
         <v>-1.026901637</v>
       </c>
-      <c r="C501" s="0" t="n">
+      <c r="C501" s="1" t="n">
         <v>0.717883313</v>
       </c>
       <c r="D501" s="1" t="n">
@@ -16460,10 +16460,10 @@
       <c r="A502" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B502" s="0" t="n">
+      <c r="B502" s="1" t="n">
         <v>-1.71097735</v>
       </c>
-      <c r="C502" s="0" t="n">
+      <c r="C502" s="1" t="n">
         <v>0.849963699</v>
       </c>
       <c r="D502" s="1" t="n">
@@ -16481,10 +16481,10 @@
       <c r="A503" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B503" s="0" t="n">
+      <c r="B503" s="1" t="n">
         <v>-1.71097732</v>
       </c>
-      <c r="C503" s="0" t="n">
+      <c r="C503" s="1" t="n">
         <v>0.849963734</v>
       </c>
       <c r="D503" s="1" t="n">
@@ -16502,10 +16502,10 @@
       <c r="A504" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B504" s="0" t="n">
+      <c r="B504" s="1" t="n">
         <v>-1.71097737</v>
       </c>
-      <c r="C504" s="0" t="n">
+      <c r="C504" s="1" t="n">
         <v>0.849963746</v>
       </c>
       <c r="D504" s="1" t="n">
@@ -16523,10 +16523,10 @@
       <c r="A505" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B505" s="0" t="n">
+      <c r="B505" s="1" t="n">
         <v>-1.71097734</v>
       </c>
-      <c r="C505" s="0" t="n">
+      <c r="C505" s="1" t="n">
         <v>0.849963703</v>
       </c>
       <c r="D505" s="1" t="n">
@@ -16544,10 +16544,10 @@
       <c r="A506" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B506" s="0" t="n">
+      <c r="B506" s="1" t="n">
         <v>-1.71097733</v>
       </c>
-      <c r="C506" s="0" t="n">
+      <c r="C506" s="1" t="n">
         <v>0.849963736</v>
       </c>
       <c r="D506" s="1" t="n">
@@ -16565,10 +16565,10 @@
       <c r="A507" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B507" s="0" t="n">
+      <c r="B507" s="1" t="n">
         <v>-2.19524859</v>
       </c>
-      <c r="C507" s="0" t="n">
+      <c r="C507" s="1" t="n">
         <v>0.896645175</v>
       </c>
       <c r="D507" s="1" t="n">
@@ -16586,10 +16586,10 @@
       <c r="A508" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B508" s="0" t="n">
+      <c r="B508" s="1" t="n">
         <v>-2.1952486</v>
       </c>
-      <c r="C508" s="0" t="n">
+      <c r="C508" s="1" t="n">
         <v>0.896645189</v>
       </c>
       <c r="D508" s="1" t="n">
@@ -16607,10 +16607,10 @@
       <c r="A509" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B509" s="0" t="n">
+      <c r="B509" s="1" t="n">
         <v>-2.19524854</v>
       </c>
-      <c r="C509" s="0" t="n">
+      <c r="C509" s="1" t="n">
         <v>0.896645167</v>
       </c>
       <c r="D509" s="1" t="n">
@@ -16628,10 +16628,10 @@
       <c r="A510" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B510" s="0" t="n">
+      <c r="B510" s="1" t="n">
         <v>-2.19524858</v>
       </c>
-      <c r="C510" s="0" t="n">
+      <c r="C510" s="1" t="n">
         <v>0.896645135</v>
       </c>
       <c r="D510" s="1" t="n">
@@ -16649,10 +16649,10 @@
       <c r="A511" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B511" s="0" t="n">
+      <c r="B511" s="1" t="n">
         <v>-2.1952486</v>
       </c>
-      <c r="C511" s="0" t="n">
+      <c r="C511" s="1" t="n">
         <v>0.896645152</v>
       </c>
       <c r="D511" s="1" t="n">
@@ -16670,10 +16670,10 @@
       <c r="A512" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B512" s="0" t="n">
+      <c r="B512" s="1" t="n">
         <v>-2.40010952</v>
       </c>
-      <c r="C512" s="0" t="n">
+      <c r="C512" s="1" t="n">
         <v>0.969122953</v>
       </c>
       <c r="D512" s="1" t="n">
@@ -16691,10 +16691,10 @@
       <c r="A513" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B513" s="0" t="n">
+      <c r="B513" s="1" t="n">
         <v>-2.40010948</v>
       </c>
-      <c r="C513" s="0" t="n">
+      <c r="C513" s="1" t="n">
         <v>0.969122987</v>
       </c>
       <c r="D513" s="1" t="n">
@@ -16712,10 +16712,10 @@
       <c r="A514" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B514" s="0" t="n">
+      <c r="B514" s="1" t="n">
         <v>-2.40010951</v>
       </c>
-      <c r="C514" s="0" t="n">
+      <c r="C514" s="1" t="n">
         <v>0.96912298</v>
       </c>
       <c r="D514" s="1" t="n">
@@ -16733,10 +16733,10 @@
       <c r="A515" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B515" s="0" t="n">
+      <c r="B515" s="1" t="n">
         <v>-2.40010956</v>
       </c>
-      <c r="C515" s="0" t="n">
+      <c r="C515" s="1" t="n">
         <v>0.96912301</v>
       </c>
       <c r="D515" s="1" t="n">
@@ -16754,10 +16754,10 @@
       <c r="A516" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B516" s="0" t="n">
+      <c r="B516" s="1" t="n">
         <v>-2.40010959</v>
       </c>
-      <c r="C516" s="0" t="n">
+      <c r="C516" s="1" t="n">
         <v>0.969122979</v>
       </c>
       <c r="D516" s="1" t="n">
@@ -16775,10 +16775,10 @@
       <c r="A517" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B517" s="0" t="n">
+      <c r="B517" s="1" t="n">
         <v>-2.31919667</v>
       </c>
-      <c r="C517" s="0" t="n">
+      <c r="C517" s="1" t="n">
         <v>0.805353098</v>
       </c>
       <c r="D517" s="1" t="n">
@@ -16796,10 +16796,10 @@
       <c r="A518" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B518" s="0" t="n">
+      <c r="B518" s="1" t="n">
         <v>-2.31919665</v>
       </c>
-      <c r="C518" s="0" t="n">
+      <c r="C518" s="1" t="n">
         <v>0.805353122</v>
       </c>
       <c r="D518" s="1" t="n">
@@ -16817,10 +16817,10 @@
       <c r="A519" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B519" s="0" t="n">
+      <c r="B519" s="1" t="n">
         <v>-2.31919671</v>
       </c>
-      <c r="C519" s="0" t="n">
+      <c r="C519" s="1" t="n">
         <v>0.805353095</v>
       </c>
       <c r="D519" s="1" t="n">
@@ -16838,10 +16838,10 @@
       <c r="A520" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B520" s="0" t="n">
+      <c r="B520" s="1" t="n">
         <v>-2.31919664</v>
       </c>
-      <c r="C520" s="0" t="n">
+      <c r="C520" s="1" t="n">
         <v>0.805353083</v>
       </c>
       <c r="D520" s="1" t="n">
@@ -16859,10 +16859,10 @@
       <c r="A521" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B521" s="0" t="n">
+      <c r="B521" s="1" t="n">
         <v>-2.31919667</v>
       </c>
-      <c r="C521" s="0" t="n">
+      <c r="C521" s="1" t="n">
         <v>0.805353106</v>
       </c>
       <c r="D521" s="1" t="n">
@@ -16880,10 +16880,10 @@
       <c r="A522" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B522" s="0" t="n">
+      <c r="B522" s="1" t="n">
         <v>-2.26586573</v>
       </c>
-      <c r="C522" s="0" t="n">
+      <c r="C522" s="1" t="n">
         <v>0.754803596</v>
       </c>
       <c r="D522" s="1" t="n">
@@ -16901,10 +16901,10 @@
       <c r="A523" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B523" s="0" t="n">
+      <c r="B523" s="1" t="n">
         <v>-2.26586579</v>
       </c>
-      <c r="C523" s="0" t="n">
+      <c r="C523" s="1" t="n">
         <v>0.75480359</v>
       </c>
       <c r="D523" s="1" t="n">
@@ -16922,10 +16922,10 @@
       <c r="A524" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B524" s="0" t="n">
+      <c r="B524" s="1" t="n">
         <v>-2.26586575</v>
       </c>
-      <c r="C524" s="0" t="n">
+      <c r="C524" s="1" t="n">
         <v>0.754803573</v>
       </c>
       <c r="D524" s="1" t="n">
@@ -16943,10 +16943,10 @@
       <c r="A525" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B525" s="0" t="n">
+      <c r="B525" s="1" t="n">
         <v>-2.26586572</v>
       </c>
-      <c r="C525" s="0" t="n">
+      <c r="C525" s="1" t="n">
         <v>0.754803593</v>
       </c>
       <c r="D525" s="1" t="n">
@@ -16964,10 +16964,10 @@
       <c r="A526" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B526" s="0" t="n">
+      <c r="B526" s="1" t="n">
         <v>-2.26586577</v>
       </c>
-      <c r="C526" s="0" t="n">
+      <c r="C526" s="1" t="n">
         <v>0.754803595</v>
       </c>
       <c r="D526" s="1" t="n">
@@ -16985,10 +16985,10 @@
       <c r="A527" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B527" s="0" t="n">
+      <c r="B527" s="1" t="n">
         <v>-2.30510434</v>
       </c>
-      <c r="C527" s="0" t="n">
+      <c r="C527" s="1" t="n">
         <v>0.622912849</v>
       </c>
       <c r="D527" s="1" t="n">
@@ -17006,10 +17006,10 @@
       <c r="A528" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B528" s="0" t="n">
+      <c r="B528" s="1" t="n">
         <v>-2.30510434</v>
       </c>
-      <c r="C528" s="0" t="n">
+      <c r="C528" s="1" t="n">
         <v>0.622912833</v>
       </c>
       <c r="D528" s="1" t="n">
@@ -17027,10 +17027,10 @@
       <c r="A529" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B529" s="0" t="n">
+      <c r="B529" s="1" t="n">
         <v>-2.30510433</v>
       </c>
-      <c r="C529" s="0" t="n">
+      <c r="C529" s="1" t="n">
         <v>0.622912847</v>
       </c>
       <c r="D529" s="1" t="n">
@@ -17048,10 +17048,10 @@
       <c r="A530" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B530" s="0" t="n">
+      <c r="B530" s="1" t="n">
         <v>-2.3051043</v>
       </c>
-      <c r="C530" s="0" t="n">
+      <c r="C530" s="1" t="n">
         <v>0.622912847</v>
       </c>
       <c r="D530" s="1" t="n">
@@ -17069,10 +17069,10 @@
       <c r="A531" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B531" s="0" t="n">
+      <c r="B531" s="1" t="n">
         <v>-2.30510434</v>
       </c>
-      <c r="C531" s="0" t="n">
+      <c r="C531" s="1" t="n">
         <v>0.622912849</v>
       </c>
       <c r="D531" s="1" t="n">
@@ -17090,10 +17090,10 @@
       <c r="A532" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B532" s="0" t="n">
+      <c r="B532" s="1" t="n">
         <v>-2.51518166</v>
       </c>
-      <c r="C532" s="0" t="n">
+      <c r="C532" s="1" t="n">
         <v>0.640524685</v>
       </c>
       <c r="D532" s="1" t="n">
@@ -17111,10 +17111,10 @@
       <c r="A533" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B533" s="0" t="n">
+      <c r="B533" s="1" t="n">
         <v>-2.51518174</v>
       </c>
-      <c r="C533" s="0" t="n">
+      <c r="C533" s="1" t="n">
         <v>0.640524695</v>
       </c>
       <c r="D533" s="1" t="n">
@@ -17132,10 +17132,10 @@
       <c r="A534" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B534" s="0" t="n">
+      <c r="B534" s="1" t="n">
         <v>-2.51518166</v>
       </c>
-      <c r="C534" s="0" t="n">
+      <c r="C534" s="1" t="n">
         <v>0.640524648</v>
       </c>
       <c r="D534" s="1" t="n">
@@ -17153,10 +17153,10 @@
       <c r="A535" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B535" s="0" t="n">
+      <c r="B535" s="1" t="n">
         <v>-2.51518181</v>
       </c>
-      <c r="C535" s="0" t="n">
+      <c r="C535" s="1" t="n">
         <v>0.640524706</v>
       </c>
       <c r="D535" s="1" t="n">
@@ -17174,10 +17174,10 @@
       <c r="A536" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B536" s="0" t="n">
+      <c r="B536" s="1" t="n">
         <v>-2.5151817</v>
       </c>
-      <c r="C536" s="0" t="n">
+      <c r="C536" s="1" t="n">
         <v>0.640524675</v>
       </c>
       <c r="D536" s="1" t="n">
@@ -17195,10 +17195,10 @@
       <c r="A537" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B537" s="0" t="n">
+      <c r="B537" s="1" t="n">
         <v>-3.73307374</v>
       </c>
-      <c r="C537" s="0" t="n">
+      <c r="C537" s="1" t="n">
         <v>1.0941238</v>
       </c>
       <c r="D537" s="1" t="n">
@@ -17216,10 +17216,10 @@
       <c r="A538" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B538" s="0" t="n">
+      <c r="B538" s="1" t="n">
         <v>-3.73307361</v>
       </c>
-      <c r="C538" s="0" t="n">
+      <c r="C538" s="1" t="n">
         <v>1.09412382</v>
       </c>
       <c r="D538" s="1" t="n">
@@ -17237,10 +17237,10 @@
       <c r="A539" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B539" s="0" t="n">
+      <c r="B539" s="1" t="n">
         <v>-3.73307372</v>
       </c>
-      <c r="C539" s="0" t="n">
+      <c r="C539" s="1" t="n">
         <v>1.094123874</v>
       </c>
       <c r="D539" s="1" t="n">
@@ -17258,10 +17258,10 @@
       <c r="A540" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B540" s="0" t="n">
+      <c r="B540" s="1" t="n">
         <v>-3.73307373</v>
       </c>
-      <c r="C540" s="0" t="n">
+      <c r="C540" s="1" t="n">
         <v>1.094123856</v>
       </c>
       <c r="D540" s="1" t="n">
@@ -17279,10 +17279,10 @@
       <c r="A541" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B541" s="0" t="n">
+      <c r="B541" s="1" t="n">
         <v>-3.73307353</v>
       </c>
-      <c r="C541" s="0" t="n">
+      <c r="C541" s="1" t="n">
         <v>1.094123814</v>
       </c>
       <c r="D541" s="1" t="n">
@@ -17300,10 +17300,10 @@
       <c r="A542" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B542" s="0" t="n">
+      <c r="B542" s="1" t="n">
         <v>-1.90052222</v>
       </c>
-      <c r="C542" s="0" t="n">
+      <c r="C542" s="1" t="n">
         <v>0.783170335</v>
       </c>
       <c r="D542" s="1" t="n">
@@ -17321,10 +17321,10 @@
       <c r="A543" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B543" s="0" t="n">
+      <c r="B543" s="1" t="n">
         <v>-1.90052214</v>
       </c>
-      <c r="C543" s="0" t="n">
+      <c r="C543" s="1" t="n">
         <v>0.783170321</v>
       </c>
       <c r="D543" s="1" t="n">
@@ -17342,10 +17342,10 @@
       <c r="A544" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B544" s="0" t="n">
+      <c r="B544" s="1" t="n">
         <v>-1.90052215</v>
       </c>
-      <c r="C544" s="0" t="n">
+      <c r="C544" s="1" t="n">
         <v>0.783170311</v>
       </c>
       <c r="D544" s="1" t="n">
@@ -17363,10 +17363,10 @@
       <c r="A545" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B545" s="0" t="n">
+      <c r="B545" s="1" t="n">
         <v>-1.90052214</v>
       </c>
-      <c r="C545" s="0" t="n">
+      <c r="C545" s="1" t="n">
         <v>0.783170331</v>
       </c>
       <c r="D545" s="1" t="n">
@@ -17384,10 +17384,10 @@
       <c r="A546" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B546" s="0" t="n">
+      <c r="B546" s="1" t="n">
         <v>-1.90052212</v>
       </c>
-      <c r="C546" s="0" t="n">
+      <c r="C546" s="1" t="n">
         <v>0.783170341</v>
       </c>
       <c r="D546" s="1" t="n">
@@ -17405,10 +17405,10 @@
       <c r="A547" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B547" s="0" t="n">
+      <c r="B547" s="1" t="n">
         <v>-3.09327352</v>
       </c>
-      <c r="C547" s="0" t="n">
+      <c r="C547" s="1" t="n">
         <v>0.767442947</v>
       </c>
       <c r="D547" s="1" t="n">
@@ -17426,10 +17426,10 @@
       <c r="A548" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B548" s="0" t="n">
+      <c r="B548" s="1" t="n">
         <v>-3.0932736</v>
       </c>
-      <c r="C548" s="0" t="n">
+      <c r="C548" s="1" t="n">
         <v>0.767442986</v>
       </c>
       <c r="D548" s="1" t="n">
@@ -17447,10 +17447,10 @@
       <c r="A549" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B549" s="0" t="n">
+      <c r="B549" s="1" t="n">
         <v>-3.09327359</v>
       </c>
-      <c r="C549" s="0" t="n">
+      <c r="C549" s="1" t="n">
         <v>0.767442952</v>
       </c>
       <c r="D549" s="1" t="n">
@@ -17468,10 +17468,10 @@
       <c r="A550" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B550" s="0" t="n">
+      <c r="B550" s="1" t="n">
         <v>-3.09327359</v>
       </c>
-      <c r="C550" s="0" t="n">
+      <c r="C550" s="1" t="n">
         <v>0.767442956</v>
       </c>
       <c r="D550" s="1" t="n">
@@ -17489,10 +17489,10 @@
       <c r="A551" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B551" s="0" t="n">
+      <c r="B551" s="1" t="n">
         <v>-3.0932735</v>
       </c>
-      <c r="C551" s="0" t="n">
+      <c r="C551" s="1" t="n">
         <v>0.767442937</v>
       </c>
       <c r="D551" s="1" t="n">
@@ -17510,10 +17510,10 @@
       <c r="A552" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B552" s="0" t="n">
+      <c r="B552" s="1" t="n">
         <v>-1.3163201</v>
       </c>
-      <c r="C552" s="0" t="n">
+      <c r="C552" s="1" t="n">
         <v>0.801700625</v>
       </c>
       <c r="D552" s="1" t="n">
@@ -17531,10 +17531,10 @@
       <c r="A553" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B553" s="0" t="n">
+      <c r="B553" s="1" t="n">
         <v>-1.3163201</v>
       </c>
-      <c r="C553" s="0" t="n">
+      <c r="C553" s="1" t="n">
         <v>0.801700603</v>
       </c>
       <c r="D553" s="1" t="n">
@@ -17552,10 +17552,10 @@
       <c r="A554" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B554" s="0" t="n">
+      <c r="B554" s="1" t="n">
         <v>-1.31632004</v>
       </c>
-      <c r="C554" s="0" t="n">
+      <c r="C554" s="1" t="n">
         <v>0.801700573</v>
       </c>
       <c r="D554" s="1" t="n">
@@ -17573,10 +17573,10 @@
       <c r="A555" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B555" s="0" t="n">
+      <c r="B555" s="1" t="n">
         <v>-1.31632013</v>
       </c>
-      <c r="C555" s="0" t="n">
+      <c r="C555" s="1" t="n">
         <v>0.801700635</v>
       </c>
       <c r="D555" s="1" t="n">
@@ -17594,10 +17594,10 @@
       <c r="A556" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B556" s="0" t="n">
+      <c r="B556" s="1" t="n">
         <v>-1.31632012</v>
       </c>
-      <c r="C556" s="0" t="n">
+      <c r="C556" s="1" t="n">
         <v>0.801700606</v>
       </c>
       <c r="D556" s="1" t="n">
@@ -17615,10 +17615,10 @@
       <c r="A557" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B557" s="0" t="n">
+      <c r="B557" s="1" t="n">
         <v>-0.255362288</v>
       </c>
-      <c r="C557" s="0" t="n">
+      <c r="C557" s="1" t="n">
         <v>0.734770648</v>
       </c>
       <c r="D557" s="1" t="n">
@@ -17636,10 +17636,10 @@
       <c r="A558" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B558" s="0" t="n">
+      <c r="B558" s="1" t="n">
         <v>-0.2553622656</v>
       </c>
-      <c r="C558" s="0" t="n">
+      <c r="C558" s="1" t="n">
         <v>0.734770663</v>
       </c>
       <c r="D558" s="1" t="n">
@@ -17657,10 +17657,10 @@
       <c r="A559" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B559" s="0" t="n">
+      <c r="B559" s="1" t="n">
         <v>-0.25536229</v>
       </c>
-      <c r="C559" s="0" t="n">
+      <c r="C559" s="1" t="n">
         <v>0.734770673</v>
       </c>
       <c r="D559" s="1" t="n">
@@ -17678,10 +17678,10 @@
       <c r="A560" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B560" s="0" t="n">
+      <c r="B560" s="1" t="n">
         <v>-0.2553622733</v>
       </c>
-      <c r="C560" s="0" t="n">
+      <c r="C560" s="1" t="n">
         <v>0.73477066</v>
       </c>
       <c r="D560" s="1" t="n">
@@ -17699,10 +17699,10 @@
       <c r="A561" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B561" s="0" t="n">
+      <c r="B561" s="1" t="n">
         <v>-0.2553622852</v>
       </c>
-      <c r="C561" s="0" t="n">
+      <c r="C561" s="1" t="n">
         <v>0.734770649</v>
       </c>
       <c r="D561" s="1" t="n">
@@ -17720,10 +17720,10 @@
       <c r="A562" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B562" s="0" t="n">
+      <c r="B562" s="1" t="n">
         <v>-1.44201572</v>
       </c>
-      <c r="C562" s="0" t="n">
+      <c r="C562" s="1" t="n">
         <v>0.840147407</v>
       </c>
       <c r="D562" s="1" t="n">
@@ -17741,10 +17741,10 @@
       <c r="A563" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B563" s="0" t="n">
+      <c r="B563" s="1" t="n">
         <v>-1.44201571</v>
       </c>
-      <c r="C563" s="0" t="n">
+      <c r="C563" s="1" t="n">
         <v>0.840147396</v>
       </c>
       <c r="D563" s="1" t="n">
@@ -17762,10 +17762,10 @@
       <c r="A564" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B564" s="0" t="n">
+      <c r="B564" s="1" t="n">
         <v>-1.44201571</v>
       </c>
-      <c r="C564" s="0" t="n">
+      <c r="C564" s="1" t="n">
         <v>0.840147398</v>
       </c>
       <c r="D564" s="1" t="n">
@@ -17783,10 +17783,10 @@
       <c r="A565" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B565" s="0" t="n">
+      <c r="B565" s="1" t="n">
         <v>-1.44201575</v>
       </c>
-      <c r="C565" s="0" t="n">
+      <c r="C565" s="1" t="n">
         <v>0.840147435</v>
       </c>
       <c r="D565" s="1" t="n">
@@ -17804,10 +17804,10 @@
       <c r="A566" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B566" s="0" t="n">
+      <c r="B566" s="1" t="n">
         <v>-1.44201574</v>
       </c>
-      <c r="C566" s="0" t="n">
+      <c r="C566" s="1" t="n">
         <v>0.840147404</v>
       </c>
       <c r="D566" s="1" t="n">
@@ -17825,10 +17825,10 @@
       <c r="A567" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B567" s="0" t="n">
+      <c r="B567" s="1" t="n">
         <v>-0.541057479</v>
       </c>
-      <c r="C567" s="0" t="n">
+      <c r="C567" s="1" t="n">
         <v>0.810112291</v>
       </c>
       <c r="D567" s="1" t="n">
@@ -17846,10 +17846,10 @@
       <c r="A568" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B568" s="0" t="n">
+      <c r="B568" s="1" t="n">
         <v>-0.541057485</v>
       </c>
-      <c r="C568" s="0" t="n">
+      <c r="C568" s="1" t="n">
         <v>0.810112283</v>
       </c>
       <c r="D568" s="1" t="n">
@@ -17867,10 +17867,10 @@
       <c r="A569" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B569" s="0" t="n">
+      <c r="B569" s="1" t="n">
         <v>-0.541057443</v>
       </c>
-      <c r="C569" s="0" t="n">
+      <c r="C569" s="1" t="n">
         <v>0.810112286</v>
       </c>
       <c r="D569" s="1" t="n">
@@ -17888,10 +17888,10 @@
       <c r="A570" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B570" s="0" t="n">
+      <c r="B570" s="1" t="n">
         <v>-0.541057415</v>
       </c>
-      <c r="C570" s="0" t="n">
+      <c r="C570" s="1" t="n">
         <v>0.810112289</v>
       </c>
       <c r="D570" s="1" t="n">
@@ -17909,10 +17909,10 @@
       <c r="A571" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B571" s="0" t="n">
+      <c r="B571" s="1" t="n">
         <v>-0.541057479</v>
       </c>
-      <c r="C571" s="0" t="n">
+      <c r="C571" s="1" t="n">
         <v>0.810112284</v>
       </c>
       <c r="D571" s="1" t="n">
@@ -17930,10 +17930,10 @@
       <c r="A572" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B572" s="0" t="n">
+      <c r="B572" s="1" t="n">
         <v>-2.22488952</v>
       </c>
-      <c r="C572" s="0" t="n">
+      <c r="C572" s="1" t="n">
         <v>0.97050465</v>
       </c>
       <c r="D572" s="1" t="n">
@@ -17951,10 +17951,10 @@
       <c r="A573" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B573" s="0" t="n">
+      <c r="B573" s="1" t="n">
         <v>-2.22488953</v>
       </c>
-      <c r="C573" s="0" t="n">
+      <c r="C573" s="1" t="n">
         <v>0.97050466</v>
       </c>
       <c r="D573" s="1" t="n">
@@ -17972,10 +17972,10 @@
       <c r="A574" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B574" s="0" t="n">
+      <c r="B574" s="1" t="n">
         <v>-2.22488954</v>
       </c>
-      <c r="C574" s="0" t="n">
+      <c r="C574" s="1" t="n">
         <v>0.970504655</v>
       </c>
       <c r="D574" s="1" t="n">
@@ -17993,10 +17993,10 @@
       <c r="A575" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B575" s="0" t="n">
+      <c r="B575" s="1" t="n">
         <v>-2.22488955</v>
       </c>
-      <c r="C575" s="0" t="n">
+      <c r="C575" s="1" t="n">
         <v>0.970504668</v>
       </c>
       <c r="D575" s="1" t="n">
@@ -18014,10 +18014,10 @@
       <c r="A576" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B576" s="0" t="n">
+      <c r="B576" s="1" t="n">
         <v>-2.2248895</v>
       </c>
-      <c r="C576" s="0" t="n">
+      <c r="C576" s="1" t="n">
         <v>0.970504664</v>
       </c>
       <c r="D576" s="1" t="n">
@@ -18035,10 +18035,10 @@
       <c r="A577" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B577" s="0" t="n">
+      <c r="B577" s="1" t="n">
         <v>-2.01540665</v>
       </c>
-      <c r="C577" s="0" t="n">
+      <c r="C577" s="1" t="n">
         <v>0.847867874</v>
       </c>
       <c r="D577" s="1" t="n">
@@ -18056,10 +18056,10 @@
       <c r="A578" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B578" s="0" t="n">
+      <c r="B578" s="1" t="n">
         <v>-2.01540667</v>
       </c>
-      <c r="C578" s="0" t="n">
+      <c r="C578" s="1" t="n">
         <v>0.847867898</v>
       </c>
       <c r="D578" s="1" t="n">
@@ -18077,10 +18077,10 @@
       <c r="A579" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B579" s="0" t="n">
+      <c r="B579" s="1" t="n">
         <v>-2.01540666</v>
       </c>
-      <c r="C579" s="0" t="n">
+      <c r="C579" s="1" t="n">
         <v>0.847867842</v>
       </c>
       <c r="D579" s="1" t="n">
@@ -18098,10 +18098,10 @@
       <c r="A580" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B580" s="0" t="n">
+      <c r="B580" s="1" t="n">
         <v>-2.01540661</v>
       </c>
-      <c r="C580" s="0" t="n">
+      <c r="C580" s="1" t="n">
         <v>0.847867854</v>
       </c>
       <c r="D580" s="1" t="n">
@@ -18119,10 +18119,10 @@
       <c r="A581" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B581" s="0" t="n">
+      <c r="B581" s="1" t="n">
         <v>-2.01540667</v>
       </c>
-      <c r="C581" s="0" t="n">
+      <c r="C581" s="1" t="n">
         <v>0.847867893</v>
       </c>
       <c r="D581" s="1" t="n">
@@ -18140,10 +18140,10 @@
       <c r="A582" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B582" s="0" t="n">
+      <c r="B582" s="1" t="n">
         <v>-2.97704926</v>
       </c>
-      <c r="C582" s="0" t="n">
+      <c r="C582" s="1" t="n">
         <v>1.06470656</v>
       </c>
       <c r="D582" s="1" t="n">
@@ -18161,10 +18161,10 @@
       <c r="A583" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B583" s="0" t="n">
+      <c r="B583" s="1" t="n">
         <v>-2.97704932</v>
       </c>
-      <c r="C583" s="0" t="n">
+      <c r="C583" s="1" t="n">
         <v>1.06470654</v>
       </c>
       <c r="D583" s="1" t="n">
@@ -18182,10 +18182,10 @@
       <c r="A584" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B584" s="0" t="n">
+      <c r="B584" s="1" t="n">
         <v>-2.97704929</v>
       </c>
-      <c r="C584" s="0" t="n">
+      <c r="C584" s="1" t="n">
         <v>1.06470657</v>
       </c>
       <c r="D584" s="1" t="n">
@@ -18203,10 +18203,10 @@
       <c r="A585" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B585" s="0" t="n">
+      <c r="B585" s="1" t="n">
         <v>-2.97704935</v>
       </c>
-      <c r="C585" s="0" t="n">
+      <c r="C585" s="1" t="n">
         <v>1.064706593</v>
       </c>
       <c r="D585" s="1" t="n">
@@ -18224,10 +18224,10 @@
       <c r="A586" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B586" s="0" t="n">
+      <c r="B586" s="1" t="n">
         <v>-2.97704934</v>
       </c>
-      <c r="C586" s="0" t="n">
+      <c r="C586" s="1" t="n">
         <v>1.06470657</v>
       </c>
       <c r="D586" s="1" t="n">
@@ -18245,10 +18245,10 @@
       <c r="A587" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B587" s="0" t="n">
+      <c r="B587" s="1" t="n">
         <v>-2.91509962</v>
       </c>
-      <c r="C587" s="0" t="n">
+      <c r="C587" s="1" t="n">
         <v>1.19507475</v>
       </c>
       <c r="D587" s="1" t="n">
@@ -18266,10 +18266,10 @@
       <c r="A588" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B588" s="0" t="n">
+      <c r="B588" s="1" t="n">
         <v>-2.91509973</v>
       </c>
-      <c r="C588" s="0" t="n">
+      <c r="C588" s="1" t="n">
         <v>1.1950748</v>
       </c>
       <c r="D588" s="1" t="n">
@@ -18287,10 +18287,10 @@
       <c r="A589" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B589" s="0" t="n">
+      <c r="B589" s="1" t="n">
         <v>-2.91509967</v>
       </c>
-      <c r="C589" s="0" t="n">
+      <c r="C589" s="1" t="n">
         <v>1.1950748</v>
       </c>
       <c r="D589" s="1" t="n">
@@ -18308,10 +18308,10 @@
       <c r="A590" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B590" s="0" t="n">
+      <c r="B590" s="1" t="n">
         <v>-2.91509966</v>
       </c>
-      <c r="C590" s="0" t="n">
+      <c r="C590" s="1" t="n">
         <v>1.19507478</v>
       </c>
       <c r="D590" s="1" t="n">
@@ -18329,10 +18329,10 @@
       <c r="A591" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B591" s="0" t="n">
+      <c r="B591" s="1" t="n">
         <v>-2.91509974</v>
       </c>
-      <c r="C591" s="0" t="n">
+      <c r="C591" s="1" t="n">
         <v>1.19507483</v>
       </c>
       <c r="D591" s="1" t="n">
@@ -18350,10 +18350,10 @@
       <c r="A592" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B592" s="0" t="n">
+      <c r="B592" s="1" t="n">
         <v>-1.96003283</v>
       </c>
-      <c r="C592" s="0" t="n">
+      <c r="C592" s="1" t="n">
         <v>1.08072004</v>
       </c>
       <c r="D592" s="1" t="n">
@@ -18371,10 +18371,10 @@
       <c r="A593" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B593" s="0" t="n">
+      <c r="B593" s="1" t="n">
         <v>-1.96003284</v>
       </c>
-      <c r="C593" s="0" t="n">
+      <c r="C593" s="1" t="n">
         <v>1.080720029</v>
       </c>
       <c r="D593" s="1" t="n">
@@ -18392,10 +18392,10 @@
       <c r="A594" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B594" s="0" t="n">
+      <c r="B594" s="1" t="n">
         <v>-1.96003284</v>
       </c>
-      <c r="C594" s="0" t="n">
+      <c r="C594" s="1" t="n">
         <v>1.080720062</v>
       </c>
       <c r="D594" s="1" t="n">
@@ -18413,10 +18413,10 @@
       <c r="A595" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B595" s="0" t="n">
+      <c r="B595" s="1" t="n">
         <v>-1.96003289</v>
       </c>
-      <c r="C595" s="0" t="n">
+      <c r="C595" s="1" t="n">
         <v>1.080720074</v>
       </c>
       <c r="D595" s="1" t="n">
@@ -18434,10 +18434,10 @@
       <c r="A596" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B596" s="0" t="n">
+      <c r="B596" s="1" t="n">
         <v>-1.96003283</v>
       </c>
-      <c r="C596" s="0" t="n">
+      <c r="C596" s="1" t="n">
         <v>1.080720029</v>
       </c>
       <c r="D596" s="1" t="n">
@@ -18455,10 +18455,10 @@
       <c r="A597" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B597" s="0" t="n">
+      <c r="B597" s="1" t="n">
         <v>-2.03660105</v>
       </c>
-      <c r="C597" s="0" t="n">
+      <c r="C597" s="1" t="n">
         <v>1.042285785</v>
       </c>
       <c r="D597" s="1" t="n">
@@ -18476,10 +18476,10 @@
       <c r="A598" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B598" s="0" t="n">
+      <c r="B598" s="1" t="n">
         <v>-2.03660096</v>
       </c>
-      <c r="C598" s="0" t="n">
+      <c r="C598" s="1" t="n">
         <v>1.042285768</v>
       </c>
       <c r="D598" s="1" t="n">
@@ -18497,10 +18497,10 @@
       <c r="A599" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B599" s="0" t="n">
+      <c r="B599" s="1" t="n">
         <v>-2.03660094</v>
       </c>
-      <c r="C599" s="0" t="n">
+      <c r="C599" s="1" t="n">
         <v>1.042285758</v>
       </c>
       <c r="D599" s="1" t="n">
@@ -18518,10 +18518,10 @@
       <c r="A600" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B600" s="0" t="n">
+      <c r="B600" s="1" t="n">
         <v>-2.03660108</v>
       </c>
-      <c r="C600" s="0" t="n">
+      <c r="C600" s="1" t="n">
         <v>1.042285805</v>
       </c>
       <c r="D600" s="1" t="n">
@@ -18539,10 +18539,10 @@
       <c r="A601" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B601" s="0" t="n">
+      <c r="B601" s="1" t="n">
         <v>-2.036601</v>
       </c>
-      <c r="C601" s="0" t="n">
+      <c r="C601" s="1" t="n">
         <v>1.042285765</v>
       </c>
       <c r="D601" s="1" t="n">
@@ -18560,10 +18560,10 @@
       <c r="A602" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B602" s="0" t="n">
+      <c r="B602" s="1" t="n">
         <v>-0.6602567344</v>
       </c>
-      <c r="C602" s="0" t="n">
+      <c r="C602" s="1" t="n">
         <v>1.078667713</v>
       </c>
       <c r="D602" s="1" t="n">
@@ -18581,10 +18581,10 @@
       <c r="A603" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B603" s="0" t="n">
+      <c r="B603" s="1" t="n">
         <v>-0.6602567276</v>
       </c>
-      <c r="C603" s="0" t="n">
+      <c r="C603" s="1" t="n">
         <v>1.078667719</v>
       </c>
       <c r="D603" s="1" t="n">
@@ -18602,10 +18602,10 @@
       <c r="A604" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B604" s="0" t="n">
+      <c r="B604" s="1" t="n">
         <v>-0.6602567155</v>
       </c>
-      <c r="C604" s="0" t="n">
+      <c r="C604" s="1" t="n">
         <v>1.078667744</v>
       </c>
       <c r="D604" s="1" t="n">
@@ -18623,10 +18623,10 @@
       <c r="A605" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B605" s="0" t="n">
+      <c r="B605" s="1" t="n">
         <v>-0.660256711</v>
       </c>
-      <c r="C605" s="0" t="n">
+      <c r="C605" s="1" t="n">
         <v>1.078667754</v>
       </c>
       <c r="D605" s="1" t="n">
@@ -18644,10 +18644,10 @@
       <c r="A606" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B606" s="0" t="n">
+      <c r="B606" s="1" t="n">
         <v>-0.660256684</v>
       </c>
-      <c r="C606" s="0" t="n">
+      <c r="C606" s="1" t="n">
         <v>1.078667727</v>
       </c>
       <c r="D606" s="1" t="n">
@@ -47507,7 +47507,7 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -52842,8 +52842,8 @@
   </sheetPr>
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -52867,15 +52867,21 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>-2.099614069</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>-3.77218113</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>0.818210111</v>
       </c>
       <c r="D2" s="1" t="n">
@@ -52885,8 +52891,14 @@
         <v>-1.746948724</v>
       </c>
       <c r="F2" s="1" t="n">
-        <f aca="false">B2+C2*D2</f>
-        <v>-1.00534107307494</v>
+        <f aca="false">(B2+C2*D2) * $I$2 + $I$1</f>
+        <v>-2.36125560334346</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>0.260251512</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -52896,10 +52908,10 @@
       <c r="A3" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>-3.77218114</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>0.818210075</v>
       </c>
       <c r="D3" s="1" t="n">
@@ -52909,8 +52921,8 @@
         <v>-1.808627127</v>
       </c>
       <c r="F3" s="1" t="n">
-        <f aca="false">B3+C3*D3</f>
-        <v>-1.33516940470822</v>
+        <f aca="false">(B3+C3*D3) * $I$2 + $I$1</f>
+        <v>-2.44709392535145</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -52920,10 +52932,10 @@
       <c r="A4" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>-3.77218115</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>0.818210051</v>
       </c>
       <c r="D4" s="1" t="n">
@@ -52933,8 +52945,8 @@
         <v>-1.874361277</v>
       </c>
       <c r="F4" s="1" t="n">
-        <f aca="false">B4+C4*D4</f>
-        <v>-1.59473733710932</v>
+        <f aca="false">(B4+C4*D4) * $I$2 + $I$1</f>
+        <v>-2.51464687222555</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -52944,10 +52956,10 @@
       <c r="A5" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>-3.77218118</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>0.818210081</v>
       </c>
       <c r="D5" s="1" t="n">
@@ -52957,8 +52969,8 @@
         <v>-1.944722334</v>
       </c>
       <c r="F5" s="1" t="n">
-        <f aca="false">B5+C5*D5</f>
-        <v>-1.80433422137646</v>
+        <f aca="false">(B5+C5*D5) * $I$2 + $I$1</f>
+        <v>-2.56919477826657</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -52968,10 +52980,10 @@
       <c r="A6" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>-3.77218107</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>0.818210062</v>
       </c>
       <c r="D6" s="1" t="n">
@@ -52981,8 +52993,8 @@
         <v>-2.020411312</v>
       </c>
       <c r="F6" s="1" t="n">
-        <f aca="false">B6+C6*D6</f>
-        <v>-1.97712309954304</v>
+        <f aca="false">(B6+C6*D6) * $I$2 + $I$1</f>
+        <v>-2.6141633450662</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
